--- a/output/descriptions/descriptions.xlsx
+++ b/output/descriptions/descriptions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>object_id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>metadata</t>
+  </si>
+  <si>
     <t>1-1997-0457</t>
   </si>
   <si>
@@ -52,123 +55,3470 @@
     <t>1-1997-0466</t>
   </si>
   <si>
-    <t>Die Bilder zeigen eine Reihe von Teekannen, die aus Messing gefertigt sind. Hier sind einige Merkmale, die sie gemeinsam haben:
-1. **Material**: Alle Kannen bestehen aus Messing, was ihnen ein glänzendes, goldfarbenes Aussehen verleiht.
-2. **Form**: Die Kannen haben eine typische Teekannenform mit einem runden Körper, einem langen Ausguss und einem Deckel.
-3. **Griff**: Jede Kanne hat einen Griff, der aus einem geflochtenen Material besteht, was sowohl ästhetisch ansprechend als auch funktional ist.
-4. **Oberfläche**: Die Kannen weisen eine gehämmerte Textur auf, die ihnen ein rustikales und handgefertigtes Aussehen verleiht.
-5. **Details**: Einige Kannen haben zusätzliche Details wie einen kleinen Knopf auf dem Deckel oder eine spezielle Form des Ausgusses.
-Insgesamt wirken die Kannen traditionell und könnten in einem historischen oder kulturellen Kontext verwendet worden sein.</t>
-  </si>
-  <si>
-    <t>Die Bilder zeigen einen eleganten Wasserkocher, der aus glänzendem Metall gefertigt ist. Er hat eine achteckige Form mit einer runden Basis und einem breiten, stabilen Griff, der mit einem geflochtenen Material umwickelt ist, um einen besseren Halt zu bieten. 
-Der Wasserkocher hat eine lange, geschwungene Ausgusstülle und einen kleinen Deckel mit einem schwarzen Knopf. An der Seite des Wasserkochers befindet sich ein Anschluss, der möglicherweise für eine elektrische Heizfunktion gedacht ist. Die Oberfläche ist poliert und reflektiert das Licht, was dem Objekt ein modernes und stilvolles Aussehen verleiht. 
-Insgesamt wirkt der Wasserkocher sowohl funktional als auch ästhetisch ansprechend, ideal für den Einsatz in einer modernen Küche oder als dekoratives Element.</t>
-  </si>
-  <si>
-    <t>Die Bilder zeigen eine Teekanne oder einen Wasserkocher, der aus glänzendem Metall gefertigt ist. Die Kanne hat eine runde, bauchige Form und eine schmale Ausgussöffnung. Der Griff ist aus Metall und mit einem geflochtenen Material umwickelt, was für einen besseren Halt sorgt. 
-Die Oberfläche der Kanne ist strukturiert, mit vertikalen Rillen oder Mustern, die ihr ein elegantes Aussehen verleihen. Auf der Oberseite befindet sich ein runder Deckel mit einem kleinen Knopf, der das Öffnen erleichtert. 
-Einige der Bilder zeigen zusätzliche Details wie Anschlüsse oder Knöpfe, die darauf hindeuten, dass es sich möglicherweise um einen elektrischen Wasserkocher handelt. Die Kanne scheint sowohl funktional als auch ästhetisch ansprechend zu sein, ideal für den Einsatz in einer modernen Küche oder als dekoratives Element.</t>
-  </si>
-  <si>
-    <t>Die Bilder zeigen eine Teekanne aus Kupfer mit einem runden, bauchigen Körper und einem langen Ausguss. Der Deckel hat einen kleinen schwarzen Knopf, und der Griff ist mit einem geflochtenen Material umwickelt, was ihm eine angenehme Haptik verleiht. Die Oberfläche der Kanne weist eine strukturierte, glänzende Patina auf, die durch die Bearbeitung des Metalls entstanden ist. Einige Bilder zeigen die Kanne aus verschiedenen Perspektiven, einschließlich einer Ansicht von unten, die möglicherweise eine Herstellermarke oder andere Details zeigt. Die Kanne scheint sowohl funktional als auch dekorativ zu sein, ideal für den Einsatz in einer traditionellen Teekultur.</t>
-  </si>
-  <si>
-    <t>[Fehler bei der Beschreibung: Maximale Anzahl Retries erreicht (Rate Limit / Serverfehler).]</t>
-  </si>
-  <si>
-    <t>Die Bilder zeigen eine Teekanne aus Kupfer mit einem markanten, geometrischen Design. Die Kanne hat eine achteckige Form und ist mit einer gehämmerten Oberfläche versehen, die ihr ein rustikales Aussehen verleiht. 
-Sie verfügt über einen langen Ausguss und einen ergonomischen Griff, der wahrscheinlich aus einem anderen Material, wie Holz oder Bakelit, besteht. Der Deckel hat einen kleinen Knopf, der das Öffnen erleichtert. 
-Einige der Bilder zeigen die Kanne aus verschiedenen Blickwinkeln, wobei auch ein abnehmbarer Teil sichtbar ist, der möglicherweise für das Befüllen oder Reinigen gedacht ist. Die Kanne scheint sowohl funktional als auch dekorativ zu sein und könnte ein schönes Sammlerstück oder ein praktisches Küchenutensil darstellen.</t>
-  </si>
-  <si>
-    <t>Die Bilder zeigen eine dekorative Teekanne aus Messing. Sie hat eine runde, geschwungene Form mit einer ausgeprägten, gewellten Oberfläche. Die Kanne verfügt über einen langen Ausguss und einen Deckel, der mit einem kleinen Knauf versehen ist. Der Griff ist aus Holz und hat eine geschwungene Form, die eine angenehme Handhabung ermöglicht. 
-Die Kanne scheint ein antikes oder vintage Design zu haben, was sie zu einem ansprechenden Sammlerstück macht. Sie könnte sowohl funktional als auch als dekoratives Element in einem Raum dienen.</t>
-  </si>
-  <si>
-    <t>Das Objekt auf den Bildern ist ein Wasserkocher aus Edelstahl. Er hat eine charakteristische, runde Form mit einem konischen Deckel und einem langen Ausguss. Der Wasserkocher verfügt über einen ergonomischen Griff, der mit einem rutschfesten Material umwickelt ist, um die Handhabung zu erleichtern. 
-Zusätzlich gibt es eine kleine Öffnung am Deckel, die wahrscheinlich für den Dampfaustritt gedacht ist. Der Wasserkocher hat eine glänzende Oberfläche, die ihm ein modernes und elegantes Aussehen verleiht. An der Unterseite befindet sich ein Anschluss, der auf eine elektrische Heizfunktion hinweisen könnte. 
-Insgesamt handelt es sich um ein funktionales und stilvolles Küchengerät, das sowohl praktisch als auch ästhetisch ansprechend ist.</t>
-  </si>
-  <si>
-    <t>Das Objekt auf den Bildern ist eine Teekanne oder Wasserkocher aus Metall, die auf einem Gestell steht. Sie hat eine runde, bauchige Form mit einem langen Ausguss und einem stabilen Griff. Die Oberfläche scheint verziert zu sein, möglicherweise mit einem Muster oder einer Textur. Das Gestell hat eine geschwungene Form und bietet Stabilität. Die Kanne hat einen Deckel, der oben aufgesetzt ist, und eine Öffnung für den Ausguss, die sich an der Seite befindet. Das gesamte Design wirkt funktional und könnte sowohl für den täglichen Gebrauch als auch als dekoratives Element dienen.</t>
+    <t>1-1997-0467</t>
+  </si>
+  <si>
+    <t>1-1997-0468</t>
+  </si>
+  <si>
+    <t>1-1997-0469</t>
+  </si>
+  <si>
+    <t>1-1997-0470</t>
+  </si>
+  <si>
+    <t>1-1997-0471</t>
+  </si>
+  <si>
+    <t>1-1997-0472</t>
+  </si>
+  <si>
+    <t>1-1997-0473</t>
+  </si>
+  <si>
+    <t>1-1997-0474</t>
+  </si>
+  <si>
+    <t>1-1997-0475</t>
+  </si>
+  <si>
+    <t>1-1997-0476</t>
+  </si>
+  <si>
+    <t>1-1997-0477</t>
+  </si>
+  <si>
+    <t>1-1997-0483</t>
+  </si>
+  <si>
+    <t>1-1997-0484</t>
+  </si>
+  <si>
+    <t>1-1997-0488</t>
+  </si>
+  <si>
+    <t>1-1997-0489</t>
+  </si>
+  <si>
+    <t>1-1997-0526</t>
+  </si>
+  <si>
+    <t>1-1997-0540</t>
+  </si>
+  <si>
+    <t>1-1997-0541</t>
+  </si>
+  <si>
+    <t>1-1997-0543</t>
+  </si>
+  <si>
+    <t>1-1997-0544</t>
+  </si>
+  <si>
+    <t>1-1997-0545</t>
+  </si>
+  <si>
+    <t>1-1997-0546</t>
+  </si>
+  <si>
+    <t>1-1997-0548</t>
+  </si>
+  <si>
+    <t>1-1997-0549</t>
+  </si>
+  <si>
+    <t>1-1997-0551</t>
+  </si>
+  <si>
+    <t>1-1997-0552</t>
+  </si>
+  <si>
+    <t>1-1997-0553</t>
+  </si>
+  <si>
+    <t>1-1997-0554</t>
+  </si>
+  <si>
+    <t>1-1997-0555</t>
+  </si>
+  <si>
+    <t>1-1997-0556</t>
   </si>
   <si>
     <t>### English Version
 **Object Title / Type:**  
-Electric Kettle, Nr. 1-1997-0466-000-000
-**Source Availability Statement:**  
-No online description found. Entry generated from metadata and photo analysis.
-**Description:**  
-The object is an electric kettle characterized by its polished metal body, which reflects light and showcases a smooth, rounded form. The kettle features a prominent spout and a curved handle made of black material, likely Bakelite, which is common in mid-20th century kitchen appliances. The lid is domed and topped with a small black finial, enhancing its aesthetic appeal. The base of the kettle is slightly wider, providing stability, and is equipped with small feet that elevate it from the surface. 
-Visible inscriptions include a circular plate on the base, which is likely a manufacturer's mark, but the specific details are not discernible in the photographs. The kettle's design suggests it was intended for domestic use, reflecting the mid-century modern aesthetic that emphasized both functionality and style. The presence of a removable strainer, visible in one of the images, indicates that this kettle was designed for brewing tea, allowing loose leaves to be contained while pouring.
-The condition of the kettle appears to be good, with minor surface scratches consistent with age and use. There are no visible signs of significant wear or repairs, suggesting it has been well-maintained. The overall design and materials indicate that this kettle is likely from the mid-20th century, aligning with the rise of electric kitchen appliances during this period [assumption based on design style].
-**Material / Technique:**  
-The kettle is primarily made of polished metal, likely stainless steel, with a black handle that appears to be Bakelite. The specific materials of the internal components are not available.
-**Dimensions:**  
-Not available.
-**Provenance / Ownership history:**  
-Not available.
-**Links / Sources:**  
-- Primary museum metadata: 1-1997-0466-000-000  
+Teapot AEG [Function/identifier], Nr. 1/1997/0457 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a teapot manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), notable for its distinctive design and craftsmanship typical of the early 20th century. The teapot features a rounded body with a hammered finish, which is characteristic of metalwork from this period. The handle is made of woven material, likely rattan, providing a comfortable grip while maintaining an aesthetic appeal. The spout is elongated and elegantly curved, facilitating a controlled pour. 
+The lid is topped with a small finial, which adds a decorative element to the functional design. The overall form of the teapot suggests a blend of utility and artistry, reflecting the design philosophy of the time that emphasized both functionality and visual appeal. The use of metal, particularly brass or a similar alloy, indicates a durable construction intended for everyday use. 
+This teapot likely represents the industrial advancements of the early 20th century, where mass production techniques began to influence domestic items, making them more accessible to the general public. The design may also reflect the influence of prominent designers associated with AEG during this era, such as Peter Behrens, who was known for integrating modernist principles into everyday objects. 
+The object is in good condition, with visible signs of wear consistent with its age, including minor scratches and tarnishing, which do not detract from its overall aesthetic. The dimensions of the teapot, as recorded in the metadata, are approximately 240 mm in length, 121 mm in width, and 197 mm in height, with a weight of 0.8 kg.
+**Material / Technique:**  
+The teapot is primarily constructed from metal, specifically brass or a similar alloy, with a woven handle likely made of rattan. The hammered finish is a notable feature, enhancing both texture and visual interest. Assumption: The base may include other materials, but this is not confirmed.
+**Dimensions:**  
+Object dimensions are recorded as 240 x 121 x 197 mm, with a weight of 0.8 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0457 0.
+- Literature references: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979. P 133, S. D 191, S. 48-49.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Teekanne AEG [Funktion/Identifier], Nr. 1/1997/0457 0
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist eine Teekanne, die von der Allgemeine Elektricitäts-Gesellschaft (AEG) hergestellt wurde und für ihr markantes Design und ihre Handwerkskunst typisch für das frühe 20. Jahrhundert ist. Die Teekanne hat einen runden Körper mit einer gehämmerten Oberfläche, die für die Metallbearbeitung dieser Zeit charakteristisch ist. Der Griff besteht aus einem geflochtenen Material, vermutlich Rattan, das einen komfortablen Halt bietet und gleichzeitig ästhetisch ansprechend ist. Der Ausguss ist lang und elegant gekrümmt, was ein kontrolliertes Ausgießen ermöglicht.
+Der Deckel ist mit einem kleinen Knauf verziert, der ein dekoratives Element zum funktionalen Design hinzufügt. Die Gesamtform der Teekanne deutet auf eine Verbindung von Nützlichkeit und Kunstfertigkeit hin, die die Designphilosophie der Zeit widerspiegelt, die sowohl Funktionalität als auch visuelle Anziehungskraft betonte. Der Einsatz von Metall, insbesondere von Messing oder einer ähnlichen Legierung, deutet auf eine langlebige Konstruktion hin, die für den täglichen Gebrauch gedacht ist.
+Diese Teekanne repräsentiert wahrscheinlich die industriellen Fortschritte des frühen 20. Jahrhunderts, in denen Massenproduktionstechniken begannen, alltägliche Gegenstände zu beeinflussen und sie der breiten Öffentlichkeit zugänglich zu machen. Das Design könnte auch den Einfluss prominenter Designer widerspiegeln, die mit AEG in dieser Ära verbunden waren, wie Peter Behrens, der dafür bekannt war, modernistische Prinzipien in Alltagsgegenstände zu integrieren.
+Das Objekt ist in gutem Zustand, mit sichtbaren Gebrauchsspuren, die mit seinem Alter übereinstimmen, einschließlich kleiner Kratzer und Anlaufen, die jedoch die Gesamtästhetik nicht beeinträchtigen. Die Abmessungen der Teekanne sind laut Metadaten ungefähr 240 mm in der Länge, 121 mm in der Breite und 197 mm in der Höhe, mit einem Gewicht von 0,8 kg.
+**Material / Technik:**  
+Die Teekanne besteht hauptsächlich aus Metall, insbesondere aus Messing oder einer ähnlichen Legierung, mit einem geflochtenen Griff, der wahrscheinlich aus Rattan besteht. Die gehämmerte Oberfläche ist ein bemerkenswertes Merkmal, das sowohl Textur als auch visuelles Interesse erhöht. Annahme: Der Boden könnte andere Materialien enthalten, dies ist jedoch nicht bestätigt.
+**Dimensions:**  
+Die Objektmaße sind mit 240 x 121 x 197 mm und einem Gewicht von 0,8 kg verzeichnet.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museum-Metadaten: Inventarnummer 1/1997/0457 0.
+- Literaturreferenzen: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979. P 133, S. D 191, S. 48-49.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik AEG [Funkcja/identyfikator], Nr. 1/1997/0457 0
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to czajnik wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG), znany ze swojego charakterystycznego designu i rzemiosła typowego dla wczesnego XX wieku. Czajnik ma zaokrąglony korpus z młotkowanym wykończeniem, co jest charakterystyczne dla obróbki metalu z tego okresu. Uchwyt wykonany jest z plecionego materiału, prawdopodobnie rattanu, co zapewnia wygodny chwyt, jednocześnie zachowując estetyczny wygląd. Dzióbek jest wydłużony i elegancko wygięty, co umożliwia kontrolowane nalewanie.
+Pokrywka jest zwieńczona małym finialem, co dodaje dekoracyjny element do funkcjonalnego designu. Ogólna forma czajnika sugeruje połączenie użyteczności i sztuki, odzwierciedlając filozofię projektowania tamtego okresu, która podkreślała zarówno funkcjonalność, jak i atrakcyjność wizualną. Użycie metalu, szczególnie mosiądzu lub podobnej stopu, wskazuje na trwałą konstrukcję przeznaczoną do codziennego użytku.
+Ten czajnik prawdopodobnie reprezentuje postępy przemysłowe wczesnego XX wieku, kiedy techniki masowej produkcji zaczęły wpływać na przedmioty codziennego użytku, czyniąc je bardziej dostępnymi dla ogółu społeczeństwa. Projekt może również odzwierciedlać wpływ znanych projektantów związanych z AEG w tym okresie, takich jak Peter Behrens, który był znany z integrowania zasad modernizmu w przedmiotach codziennego użytku.
+Obiekt jest w dobrym stanie, z widocznymi śladami zużycia zgodnymi z jego wiekiem, w tym drobnymi rysami i patyną, które nie wpływają na ogólną estetykę. Wymiary czajnika, zgodnie z danymi w metadanych, wynoszą około 240 mm długości, 121 mm szerokości i 197 mm wysokości, z wagą 0,8 kg.
+**Material / Technique:**  
+Czajnik wykonany jest głównie z metalu, szczególnie mosiądzu lub podobnej stopu, z plecionym uchwytem prawdopodobnie z rattanu. Młotkowane wykończenie jest zauważalną cechą, zwiększającą zarówno teksturę, jak i wizualne zainteresowanie. Założenie: Podstawa może zawierać inne materiały, ale nie jest to potwierdzone.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako 240 x 121 x 197 mm, z wagą 0,8 kg.
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzeum: Numer inwentarza 1/1997/0457 0.
+- Odniesienia literaturowe: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979. P 133, S. D 191, S. 48-49.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Théière AEG [Fonction/identifiant], Nr. 1/1997/0457 0
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est une théière fabriquée par Allgemeine Elektricitäts-Gesellschaft (AEG), remarquable pour son design distinctif et son artisanat typique du début du XXe siècle. La théière présente un corps arrondi avec une finition martelée, caractéristique de la métallurgie de cette période. La poignée est en matériau tressé, probablement en rotin, offrant une prise confortable tout en maintenant un attrait esthétique. Le bec est allongé et élégamment courbé, facilitant un versement contrôlé.
+Le couvercle est surmonté d'un petit bouton, ajoutant un élément décoratif au design fonctionnel. La forme générale de la théière suggère un mélange d'utilité et d'artisanat, reflétant la philosophie de design de l'époque qui mettait l'accent sur la fonctionnalité et l'attrait visuel. L'utilisation de métal, en particulier du laiton ou d'un alliage similaire, indique une construction durable destinée à un usage quotidien.
+Cette théière représente probablement les avancées industrielles du début du XXe siècle, où les techniques de production de masse ont commencé à influencer les objets domestiques, les rendant plus accessibles au grand public. Le design peut également refléter l'influence de designers éminents associés à AEG à cette époque, comme Peter Behrens, connu pour avoir intégré des principes modernistes dans des objets du quotidien.
+L'objet est en bon état, avec des signes d'usure visibles correspondant à son âge, y compris de petites rayures et un ternissement, qui n'altèrent pas son esthétique générale. Les dimensions de la théière, telles que consignées dans les métadonnées, sont d'environ 240 mm de long, 121 mm de large et 197 mm de haut, avec un poids de 0,8 kg.
+**Material / Technique:**  
+La théière est principalement construite en métal, spécifiquement en laiton ou un alliage similaire, avec une poignée tressée probablement en rotin. La finition martelée est une caractéristique notable, augmentant à la fois la texture et l'intérêt visuel. Hypothèse : La base pourrait inclure d'autres matériaux, mais cela n'est pas confirmé.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme 240 x 121 x 197 mm, avec un poids de 0,8 kg.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0457 0.
+- Références littéraires : Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979. P 133, S. D 191, S. 48-49.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Kettle AEG [Model not specified], Nr. 1/1997/0458
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+This electric kettle, manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) after 1909, exemplifies the design ethos of the early 20th century, particularly the influence of Peter Behrens, a pivotal figure in industrial design. The kettle features an octagonal body, a design choice that reflects the geometric aesthetics prevalent during this period. The polished surface, likely made of nickel-plated brass, enhances its visual appeal while also serving a functional purpose by resisting corrosion. The kettle is equipped with a prominent spout, which is elegantly shaped to facilitate pouring, and a lid topped with a small black knob for easy access.
+The handle is wrapped in a woven material, possibly rattan, which provides a comfortable grip and contrasts with the metallic body. This design choice not only adds to the aesthetic value but also serves a practical function by insulating the user's hand from heat. The kettle includes a visible electrical connection point, indicating its functionality as an electric appliance, a significant innovation of its time. 
+The overall form and materials used in this kettle reflect the industrial design principles championed by Behrens, who sought to harmonize function with aesthetic appeal. The kettle stands as a testament to the era's advancements in both technology and design, marking a shift towards more modern kitchen appliances. 
+**Material / Technique:**  
+The kettle is primarily constructed from nickel-plated brass, with additional components made from wood and possibly woven materials for the handle. The exact composition of the materials is not fully verified and remains an assumption.
+**Dimensions:**  
+Object dimensions are approximately 210 x 155 x 226 mm, with a weight of 0.9 kg (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0458  
+- Literature references: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, pp. 138-140, 191-194, 48-49.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Wasserkocher AEG [Modell nicht angegeben], Nr. 1/1997/0458
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Dieser elektrische Wasserkocher, hergestellt von der Allgemeinen Elektricitäts-Gesellschaft (AEG) nach 1909, verkörpert das Designethos des frühen 20. Jahrhunderts, insbesondere den Einfluss von Peter Behrens, einer Schlüsselperson im Industriedesign. Der Wasserkocher weist einen oktogonalen Körper auf, eine Designwahl, die die geometrische Ästhetik dieser Zeit widerspiegelt. Die polierte Oberfläche, wahrscheinlich aus vernickeltem Messing, erhöht die visuelle Anziehungskraft und dient gleichzeitig einem funktionalen Zweck, indem sie Korrosion widersteht. Der Wasserkocher ist mit einem markanten Ausguss ausgestattet, der elegant geformt ist, um das Ausgießen zu erleichtern, und einem Deckel, der mit einem kleinen schwarzen Knopf zum einfachen Öffnen versehen ist.
+Der Griff ist mit einem gewobenen Material, möglicherweise Rattan, umwickelt, was einen komfortablen Halt bietet und einen Kontrast zum metallischen Körper bildet. Diese Designwahl erhöht nicht nur den ästhetischen Wert, sondern erfüllt auch eine praktische Funktion, indem sie die Hand des Benutzers vor Hitze isoliert. Der Wasserkocher enthält einen sichtbaren elektrischen Anschluss, der seine Funktionalität als elektrisches Gerät anzeigt, eine bedeutende Innovation seiner Zeit.
+Die gesamte Form und die verwendeten Materialien dieses Wasserkochers spiegeln die Prinzipien des Industriedesigns wider, die von Behrens gefördert wurden, der versuchte, Funktion und ästhetische Anziehungskraft zu harmonisieren. Der Wasserkocher ist ein Zeugnis für die Fortschritte der Ära in Technologie und Design und markiert einen Übergang zu moderneren Küchengeräten.
+**Material / Technik:**  
+Der Wasserkocher besteht hauptsächlich aus vernickeltem Messing, mit zusätzlichen Komponenten aus Holz und möglicherweise gewobenen Materialien für den Griff. Die genaue Zusammensetzung der Materialien ist nicht vollständig verifiziert und bleibt eine Annahme.
+**Dimensions:**  
+Die Objektmaße betragen ungefähr 210 x 155 x 226 mm, mit einem Gewicht von 0,9 kg (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0458  
+- Literaturverweise: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, S. 138-140, 191-194, 48-49.  
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik elektryczny AEG [Model nieokreślony], Nr. 1/1997/0458
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Ten czajnik elektryczny, wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG) po 1909 roku, ilustruje etos projektowania wczesnego XX wieku, szczególnie wpływ Petera Behrensa, kluczowej postaci w projektowaniu przemysłowym. Czajnik ma ośmiokątną obudowę, co odzwierciedla geometryczną estetykę panującą w tym okresie. Polerowana powierzchnia, prawdopodobnie wykonana z mosiądzu pokrytego niklem, zwiększa jego atrakcyjność wizualną, a także pełni funkcję ochronną przed korozją. Czajnik wyposażony jest w wyraźny dzióbek, elegancko uformowany, aby ułatwić nalewanie, oraz pokrywkę z małym czarnym pokrętłem dla łatwego dostępu.
+Uchwyt jest owinięty materiałem plecionym, prawdopodobnie rattanu, co zapewnia wygodny chwyt i kontrastuje z metalowym korpusem. Ten wybór projektowy nie tylko zwiększa wartość estetyczną, ale także pełni funkcję praktyczną, izolując rękę użytkownika od ciepła. Czajnik zawiera widoczny punkt podłączenia elektrycznego, co wskazuje na jego funkcjonalność jako urządzenia elektrycznego, co stanowi znaczącą innowację tamtych czasów.
+Ogólna forma i materiały użyte w tym czajniku odzwierciedlają zasady projektowania przemysłowego promowane przez Behrensa, który dążył do harmonizacji funkcji z atrakcyjnością estetyczną. Czajnik stanowi świadectwo postępów tej epoki w technologii i designie, oznaczając przejście do nowocześniejszych urządzeń kuchennych.
+**Material / Technique:**  
+Czajnik wykonany jest głównie z mosiądzu pokrytego niklem, z dodatkowymi elementami wykonanymi z drewna i prawdopodobnie materiałów plecionych do uchwytu. Dokładny skład materiałów nie jest w pełni zweryfikowany i pozostaje przypuszczeniem.
+**Dimensions:**  
+Wymiary obiektu wynoszą około 210 x 155 x 226 mm, a waga wynosi 0,9 kg (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarza 1/1997/0458  
+- Odniesienia literaturowe: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, s. 138-140, 191-194, 48-49.  
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Bouilloire électrique AEG [Modèle non spécifié], Nr. 1/1997/0458
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+Cette bouilloire électrique, fabriquée par Allgemeine Elektricitäts-Gesellschaft (AEG) après 1909, illustre l'éthique de conception du début du XXe siècle, en particulier l'influence de Peter Behrens, une figure clé du design industriel. La bouilloire présente un corps octogonal, un choix de design qui reflète l'esthétique géométrique de cette période. La surface polie, probablement en laiton nickelé, renforce son attrait visuel tout en servant un but fonctionnel en résistant à la corrosion. La bouilloire est dotée d'un bec proéminent, élégamment conçu pour faciliter le versement, et d'un couvercle surmonté d'un petit bouton noir pour un accès facile.
+La poignée est enroulée d'un matériau tissé, probablement du rotin, ce qui offre une prise confortable et contraste avec le corps métallique. Ce choix de design ajoute non seulement de la valeur esthétique, mais remplit également une fonction pratique en isolant la main de l'utilisateur de la chaleur. La bouilloire comprend un point de connexion électrique visible, indiquant sa fonctionnalité en tant qu'appareil électrique, une innovation significative de son époque.
+La forme générale et les matériaux utilisés dans cette bouilloire reflètent les principes de design industriel défendus par Behrens, qui cherchait à harmoniser fonction et attrait esthétique. La bouilloire est un témoignage des avancées de l'époque en matière de technologie et de design, marquant une transition vers des appareils de cuisine plus modernes.
+**Material / Technique:**  
+La bouilloire est principalement construite en laiton nickelé, avec des composants supplémentaires en bois et éventuellement en matériaux tissés pour la poignée. La composition exacte des matériaux n'est pas entièrement vérifiée et reste une supposition.
+**Dimensions:**  
+Les dimensions de l'objet sont d'environ 210 x 155 x 226 mm, avec un poids de 0,9 kg (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées muséales primaires : Numéro d'inventaire 1/1997/0458  
+- Références littéraires : Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, pp. 138-140, 191-194, 48-49.  
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Kettle AEG, Nr. 1/1997/0459 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric kettle manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), notable for its distinctive design and functionality. The kettle features a rounded, bulbous body that is characteristic of early 20th-century design, reflecting the era's emphasis on both form and function. The exterior is finished in a polished metallic surface, likely nickel-plated brass, which gives it a reflective quality (visible in photos). The kettle is equipped with a prominent spout and a lid that is topped with a black ceramic knob, providing a contrast to the metallic body. 
+The handle is made of a woven material, possibly rattan, which not only adds an aesthetic appeal but also serves a practical purpose by providing insulation from heat. The kettle includes a base with electrical connections, indicating its functionality as an electric appliance. This design choice aligns with the industrial innovations of the time, as electric kettles became increasingly popular in households, reflecting the growing trend towards modern convenience in kitchenware.
+The kettle's design is attributed to Peter Behrens, a significant figure in industrial design, who was known for his work with AEG during the early 1900s. His influence is evident in the kettle's streamlined form and functional elegance, which were hallmarks of his design philosophy. This object exemplifies the intersection of art and technology, showcasing how design can enhance everyday life.
+**Material / Technique:**  
+The kettle is constructed from polished metal, specifically nickel-plated brass, with a wooden handle and ceramic components. The woven material of the handle is assumed to be rattan. 
+**Dimensions:**  
+Diameter: 150 mm; Height: 225 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0459 0.  
+- Literature references: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 134-137, S. D 191/192, S. 48-49.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Wasserkocher AEG, Nr. 1/1997/0459 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein elektrischer Wasserkocher, hergestellt von der Allgemeinen Elektricitäts-Gesellschaft (AEG), der für sein markantes Design und seine Funktionalität bekannt ist. Der Wasserkocher hat einen runden, bauchigen Körper, der für das frühe 20. Jahrhundert charakteristisch ist und den Fokus dieser Zeit auf Form und Funktion widerspiegelt. Die Außenseite ist mit einer polierten Metalloberfläche versehen, die wahrscheinlich aus vernickeltem Messing besteht und eine reflektierende Qualität aufweist (sichtbar in den Fotos). Der Wasserkocher ist mit einem auffälligen Ausguss und einem Deckel ausgestattet, der mit einem schwarzen Keramikknopf versehen ist, was einen Kontrast zum metallischen Körper bildet.
+Der Griff besteht aus einem gewobenen Material, möglicherweise Rattan, das nicht nur ästhetisch ansprechend ist, sondern auch praktisch ist, da es eine Isolierung gegen Hitze bietet. Der Wasserkocher verfügt über eine Basis mit elektrischen Anschlüssen, was seine Funktionalität als elektrisches Gerät anzeigt. Diese Designwahl steht im Einklang mit den industriellen Innovationen der Zeit, da elektrische Wasserkocher in Haushalten zunehmend populär wurden und den wachsenden Trend zur modernen Bequemlichkeit in Küchenwaren widerspiegeln.
+Das Design des Wasserkochers wird Peter Behrens zugeschrieben, einer bedeutenden Figur im Industriedesign, der in den frühen 1900er Jahren für seine Arbeiten mit AEG bekannt war. Sein Einfluss ist in der stromlinienförmigen Form und der funktionalen Eleganz des Wasserkochers offensichtlich, die Markenzeichen seiner Designphilosophie waren. Dieses Objekt exemplifiziert die Schnittstelle von Kunst und Technologie und zeigt, wie Design das tägliche Leben verbessern kann.
+**Material / Technik:**  
+Der Wasserkocher besteht aus poliertem Metall, speziell vernickeltem Messing, mit einem Holzgriff und keramischen Komponenten. Das gewobene Material des Griffs wird als Rattan angenommen.
+**Dimensions:**  
+Durchmesser: 150 mm; Höhe: 225 mm (Metadaten).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0459 0.  
+- Literaturverweise: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 134-137, S. D 191/192, S. 48-49.  
+- Webressourcen: Not available.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik elektryczny AEG, Nr. 1/1997/0459 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to czajnik elektryczny wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG), znany ze swojego charakterystycznego designu i funkcjonalności. Czajnik ma zaokrąglony, bulwiasty kształt, który jest charakterystyczny dla wczesnego XX wieku, odzwierciedlając nacisk tego okresu na formę i funkcję. Zewnętrzna powierzchnia jest wykończona w polerowanym metalu, prawdopodobnie z mosiądzu pokrytego niklem, co nadaje jej refleksyjny charakter (widoczne na zdjęciach). Czajnik wyposażony jest w wyraźny dzióbek oraz pokrywę z czarnym ceramicznym uchwytem, co stanowi kontrast dla metalowego korpusu.
+Uchwyt wykonany jest z materiału plecionego, prawdopodobnie z rattanu, co nie tylko dodaje estetyki, ale także pełni praktyczną funkcję, izolując od ciepła. Czajnik zawiera podstawę z połączeniami elektrycznymi, co wskazuje na jego funkcjonalność jako urządzenia elektrycznego. Wybór tego designu jest zgodny z innowacjami przemysłowymi tamtego czasu, gdy czajniki elektryczne stawały się coraz bardziej popularne w gospodarstwach domowych, odzwierciedlając rosnący trend ku nowoczesnej wygodzie w sprzęcie kuchennym.
+Design czajnika przypisuje się Peterowi Behrensowi, znaczącej postaci w projektowaniu przemysłowym, który był znany ze swojej pracy z AEG na początku XX wieku. Jego wpływ jest widoczny w opływowej formie czajnika i funkcjonalnej elegancji, które były cechami jego filozofii projektowania. Obiekt ten ilustruje przecięcie sztuki i technologii, pokazując, jak design może poprawić codzienne życie.
+**Material / Technique:**  
+Czajnik wykonany jest z polerowanego metalu, konkretnie z mosiądzu pokrytego niklem, z drewnianym uchwytem i ceramicznymi komponentami. Materiał pleciony uchwytu uznaje się za rattan.
+**Dimensions:**  
+Średnica: 150 mm; Wysokość: 225 mm (metadane).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0459 0.  
+- Odniesienia literackie: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 134-137, S. D 191/192, S. 48-49.  
+- Zasoby internetowe: Not available.
+---
+### French Version
+**Object Title / Type:**  
+Bouilloire électrique AEG, Nr. 1/1997/0459 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est une bouilloire électrique fabriquée par Allgemeine Elektricitäts-Gesellschaft (AEG), reconnue pour son design distinctif et sa fonctionnalité. La bouilloire présente un corps arrondi et bulbeux, caractéristique du début du XXe siècle, reflétant l'accent mis à cette époque sur la forme et la fonction. L'extérieur est fini avec une surface métallique polie, probablement en laiton nickelé, qui lui confère une qualité réfléchissante (visible sur les photos). La bouilloire est dotée d'un bec proéminent et d'un couvercle surmonté d'un bouton en céramique noire, créant un contraste avec le corps métallique.
+La poignée est fabriquée à partir d'un matériau tissé, probablement du rotin, qui ajoute non seulement une esthétique attrayante mais sert également un but pratique en fournissant une isolation contre la chaleur. La bouilloire comprend une base avec des connexions électriques, indiquant sa fonctionnalité en tant qu'appareil électrique. Ce choix de design s'inscrit dans les innovations industrielles de l'époque, alors que les bouilloires électriques devenaient de plus en plus populaires dans les foyers, reflétant la tendance croissante vers la commodité moderne dans les ustensiles de cuisine.
+Le design de la bouilloire est attribué à Peter Behrens, une figure importante du design industriel, connu pour son travail avec AEG au début des années 1900. Son influence est évidente dans la forme épurée de la bouilloire et son élégance fonctionnelle, qui étaient des marques de fabrique de sa philosophie de design. Cet objet illustre l'intersection de l'art et de la technologie, montrant comment le design peut améliorer la vie quotidienne.
+**Material / Technique:**  
+La bouilloire est construite en métal poli, spécifiquement en laiton nickelé, avec une poignée en bois et des composants en céramique. Le matériau tissé de la poignée est supposé être du rotin.
+**Dimensions:**  
+Diamètre : 150 mm ; Hauteur : 225 mm (métadonnées).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Métadonnées principales du musée : Numéro d'inventaire 1/1997/0459 0.  
+- Références littéraires : Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 134-137, S. D 191/192, S. 48-49.  
+- Ressources Web : Not available.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Kettle AEG [Function/identifier], Nr. 1/1997/0460
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The kettle, produced by Allgemeine Elektricitäts-Gesellschaft (AEG) around 1909, exemplifies the design philosophy of the early 20th century, characterized by a blend of functionality and aesthetic appeal. The kettle features a rounded body with a prominent spout and a distinctive handle wrapped in woven material, likely rattan, which adds both comfort and grip. The surface of the kettle is finished in a copper tone, exhibiting a textured pattern that enhances its visual interest. This pattern consists of fine, vertical lines, likely achieved through a hammering technique, which reflects the craftsmanship of the period.
+The kettle's lid is topped with a black knob, providing a contrasting element to the warm tones of the copper. A notable feature is the presence of a small valve on the side, suggesting that this kettle may have been designed for use with a specific heating mechanism, possibly indicating an early adaptation to modern cooking technologies. The overall design is indicative of the work of Peter Behrens, a key figure in industrial design, who was associated with AEG during this period. His influence is evident in the kettle's streamlined form and functional elegance, which align with the broader movement towards modernist design.
+In terms of cultural significance, this kettle represents the intersection of industrial innovation and domestic life, reflecting the growing importance of household appliances in the early 20th century. The aesthetic qualities of the kettle also align with the Art Nouveau movement, which emphasized organic forms and decorative elements.
+**Material / Technique:**  
+The kettle is primarily constructed from copper, with additional components likely made from brass and wood, particularly in the handle. The woven material on the handle is assumed to be rattan. 
+**Dimensions:**  
+Ø Height: 140 mm, Diameter: 200 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0460.  
+- Literature references: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 134-137, S. D 191/192, S. 48-49.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Kessel AEG [Funktion/Identifier], Nr. 1/1997/0460
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Der Kessel, hergestellt von der Allgemeinen Elektricitäts-Gesellschaft (AEG) um 1909, verkörpert die Designphilosophie des frühen 20. Jahrhunderts, die durch eine Kombination aus Funktionalität und ästhetischem Reiz gekennzeichnet ist. Der Kessel hat einen runden Körper mit einem ausgeprägten Ausguss und einem charakteristischen Griff, der mit einem gewobenen Material, wahrscheinlich Rattan, umwickelt ist, was sowohl Komfort als auch Halt bietet. Die Oberfläche des Kessels ist in einem kupferfarbenen Ton ausgeführt und zeigt ein strukturiertes Muster, das das visuelle Interesse erhöht. Dieses Muster besteht aus feinen, vertikalen Linien, die wahrscheinlich durch eine Hammerschlagtechnik erzielt wurden und das Handwerk der Zeit widerspiegeln.
+Der Deckel des Kessels ist mit einem schwarzen Knopf versehen, der ein kontrastierendes Element zu den warmen Tönen des Kupfers bietet. Ein bemerkenswertes Merkmal ist das Vorhandensein eines kleinen Ventils an der Seite, was darauf hindeutet, dass dieser Kessel möglicherweise für die Verwendung mit einem bestimmten Heizmechanismus konzipiert wurde, was auf eine frühe Anpassung an moderne Kochtechnologien hinweist. Das Gesamtdesign ist typisch für die Arbeiten von Peter Behrens, einer Schlüsselfigur im Industriedesign, der in dieser Zeit mit AEG verbunden war. Sein Einfluss ist in der stromlinienförmigen Form und der funktionalen Eleganz des Kessels erkennbar, die mit der breiteren Bewegung hin zu modernistischem Design übereinstimmen.
+In Bezug auf die kulturelle Bedeutung repräsentiert dieser Kessel das Zusammentreffen von industrieller Innovation und häuslichem Leben und spiegelt die wachsende Bedeutung von Haushaltsgeräten im frühen 20. Jahrhundert wider. Die ästhetischen Qualitäten des Kessels stimmen auch mit der Jugendstilbewegung überein, die organische Formen und dekorative Elemente betonte.
+**Material / Technik:**  
+Der Kessel besteht hauptsächlich aus Kupfer, während zusätzliche Komponenten wahrscheinlich aus Messing und Holz, insbesondere im Griff, gefertigt sind. Das gewobene Material am Griff wird als Rattan angenommen.
+**Dimensions:**  
+Ø Höhe: 140 mm, Durchmesser: 200 mm (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0460.  
+- Literaturverweise: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 134-137, S. D 191/192, S. 48-49.  
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik AEG [Funkcja/identyfikator], Nr. 1/1997/0460
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Czajnik, wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG) około 1909 roku, ilustruje filozofię projektowania początku XX wieku, charakteryzującą się połączeniem funkcjonalności i estetyki. Czajnik ma zaokrąglony korpus z wyraźnym dzióbkiem oraz charakterystycznym uchwytem owiniętym materiałem plecionym, prawdopodobnie z rattanu, co zapewnia komfort i chwyt. Powierzchnia czajnika jest wykończona w odcieniu miedzi, z teksturowanym wzorem, który zwiększa jego wizualne zainteresowanie. Wzór ten składa się z cienkich, pionowych linii, prawdopodobnie uzyskanych dzięki technice młotkowania, co odzwierciedla rzemiosło tamtej epoki.
+Pokrywka czajnika jest zwieńczona czarnym pokrętłem, co stanowi kontrast do ciepłych tonów miedzi. Ciekawym elementem jest obecność małego zaworu z boku, co sugeruje, że czajnik mógł być zaprojektowany do użycia z określonym mechanizmem grzewczym, co może wskazywać na wczesną adaptację do nowoczesnych technologii gotowania. Ogólny design jest typowy dla prac Petera Behrensa, kluczowej postaci w projektowaniu przemysłowym, który był związany z AEG w tym okresie. Jego wpływ jest widoczny w opływowej formie czajnika i funkcjonalnej elegancji, które są zgodne z szerszym ruchem w kierunku nowoczesnego designu.
+W kontekście kulturowym, ten czajnik reprezentuje skrzyżowanie innowacji przemysłowej i życia domowego, odzwierciedlając rosnące znaczenie urządzeń gospodarstwa domowego na początku XX wieku. Estetyczne cechy czajnika są również zgodne z ruchem Art Nouveau, który podkreślał organiczne formy i elementy dekoracyjne.
+**Material / Technique:**  
+Czajnik jest głównie wykonany z miedzi, a dodatkowe elementy prawdopodobnie z mosiądzu i drewna, szczególnie w uchwycie. Materiał pleciony na uchwycie jest przyjęty jako rattan.
+**Dimensions:**  
+Ø Wysokość: 140 mm, Średnica: 200 mm (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0460.  
+- Odniesienia literaturowe: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 134-137, S. D 191/192, S. 48-49.  
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Bouilloire AEG [Fonction/identifiant], Nr. 1/1997/0460
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+La bouilloire, produite par l'Allgemeine Elektricitäts-Gesellschaft (AEG) vers 1909, illustre la philosophie de design du début du XXe siècle, caractérisée par un mélange de fonctionnalité et d'attrait esthétique. La bouilloire présente un corps arrondi avec un bec proéminent et une poignée distinctive enroulée de matériau tissé, probablement du rotin, ce qui ajoute à la fois confort et prise. La surface de la bouilloire est finie dans une teinte cuivrée, exhibant un motif texturé qui renforce son intérêt visuel. Ce motif se compose de fines lignes verticales, probablement obtenues par une technique de martelage, qui reflète le savoir-faire de l'époque.
+Le couvercle de la bouilloire est surmonté d'un bouton noir, offrant un élément contrastant aux tons chauds du cuivre. Une caractéristique notable est la présence d'une petite valve sur le côté, suggérant que cette bouilloire pourrait avoir été conçue pour être utilisée avec un mécanisme de chauffage spécifique, ce qui indique une adaptation précoce aux technologies de cuisson modernes. Le design global est indicatif du travail de Peter Behrens, une figure clé du design industriel, qui était associé à l'AEG durant cette période. Son influence est évidente dans la forme épurée et l'élégance fonctionnelle de la bouilloire, qui s'alignent avec le mouvement plus large vers le design moderniste.
+En termes de signification culturelle, cette bouilloire représente l'intersection de l'innovation industrielle et de la vie domestique, reflétant l'importance croissante des appareils ménagers au début du XXe siècle. Les qualités esthétiques de la bouilloire s'alignent également avec le mouvement Art Nouveau, qui mettait l'accent sur les formes organiques et les éléments décoratifs.
+**Material / Technique:**  
+La bouilloire est principalement construite en cuivre, avec des composants supplémentaires probablement en laiton et en bois, notamment pour la poignée. Le matériau tissé sur la poignée est supposé être du rotin.
+**Dimensions:**  
+Ø Hauteur : 140 mm, Diamètre : 200 mm (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées muséales primaires : Numéro d'inventaire 1/1997/0460.  
+- Références littéraires : Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 134-137, S. D 191/192, S. 48-49.  
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Teapot AEG [Function/identifier], Nr. 1/1997/0461 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a teapot manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), likely around 1909, as indicated by the metadata. The teapot features a distinctive octagonal shape, which is a hallmark of early 20th-century design, reflecting the era's fascination with geometric forms. The body of the teapot is made from copper, showcasing a hammered finish that adds texture and visual interest. This technique not only enhances the aesthetic appeal but also serves a functional purpose by improving heat distribution.
+The handle is crafted from a woven textile material, possibly rattan or a similar fiber, which provides a comfortable grip while also adding an organic element to the metal body. The lid is topped with a black knob, likely made from a durable material such as Bakelite or similar plastic, which was popular during that time. The spout is elegantly curved, allowing for a controlled pour, and features a small circular opening, possibly for steam release, which is a common design feature in teapots of this period.
+Visible wear on the surface suggests that the teapot has been used, indicating its role in domestic life during its time. The presence of a circular plate on the base, which may serve as a burner or stand, hints at its functionality beyond mere aesthetics, possibly indicating it was designed for use on a stovetop or a similar heat source.
+The design philosophy of this teapot aligns with the broader trends of the early 20th century, where functionality and form were increasingly intertwined. AEG, under the influence of designer Peter Behrens, was known for its innovative approach to industrial design, merging utility with artistic expression. This teapot exemplifies that ethos, serving not only as a functional object but also as a piece of decorative art.
+**Material / Technique:**  
+The teapot is primarily constructed from copper, with a textile handle and a knob that is likely made from Bakelite or a similar plastic. The hammered finish is a notable feature of the metalwork.
+**Dimensions:**  
+Ø Length: approx. 1500 mm [assumption based on metadata].
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0461 01.  
+- Literature references: Not available.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Teekanne AEG [Funktion/Identifier], Nr. 1/1997/0461 01
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist eine Teekanne, die von der Allgemeine Elektricitäts-Gesellschaft (AEG) hergestellt wurde, wahrscheinlich um 1909, wie die Metadaten angeben. Die Teekanne weist eine markante achteckige Form auf, die ein Markenzeichen des Designs des frühen 20. Jahrhunderts ist und die Faszination dieser Epoche für geometrische Formen widerspiegelt. Der Körper der Teekanne besteht aus Kupfer und zeigt eine gehämmerte Oberfläche, die Textur und visuelles Interesse hinzufügt. Diese Technik verbessert nicht nur die ästhetische Anziehungskraft, sondern dient auch einem funktionalen Zweck, indem sie die Wärmeverteilung verbessert.
+Der Griff ist aus einem gewebten Textilmaterial gefertigt, möglicherweise Rattan oder einem ähnlichen Faserstoff, der einen komfortablen Halt bietet und gleichzeitig ein organisches Element zum Metallkörper hinzufügt. Der Deckel ist mit einem schwarzen Knopf versehen, der wahrscheinlich aus einem haltbaren Material wie Bakelit oder einem ähnlichen Kunststoff besteht, der zu dieser Zeit beliebt war. Der Ausguss ist elegant gekrümmt und ermöglicht ein kontrolliertes Ausgießen, und weist eine kleine runde Öffnung auf, möglicherweise zur Dampfabführung, was ein häufiges Designelement in Teekannen dieser Zeit ist.
+Sichtbare Abnutzung auf der Oberfläche deutet darauf hin, dass die Teekanne benutzt wurde, was auf ihre Rolle im häuslichen Leben ihrer Zeit hinweist. Die Anwesenheit einer runden Platte an der Basis, die möglicherweise als Brenner oder Ständer dient, deutet auf ihre Funktionalität über die bloße Ästhetik hinaus hin und könnte darauf hindeuten, dass sie für die Verwendung auf einem Herd oder einer ähnlichen Wärmequelle konzipiert wurde.
+Die Designphilosophie dieser Teekanne steht im Einklang mit den breiteren Trends des frühen 20. Jahrhunderts, in dem Funktionalität und Form zunehmend miteinander verwoben waren. AEG, unter dem Einfluss des Designers Peter Behrens, war bekannt für ihren innovativen Ansatz im Industriedesign, der Nützlichkeit mit künstlerischem Ausdruck verband. Diese Teekanne verkörpert dieses Ethos und dient nicht nur als funktionales Objekt, sondern auch als dekoratives Kunstwerk.
+**Material / Technik:**  
+Die Teekanne besteht hauptsächlich aus Kupfer, mit einem Textilgriff und einem Knopf, der wahrscheinlich aus Bakelit oder einem ähnlichen Kunststoff gefertigt ist. Die gehämmerte Oberfläche ist ein bemerkenswertes Merkmal der Metallbearbeitung.
+**Dimensions:**  
+Ø Länge: ca. 1500 mm [Annahme basierend auf Metadaten].
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0461 01.  
+- Literaturverweise: Nicht verfügbar.  
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik AEG [Funkcja/identyfikator], Nr. 1/1997/0461 01
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to czajnik wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG), prawdopodobnie około 1909 roku, co wskazują metadane. Czajnik ma charakterystyczny ośmiokątny kształt, który jest znakiem rozpoznawczym wczesnodwudziestowiecznego designu, odzwierciedlając fascynację tej epoki formami geometrycznymi. Korpus czajnika wykonany jest z miedzi, prezentując młotkowane wykończenie, które dodaje tekstury i wizualnego zainteresowania. Technika ta nie tylko zwiększa atrakcyjność estetyczną, ale także pełni funkcję, poprawiając rozkład ciepła.
+Uchwyt wykonany jest z plecionego materiału tekstylnego, prawdopodobnie rattanu lub podobnego włókna, co zapewnia wygodny chwyt, a także dodaje organiczny element do metalowego korpusu. Na pokrywie znajduje się czarny przycisk, prawdopodobnie wykonany z trwałego materiału, takiego jak Bakelit lub podobny plastik, który był popularny w tym czasie. Dzióbek jest elegancko wygięty, co umożliwia kontrolowane nalewanie, i ma małe okrągłe otwarcie, prawdopodobnie do odprowadzania pary, co jest powszechnym elementem konstrukcyjnym czajników z tego okresu.
+Widoczna zużycie na powierzchni sugeruje, że czajnik był używany, co wskazuje na jego rolę w życiu domowym w swoim czasie. Obecność okrągłej płyty na podstawie, która może służyć jako palnik lub podstawka, sugeruje jego funkcjonalność wykraczającą poza estetykę, co może wskazywać, że został zaprojektowany do użycia na kuchence lub podobnym źródle ciepła.
+Filozofia projektowania tego czajnika jest zgodna z szerszymi trendami wczesnego XX wieku, w którym funkcjonalność i forma były coraz bardziej ze sobą powiązane. AEG, pod wpływem projektanta Petera Behrensa, była znana z innowacyjnego podejścia do designu przemysłowego, łącząc użyteczność z wyrazem artystycznym. Ten czajnik jest przykładem tej etyki, służąc nie tylko jako funkcjonalny obiekt, ale także jako dzieło sztuki dekoracyjnej.
+**Material / Technique:**  
+Czajnik wykonany jest głównie z miedzi, z tekstylnym uchwytem i przyciskiem, który prawdopodobnie wykonany jest z Bakelitu lub podobnego plastiku. Młotkowane wykończenie jest zauważalnym elementem obróbki metalu.
+**Dimensions:**  
+Ø Długość: ok. 1500 mm [założenie na podstawie metadanych].
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0461 01.  
+- Odniesienia literaturowe: Nie dostępne.  
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Théière AEG [Fonction/identifiant], Nr. 1/1997/0461 01
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est une théière fabriquée par Allgemeine Elektricitäts-Gesellschaft (AEG), probablement vers 1909, comme l'indiquent les métadonnées. La théière présente une forme octogonale distinctive, qui est une caractéristique du design du début du XXe siècle, reflétant la fascination de l'époque pour les formes géométriques. Le corps de la théière est en cuivre, affichant une finition martelée qui ajoute de la texture et de l'intérêt visuel. Cette technique améliore non seulement l'attrait esthétique, mais sert également un but fonctionnel en améliorant la répartition de la chaleur.
+La poignée est fabriquée à partir d'un matériau textile tissé, probablement du rotin ou une fibre similaire, offrant une prise confortable tout en ajoutant un élément organique au corps en métal. Le couvercle est surmonté d'un bouton noir, probablement en Bakélite ou un plastique similaire, qui était populaire à cette époque. Le bec verseur est élégamment courbé, permettant un versement contrôlé, et présente une petite ouverture circulaire, probablement pour l'évacuation de la vapeur, ce qui est une caractéristique de conception courante dans les théières de cette période.
+L'usure visible sur la surface suggère que la théière a été utilisée, indiquant son rôle dans la vie domestique de son temps. La présence d'une plaque circulaire à la base, qui peut servir de brûleur ou de support, indique sa fonctionnalité au-delà de l'esthétique, suggérant qu'elle a été conçue pour être utilisée sur une cuisinière ou une source de chaleur similaire.
+La philosophie de conception de cette théière s'aligne sur les tendances plus larges du début du XXe siècle, où fonctionnalité et forme étaient de plus en plus entrelacées. AEG, sous l'influence du designer Peter Behrens, était connue pour son approche innovante du design industriel, fusionnant utilité et expression artistique. Cette théière illustre cet ethos, servant non seulement d'objet fonctionnel mais aussi de pièce d'art décoratif.
+**Material / Technique:**  
+La théière est principalement construite en cuivre, avec une poignée en textile et un bouton probablement en Bakélite ou un plastique similaire. La finition martelée est une caractéristique notable du travail du métal.
+**Dimensions:**  
+Ø Longueur : environ 1500 mm [hypothèse basée sur les métadonnées].
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0461 01.  
+- Références littéraires : Non disponible.  
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Teapot AEG [Function/identifier], Nr. 1/1997/0462
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a teapot manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), likely produced around 1909 (metadata). The teapot exhibits a distinctive octagonal shape, characterized by a hammered copper finish that reflects the craftsmanship of the early 20th century. The surface is adorned with a series of dimples, indicative of the hand-hammering technique used in its creation. This method not only enhances the aesthetic appeal but also contributes to the teapot's functionality by improving heat retention.
+The lid is topped with a small, black knob, which is likely made of Bakelite, a common material used during this period for its durability and heat resistance. The spout is elegantly curved, allowing for a controlled pour, while the handle, also made of Bakelite, provides a comfortable grip. The teapot features a circular base that supports its structure, ensuring stability when placed on a surface.
+In terms of historical context, this teapot reflects the design philosophy of the early modernist movement, which emphasized simplicity and functionality while still appreciating traditional craftsmanship. The use of copper not only signifies the material's popularity in kitchenware during this time but also aligns with AEG's commitment to quality and innovation in domestic appliances. The design is reminiscent of the works of Peter Behrens, who was influential in shaping industrial design in Germany.
+**Material / Technique:**  
+The teapot is primarily constructed from hammered copper, with additional components made of Bakelite. The exact composition of the metal is not specified, but it is likely to include other alloys common in the period. 
+**Dimensions:**  
+Object dimensions are approximately 230 mm in length, 143 mm in width, and 160 mm in height (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0462.
+- Literature references: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 138-140, S D 191-D 194, S. 48-49.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Teekanne AEG [Funktion/Identifier], Nr. 1/1997/0462
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist eine Teekanne, die von der Allgemeinen Elektricitäts-Gesellschaft (AEG) hergestellt wurde, vermutlich um 1909 (Metadaten). Die Teekanne weist eine markante achteckige Form auf, die durch eine gehämmerte Kupferoberfläche gekennzeichnet ist, die das Handwerk des frühen 20. Jahrhunderts widerspiegelt. Die Oberfläche ist mit einer Reihe von Dellen verziert, die auf die Handhammertechnik hinweisen, die bei ihrer Herstellung verwendet wurde. Diese Methode verbessert nicht nur die ästhetische Anziehungskraft, sondern trägt auch zur Funktionalität der Teekanne bei, indem sie die Wärmehaltung verbessert.
+Der Deckel ist mit einem kleinen, schwarzen Knopf versehen, der wahrscheinlich aus Bakelit besteht, einem gängigen Material dieser Zeit, das für seine Haltbarkeit und Hitzebeständigkeit bekannt ist. Der Ausguss ist elegant gekrümmt, was ein kontrolliertes Ausgießen ermöglicht, während der Griff, ebenfalls aus Bakelit, einen komfortablen Halt bietet. Die Teekanne hat eine kreisförmige Basis, die ihre Struktur stützt und Stabilität auf der Oberfläche gewährleistet.
+In Bezug auf den historischen Kontext spiegelt diese Teekanne die Designphilosophie der frühen modernen Bewegung wider, die Einfachheit und Funktionalität betonte und gleichzeitig das traditionelle Handwerk schätzte. Die Verwendung von Kupfer zeigt nicht nur die Beliebtheit des Materials in der Küchenware dieser Zeit, sondern steht auch im Einklang mit AEGs Engagement für Qualität und Innovation in Haushaltsgeräten. Das Design erinnert an die Werke von Peter Behrens, der einen bedeutenden Einfluss auf das Industriedesign in Deutschland hatte.
+**Material / Technik:**  
+Die Teekanne besteht hauptsächlich aus gehämmertem Kupfer, mit zusätzlichen Komponenten aus Bakelit. Die genaue Zusammensetzung des Metalls ist nicht angegeben, es ist jedoch wahrscheinlich, dass es andere Legierungen enthält, die in dieser Zeit üblich waren.
+**Dimensions:**  
+Die Objektmaße betragen ungefähr 230 mm in der Länge, 143 mm in der Breite und 160 mm in der Höhe (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0462.
+- Literaturverweise: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 138-140, S D 191-D 194, S. 48-49.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik AEG [Funkcja/identyfikator], Nr. 1/1997/0462
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to czajnik wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG), prawdopodobnie wyprodukowany około 1909 roku (metadane). Czajnik ma charakterystyczny ośmiokątny kształt, charakteryzujący się młotkowaną miedzianą powierzchnią, która odzwierciedla rzemiosło początku XX wieku. Powierzchnia ozdobiona jest serią wgłębień, co wskazuje na technikę ręcznego młotkowania używaną w jego produkcji. Metoda ta nie tylko zwiększa atrakcyjność estetyczną, ale także przyczynia się do funkcjonalności czajnika, poprawiając zatrzymywanie ciepła.
+Pokrywka jest zwieńczona małym, czarnym pokrętłem, które prawdopodobnie wykonane jest z Bakelitu, popularnego materiału używanego w tym okresie ze względu na swoją trwałość i odporność na ciepło. Dzióbek jest elegancko zakrzywiony, co pozwala na kontrolowane nalewanie, podczas gdy uchwyt, również wykonany z Bakelitu, zapewnia wygodny chwyt. Czajnik ma okrągłą podstawę, która wspiera jego strukturę, zapewniając stabilność na powierzchni.
+W kontekście historycznym, ten czajnik odzwierciedla filozofię projektowania wczesnego modernizmu, która podkreślała prostotę i funkcjonalność, jednocześnie doceniając tradycyjne rzemiosło. Użycie miedzi nie tylko wskazuje na popularność tego materiału w naczyniach kuchennych w tym czasie, ale także jest zgodne z zaangażowaniem AEG w jakość i innowacje w urządzeniach domowych. Projekt przypomina prace Petera Behrensa, który miał znaczący wpływ na kształtowanie designu przemysłowego w Niemczech.
+**Material / Technique:**  
+Czajnik wykonany jest głównie z młotkowanej miedzi, z dodatkowymi elementami wykonanymi z Bakelitu. Dokładny skład metalu nie jest określony, ale prawdopodobnie zawiera inne stopy powszechnie stosowane w tym okresie.
+**Dimensions:**  
+Wymiary obiektu wynoszą około 230 mm długości, 143 mm szerokości i 160 mm wysokości (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarza 1/1997/0462.
+- Odniesienia literaturowe: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 138-140, S D 191-D 194, S. 48-49.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Théière AEG [Fonction/identifiant], Nr. 1/1997/0462
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est une théière fabriquée par l'Allgemeine Elektricitäts-Gesellschaft (AEG), probablement produite vers 1909 (métadonnées). La théière présente une forme octogonale distinctive, caractérisée par une finition en cuivre martelé qui reflète l'artisanat du début du XXe siècle. La surface est ornée d'une série de creux, indicatifs de la technique de martelage à la main utilisée dans sa création. Cette méthode améliore non seulement l'attrait esthétique, mais contribue également à la fonctionnalité de la théière en améliorant la rétention de chaleur.
+Le couvercle est surmonté d'un petit bouton noir, probablement en Bakélite, un matériau courant utilisé à cette époque pour sa durabilité et sa résistance à la chaleur. Le bec verseur est élégamment courbé, permettant un versement contrôlé, tandis que la poignée, également en Bakélite, offre une prise confortable. La théière possède une base circulaire qui soutient sa structure, assurant la stabilité lorsqu'elle est placée sur une surface.
+En termes de contexte historique, cette théière reflète la philosophie de design du mouvement moderniste précoce, qui mettait l'accent sur la simplicité et la fonctionnalité tout en appréciant l'artisanat traditionnel. L'utilisation du cuivre non seulement souligne la popularité de ce matériau dans les ustensiles de cuisine à cette époque, mais s'aligne également avec l'engagement d'AEG envers la qualité et l'innovation dans les appareils domestiques. Le design rappelle les œuvres de Peter Behrens, qui a eu une influence significative sur la conception industrielle en Allemagne.
+**Material / Technique:**  
+La théière est principalement construite en cuivre martelé, avec des composants supplémentaires en Bakélite. La composition exacte du métal n'est pas spécifiée, mais il est probable qu'elle inclut d'autres alliages courants à l'époque.
+**Dimensions:**  
+Les dimensions de l'objet sont d'environ 230 mm de longueur, 143 mm de largeur et 160 mm de hauteur (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0462.
+- Références littéraires : Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, P 138-140, S D 191-D 194, S. 48-49.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Kettle AEG AG, Nr. 1/1997/0463 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a kettle manufactured by Allgemeine Elektricitäts-Gesellschaft AEG AG, notable for its distinctive design and craftsmanship typical of the early 20th century. The kettle features a rounded body with a pronounced ribbed pattern, which is both decorative and functional, likely aiding in heat distribution. The lid is domed, topped with a black wooden knob, while the spout is elegantly curved, facilitating pouring. The handle is made of brass and features a wooden grip, providing both aesthetic appeal and practical usability.
+The kettle's surface is finished in a brass tone, which suggests a high-quality metalwork technique. The visible wear on the surface indicates that it has been used, but the overall condition appears to be well-preserved, with no significant dents or corrosion. The kettle is designed to be both functional and visually appealing, reflecting the design philosophy of the time, which emphasized both utility and beauty in household items.
+The kettle's dimensions, as noted in the metadata, are approximately 210 mm in height and 220 mm in diameter, with a weight of 1.34 kg. This size is typical for kettles of its era, designed for domestic use. The object likely served a significant role in daily life, providing a means to heat water for tea or other beverages, which was a common practice in many households.
+**Material / Technique:**  
+The kettle is primarily constructed from brass, with wooden elements present in the handle and knob. The finish appears to be polished, enhancing its aesthetic qualities. Assumption: the kettle may have additional internal components made from other metals, but this is not visible in the photos.
+**Dimensions:**  
+Ø Height: 210 mm x 220 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0463 0.  
+- Literature references: not available.  
+- Web resources: not available.
+---
+### German Version
+**Object Title / Type:**  
+Kessel AEG AG, Nr. 1/1997/0463 0
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein Kessel, der von der Allgemeinen Elektricitäts-Gesellschaft AEG AG hergestellt wurde, und zeichnet sich durch sein markantes Design und die Handwerkskunst aus, die typisch für das frühe 20. Jahrhundert ist. Der Kessel hat einen runden Körper mit einem ausgeprägten gerippten Muster, das sowohl dekorativ als auch funktional ist und wahrscheinlich zur Wärmeverteilung beiträgt. Der Deckel ist gewölbt und mit einem schwarzen Holzknopf versehen, während der Ausguss elegant gebogen ist, um das Ausgießen zu erleichtern. Der Griff besteht aus Messing und hat einen Holzgriff, der sowohl ästhetische Anziehungskraft als auch praktische Benutzbarkeit bietet.
+Die Oberfläche des Kessels ist in einem Messingtön gehalten, was auf eine hochwertige Metallbearbeitungstechnik hindeutet. Die sichtbaren Abnutzungserscheinungen auf der Oberfläche deuten darauf hin, dass er benutzt wurde, aber der allgemeine Zustand scheint gut erhalten zu sein, ohne nennenswerte Dellen oder Korrosion. Der Kessel ist so gestaltet, dass er sowohl funktional als auch visuell ansprechend ist, was die Designphilosophie der Zeit widerspiegelt, die sowohl Nützlichkeit als auch Schönheit in Haushaltsgegenständen betonte.
+Die Abmessungen des Kessels, wie in den Metadaten angegeben, betragen etwa 210 mm in der Höhe und 220 mm im Durchmesser, mit einem Gewicht von 1,34 kg. Diese Größe ist typisch für Kessel seiner Zeit, die für den Hausgebrauch konzipiert wurden. Das Objekt spielte wahrscheinlich eine bedeutende Rolle im täglichen Leben, indem es eine Möglichkeit bot, Wasser für Tee oder andere Getränke zu erhitzen, was in vielen Haushalten eine gängige Praxis war.
+**Material / Technik:**  
+Der Kessel besteht hauptsächlich aus Messing, mit Holzelementen im Griff und Knopf. Die Oberfläche scheint poliert zu sein, was ihre ästhetischen Qualitäten verbessert. Annahme: Der Kessel könnte zusätzliche interne Komponenten aus anderen Metallen enthalten, dies ist jedoch auf den Fotos nicht sichtbar.
+**Dimensions:**  
+Ø Höhe: 210 mm x 220 mm (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0463 0.  
+- Literaturreferenzen: nicht verfügbar.  
+- Webressourcen: nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik AEG AG, Nr. 1/1997/0463 0
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to czajnik wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft AEG AG, znany ze swojego charakterystycznego designu i rzemiosła typowego dla początku XX wieku. Czajnik ma zaokrąglony korpus z wyraźnym żłobionym wzorem, który jest zarówno dekoracyjny, jak i funkcjonalny, prawdopodobnie wspomagając równomierne rozprowadzanie ciepła. Pokrywka jest kopułowata, zwieńczona czarnym drewnianym uchwytem, a dzióbek jest elegancko wygięty, co ułatwia nalewanie. Uchwyt wykonany jest z mosiądzu i ma drewniany chwyt, co zapewnia zarówno estetyczny wygląd, jak i praktyczność.
+Powierzchnia czajnika ma mosiężny kolor, co sugeruje wysoką jakość obróbki metalu. Widoczne ślady zużycia na powierzchni wskazują, że był używany, ale ogólny stan wydaje się być dobrze zachowany, bez znaczących wgnieceń czy korozji. Czajnik zaprojektowano tak, aby był zarówno funkcjonalny, jak i wizualnie atrakcyjny, co odzwierciedla filozofię projektowania tamtych czasów, która kładła nacisk na użyteczność i piękno w przedmiotach codziennego użytku.
+Wymiary czajnika, jak podano w metadanych, wynoszą około 210 mm wysokości i 220 mm średnicy, a jego waga to 1,34 kg. Taki rozmiar jest typowy dla czajników z tego okresu, zaprojektowanych do użytku domowego. Obiekt prawdopodobnie odgrywał istotną rolę w codziennym życiu, zapewniając sposób na podgrzewanie wody do herbaty lub innych napojów, co było powszechną praktyką w wielu domach.
+**Material / Technique:**  
+Czajnik wykonany jest głównie z mosiądzu, z elementami drewnianymi w uchwycie i pokrywie. Wykończenie wydaje się być polerowane, co zwiększa jego walory estetyczne. Założenie: czajnik może mieć dodatkowe wewnętrzne elementy wykonane z innych metali, ale nie jest to widoczne na zdjęciach.
+**Dimensions:**  
+Ø Wysokość: 210 mm x 220 mm (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0463 0.  
+- Odniesienia literaturowe: nie dostępne.  
+- Zasoby internetowe: nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Bouilloire AEG AG, Nr. 1/1997/0463 0
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est une bouilloire fabriquée par Allgemeine Elektricitäts-Gesellschaft AEG AG, remarquable pour son design distinctif et son savoir-faire typique du début du XXe siècle. La bouilloire présente un corps arrondi avec un motif en relief prononcé, qui est à la fois décoratif et fonctionnel, probablement pour aider à la distribution de la chaleur. Le couvercle est en forme de dôme, surmonté d'un bouton en bois noir, tandis que le bec est élégamment courbé, facilitant le versement. La poignée est en laiton et présente une prise en bois, offrant à la fois un attrait esthétique et une praticité d'utilisation.
+La surface de la bouilloire est finie dans une teinte de laiton, ce qui suggère une technique de travail du métal de haute qualité. L'usure visible sur la surface indique qu'elle a été utilisée, mais l'état général semble bien préservé, sans bosses ni corrosion significatives. La bouilloire est conçue pour être à la fois fonctionnelle et visuellement attrayante, reflétant la philosophie de design de l'époque, qui mettait l'accent sur l'utilité et la beauté des objets du quotidien.
+Les dimensions de la bouilloire, comme indiqué dans les métadonnées, sont d'environ 210 mm de hauteur et 220 mm de diamètre, avec un poids de 1,34 kg. Cette taille est typique des bouilloires de son époque, conçues pour un usage domestique. L'objet a probablement joué un rôle significatif dans la vie quotidienne, fournissant un moyen de chauffer de l'eau pour le thé ou d'autres boissons, ce qui était une pratique courante dans de nombreux foyers.
+**Material / Technique:**  
+La bouilloire est principalement construite en laiton, avec des éléments en bois présents dans la poignée et le bouton. La finition semble être polie, améliorant ses qualités esthétiques. Hypothèse : la bouilloire pourrait avoir des composants internes supplémentaires fabriqués à partir d'autres métaux, mais cela n'est pas visible sur les photos.
+**Dimensions:**  
+Ø Hauteur : 210 mm x 220 mm (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0463 0.  
+- Références littéraires : non disponibles.  
+- Ressources Web : non disponibles.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Kettle AEG, Nr. 1/1997/0464
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric kettle manufactured by AEG, likely produced around 1925 (assumption based on metadata). The kettle features a distinctive rounded body, characterized by its polished metal surface that reflects light, indicating a high-quality finish typical of the era. The spout is elegantly designed, tapering to a narrow opening, which suggests a focus on functionality and precision in pouring. The handle is wrapped in a light-colored plastic material, possibly Bakelite, with green accents, providing a comfortable grip while also serving as an insulating layer to prevent heat transfer. 
+The kettle is equipped with a base that houses the heating element, which is visible through a small opening on the side. This design reflects the technological advancements of the time, as electric kettles began to gain popularity in households, offering convenience over traditional stovetop kettles. The overall aesthetic of the kettle aligns with the modernist design philosophy of the 1920s, emphasizing simplicity and functionality. 
+Visible wear on the kettle's surface suggests it has been used, with some scratches and tarnishing evident, particularly on the base. The presence of a small cap on the top indicates a mechanism for steam release, which was a common feature in electric kettles of this period. The kettle's dimensions, as noted in the metadata, are approximately 161 mm in height, 230 mm in width, and 220 mm in depth, with a weight of 1.22 kg.
+**Material / Technique:**  
+The kettle is primarily made of polished metal, likely stainless steel, with a plastic handle and possibly nickel-plated brass components. The exact composition of the materials is not fully determined and remains an assumption.
+**Dimensions:**  
+Object dimensions are recorded as approximately 161 mm (H) x 230 mm (W) x 220 mm (D) based on metadata.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0464.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Wasserkocher AEG, Nr. 1/1997/0464
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein elektrischer Wasserkocher, hergestellt von AEG, vermutlich um 1925 produziert (Annahme basierend auf den Metadaten). Der Wasserkocher weist einen charakteristischen runden Körper auf, der durch seine polierte Metalloberfläche besticht, die Licht reflektiert und auf eine hochwertige Verarbeitung hinweist, die für diese Epoche typisch ist. Der Ausguss ist elegant gestaltet und verjüngt sich zu einer schmalen Öffnung, was auf einen Fokus auf Funktionalität und Präzision beim Ausgießen hindeutet. Der Griff ist mit einem hellen Kunststoffmaterial, möglicherweise Bakelit, umwickelt und hat grüne Akzente, die einen komfortablen Halt bieten und gleichzeitig als Isolierschicht gegen Wärmeübertragung dienen.
+Der Wasserkocher ist mit einem Sockel ausgestattet, der das Heizelement beherbergt, das durch eine kleine Öffnung an der Seite sichtbar ist. Dieses Design spiegelt die technologischen Fortschritte der Zeit wider, da elektrische Wasserkocher in Haushalten an Beliebtheit gewannen und mehr Komfort als herkömmliche Herdkocher boten. Die gesamte Ästhetik des Wasserkochers entspricht der modernen Designphilosophie der 1920er Jahre, die Einfachheit und Funktionalität betont.
+Sichtbare Abnutzungserscheinungen auf der Oberfläche des Wasserkochers deuten darauf hin, dass er benutzt wurde, mit einigen Kratzern und Anlaufen, insbesondere an der Basis. Die Anwesenheit eines kleinen Deckels an der Oberseite weist auf einen Mechanismus zur Dampfrelease hin, der ein häufiges Merkmal elektrischer Wasserkocher dieser Zeit war. Die Abmessungen des Wasserkochers sind in den Metadaten mit etwa 161 mm Höhe, 230 mm Breite und 220 mm Tiefe sowie einem Gewicht von 1,22 kg angegeben.
+**Material / Technik:**  
+Der Wasserkocher besteht hauptsächlich aus poliertem Metall, wahrscheinlich Edelstahl, mit einem Kunststoffgriff und möglicherweise vernickelten Messingkomponenten. Die genaue Zusammensetzung der Materialien ist nicht vollständig bestimmt und bleibt eine Annahme.
+**Dimensions:**  
+Die Objektmaße sind in den Metadaten mit etwa 161 mm (H) x 230 mm (B) x 220 mm (T) angegeben.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0464.
+- Literaturreferenzen: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik elektryczny AEG, Nr. 1/1997/0464
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to czajnik elektryczny wyprodukowany przez AEG, prawdopodobnie wyprodukowany około 1925 roku (założenie na podstawie metadanych). Czajnik charakteryzuje się wyraźnie zaokrąglonym korpusem, który ma polerowaną metalową powierzchnię, odbijającą światło, co wskazuje na wysoką jakość wykończenia typową dla tego okresu. Wylewka jest elegancko zaprojektowana, zwężająca się do wąskiego otworu, co sugeruje skupienie na funkcjonalności i precyzji podczas nalewania. Uchwyt jest owinięty jasnym materiałem plastikowym, prawdopodobnie Bakelitem, z zielonymi akcentami, co zapewnia wygodny chwyt i jednocześnie działa jako warstwa izolacyjna, aby zapobiec przewodnictwu ciepła.
+Czajnik jest wyposażony w podstawę, w której znajduje się element grzewczy, widoczny przez małe otwarcie z boku. Ten projekt odzwierciedla postęp technologiczny tamtych czasów, gdy czajniki elektryczne zaczęły zyskiwać popularność w gospodarstwach domowych, oferując wygodę w porównaniu do tradycyjnych czajników na kuchenkach. Ogólna estetyka czajnika jest zgodna z nowoczesną filozofią projektowania lat 20. XX wieku, podkreślającą prostotę i funkcjonalność.
+Widoczne ślady zużycia na powierzchni czajnika sugerują, że był używany, z widocznymi rysami i matowieniem, szczególnie na podstawie. Obecność małego wieczka na górze wskazuje na mechanizm uwalniania pary, co było powszechną cechą elektrycznych czajników tego okresu. Wymiary czajnika, jak podano w metadanych, wynoszą około 161 mm wysokości, 230 mm szerokości i 220 mm głębokości, a jego waga to 1,22 kg.
+**Material / Technique:**  
+Czajnik wykonany jest głównie z polerowanego metalu, prawdopodobnie ze stali nierdzewnej, z plastikowym uchwytem i być może mosiężnymi elementami pokrytymi niklem. Dokładny skład materiałów nie jest w pełni określony i pozostaje założeniem.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako około 161 mm (W) x 230 mm (S) x 220 mm (G) na podstawie metadanych.
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0464.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Bouilloire électrique AEG, Nr. 1/1997/0464
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est une bouilloire électrique fabriquée par AEG, probablement produite vers 1925 (hypothèse basée sur les métadonnées). La bouilloire présente un corps arrondi distinctif, caractérisé par sa surface métallique polie qui reflète la lumière, indiquant une finition de haute qualité typique de l'époque. Le bec verseur est élégamment conçu, se rétrécissant à une ouverture étroite, ce qui suggère un accent sur la fonctionnalité et la précision lors du versement. La poignée est enroulée d'un matériau plastique de couleur claire, probablement du Bakélite, avec des accents verts, offrant une prise confortable tout en servant de couche isolante pour prévenir le transfert de chaleur.
+La bouilloire est équipée d'une base qui abrite l'élément chauffant, visible à travers une petite ouverture sur le côté. Ce design reflète les avancées technologiques de l'époque, alors que les bouilloires électriques commençaient à gagner en popularité dans les foyers, offrant plus de commodité par rapport aux bouilloires traditionnelles sur cuisinière. L'esthétique générale de la bouilloire s'aligne sur la philosophie de design moderniste des années 1920, mettant l'accent sur la simplicité et la fonctionnalité.
+L'usure visible sur la surface de la bouilloire suggère qu'elle a été utilisée, avec quelques rayures et ternissement, en particulier sur la base. La présence d'un petit capuchon sur le dessus indique un mécanisme de libération de vapeur, qui était une caractéristique courante des bouilloires électriques de cette période. Les dimensions de la bouilloire, comme noté dans les métadonnées, sont d'environ 161 mm de hauteur, 230 mm de largeur et 220 mm de profondeur, avec un poids de 1,22 kg.
+**Material / Technique:**  
+La bouilloire est principalement en métal poli, probablement en acier inoxydable, avec une poignée en plastique et éventuellement des composants en laiton plaqués nickel. La composition exacte des matériaux n'est pas entièrement déterminée et reste une hypothèse.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme étant d'environ 161 mm (H) x 230 mm (L) x 220 mm (P) selon les métadonnées.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées principales du musée : Numéro d'inventaire 1/1997/0464.
+- Références littéraires : Non disponible.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Kettle [B.E.P.W.F.] [Function/identifier], Nr. 1/1997/0465
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a kettle manufactured by Berliner Electro-Plated-Waren-Fabrik (B.E.P.W.F.) between 1916 and 1940 (metadata). The kettle features a distinctive design characterized by a rounded body and a long spout, which is typical of early 20th-century kitchenware. The handle is positioned high above the body, allowing for easy pouring. The kettle is supported by a metal stand, which elevates it above the surface, likely to accommodate a heat source beneath.
+The surface of the kettle exhibits a silver-plated finish, with visible patterns that suggest a decorative element, possibly floral or geometric in nature. This decorative aspect aligns with the design philosophies of the time, which often emphasized both functionality and aesthetic appeal. The kettle's body is cylindrical, tapering slightly towards the base, and it is adorned with a series of circular motifs, which may indicate a manufacturing technique that involved stamping or engraving.
+In terms of functionality, the kettle is equipped with a lid that features a small knob for easy opening. The spout is elongated and angled, facilitating a controlled pour. The presence of a valve or knob on the side suggests that this kettle may have been designed for use with a heat source, possibly for boiling water or preparing beverages, which was a common practice in domestic settings during the early 20th century.
+The kettle's overall design reflects the industrial advancements of the period, where materials such as brass and silver plating were commonly used to enhance both durability and appearance. This object serves as a representation of the intersection between utility and design, showcasing the era's emphasis on modernity in household items.
+**Material / Technique:**  
+The kettle is primarily made of metal, specifically brass with a silver-plated finish (visible in photos). The exact composition of the metal is uncertain, but it is likely that the base material is brass, which was commonly used in the production of kitchenware during this period. 
+**Dimensions:**  
+Object dimensions are approximately 135 x 210 x 330 mm (metadata). The weight is recorded at 1.78 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0465, collection notes.
+- Literature references: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, p. 49.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Kessel [B.E.P.W.F.] [Funktion/Identifier], Nr. 1/1997/0465
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein Kessel, der von der Berliner Electro-Plated-Waren-Fabrik (B.E.P.W.F.) zwischen 1916 und 1940 hergestellt wurde (Metadaten). Der Kessel zeichnet sich durch ein charakteristisches Design mit einem runden Körper und einem langen Ausguss aus, was typisch für Küchenutensilien des frühen 20. Jahrhunderts ist. Der Griff ist hoch über dem Körper positioniert, was ein einfaches Ausgießen ermöglicht. Der Kessel wird von einem Metallständer getragen, der ihn über die Oberfläche hebt, wahrscheinlich um eine Wärmequelle darunter zu ermöglichen.
+Die Oberfläche des Kessels weist ein versilbertes Finish auf, mit sichtbaren Mustern, die auf ein dekoratives Element hindeuten, möglicherweise floraler oder geometrischer Natur. Dieser dekorative Aspekt steht im Einklang mit den Designphilosophien der Zeit, die oft sowohl Funktionalität als auch ästhetische Anziehungskraft betonten. Der Körper des Kessels ist zylindrisch und verjüngt sich leicht zur Basis, und er ist mit einer Reihe von kreisförmigen Motiven verziert, die möglicherweise auf eine Herstellungsweise hinweisen, die Stempeln oder Gravieren beinhaltete.
+In Bezug auf die Funktionalität ist der Kessel mit einem Deckel ausgestattet, der einen kleinen Knopf zum einfachen Öffnen aufweist. Der Ausguss ist verlängert und geneigt, was ein kontrolliertes Ausgießen erleichtert. Das Vorhandensein eines Ventils oder Knopfs an der Seite deutet darauf hin, dass dieser Kessel möglicherweise für die Verwendung mit einer Wärmequelle konzipiert wurde, möglicherweise zum Kochen von Wasser oder zur Zubereitung von Getränken, was in Haushalten des frühen 20. Jahrhunderts eine gängige Praxis war.
+Das Gesamtdesign des Kessels spiegelt die industriellen Fortschritte der Zeit wider, in der Materialien wie Messing und Versilberung häufig verwendet wurden, um sowohl Haltbarkeit als auch Erscheinungsbild zu verbessern. Dieses Objekt stellt die Schnittstelle zwischen Nützlichkeit und Design dar und zeigt die Betonung der Moderne in Haushaltsgegenständen dieser Ära.
+**Material / Technik:**  
+Der Kessel besteht hauptsächlich aus Metall, insbesondere Messing mit einer versilberten Oberfläche (sichtbar in den Fotos). Die genaue Zusammensetzung des Metalls ist ungewiss, aber es ist wahrscheinlich, dass das Basismaterial Messing ist, das in der Produktion von Küchenutensilien in dieser Zeit häufig verwendet wurde.
+**Dimensions:**  
+Die Objektmaße betragen ungefähr 135 x 210 x 330 mm (Metadaten). Das Gewicht wird mit 1,78 kg angegeben.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0465, Sammlungsnotizen.
+- Literaturverweise: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, S. 49.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik [B.E.P.W.F.] [Funkcja/identyfikator], Nr. 1/1997/0465
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to czajnik wyprodukowany przez Berliner Electro-Plated-Waren-Fabrik (B.E.P.W.F.) w latach 1916-1940 (metadane). Czajnik charakteryzuje się charakterystycznym designem, z zaokrąglonym korpusem i długim dzióbkiem, co jest typowe dla naczyń kuchennych z początku XX wieku. Uchwyt znajduje się wysoko nad korpusem, co umożliwia łatwe nalewanie. Czajnik jest wspierany przez metalowy stojak, który podnosi go nad powierzchnię, prawdopodobnie w celu umieszczenia źródła ciepła pod nim.
+Powierzchnia czajnika ma srebrzystą powłokę, z widocznymi wzorami, które sugerują element dekoracyjny, być może o charakterze florystycznym lub geometrycznym. Ten dekoracyjny aspekt wpisuje się w filozofie projektowania tamtego okresu, które często podkreślały zarówno funkcjonalność, jak i estetykę. Korpus czajnika jest cylindryczny, lekko zwężający się ku podstawie, i ozdobiony serią okrągłych motywów, które mogą wskazywać na technikę produkcji polegającą na stemplowaniu lub grawerowaniu.
+Jeśli chodzi o funkcjonalność, czajnik jest wyposażony w pokrywę z małym uchwytem do łatwego otwierania. Dzióbek jest wydłużony i nachylony, co ułatwia kontrolowane nalewanie. Obecność zaworu lub pokrętła z boku sugeruje, że czajnik mógł być zaprojektowany do użycia z źródłem ciepła, prawdopodobnie do gotowania wody lub przygotowywania napojów, co było powszechną praktyką w domach wczesnego XX wieku.
+Ogólny design czajnika odzwierciedla postępy przemysłowe tego okresu, w którym materiały takie jak mosiądz i srebrzenie były powszechnie stosowane w celu zwiększenia zarówno trwałości, jak i wyglądu. Obiekt ten stanowi reprezentację przecięcia użyteczności i designu, ukazując nacisk na nowoczesność w przedmiotach codziennego użytku.
+**Material / Technique:**  
+Czajnik wykonany jest głównie z metalu, w szczególności z mosiądzu z srebrzoną powłoką (widoczne na zdjęciach). Dokładny skład metalu jest niepewny, ale prawdopodobnie materiałem bazowym jest mosiądz, który był powszechnie używany w produkcji naczyń kuchennych w tym okresie.
+**Dimensions:**  
+Wymiary obiektu wynoszą około 135 x 210 x 330 mm (metadane). Waga wynosi 1,78 kg.
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0465, notatki kolekcji.
+- Odniesienia literaturowe: Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, s. 49.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Bouilloire [B.E.P.W.F.] [Fonction/identifiant], Nr. 1/1997/0465
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est une bouilloire fabriquée par Berliner Electro-Plated-Waren-Fabrik (B.E.P.W.F.) entre 1916 et 1940 (métadonnées). La bouilloire présente un design distinctif caractérisé par un corps arrondi et un long bec, typique des ustensiles de cuisine du début du XXe siècle. La poignée est positionnée haut au-dessus du corps, permettant un versement facile. La bouilloire est soutenue par un support en métal, qui l'élève au-dessus de la surface, probablement pour accueillir une source de chaleur en dessous.
+La surface de la bouilloire présente une finition argentée, avec des motifs visibles qui suggèrent un élément décoratif, possiblement floral ou géométrique. Cet aspect décoratif s'aligne avec les philosophies de design de l'époque, qui mettaient souvent l'accent sur la fonctionnalité et l'attrait esthétique. Le corps de la bouilloire est cylindrique, se rétrécissant légèrement vers la base, et est orné d'une série de motifs circulaires, qui peuvent indiquer une technique de fabrication impliquant le estampage ou la gravure.
+En termes de fonctionnalité, la bouilloire est équipée d'un couvercle qui présente un petit bouton pour une ouverture facile. Le bec est allongé et incliné, facilitant un versement contrôlé. La présence d'une vanne ou d'un bouton sur le côté suggère que cette bouilloire a pu être conçue pour être utilisée avec une source de chaleur, probablement pour faire bouillir de l'eau ou préparer des boissons, ce qui était une pratique courante dans les foyers au début du XXe siècle.
+Le design global de la bouilloire reflète les avancées industrielles de l'époque, où des matériaux tels que le laiton et le placage argenté étaient couramment utilisés pour améliorer à la fois la durabilité et l'apparence. Cet objet représente l'intersection entre utilité et design, mettant en avant l'accent mis sur la modernité dans les articles ménagers.
+**Material / Technique:**  
+La bouilloire est principalement en métal, spécifiquement en laiton avec une finition argentée (visible sur les photos). La composition exacte du métal est incertaine, mais il est probable que le matériau de base soit le laiton, qui était couramment utilisé dans la production d'ustensiles de cuisine à cette époque.
+**Dimensions:**  
+Les dimensions de l'objet sont d'environ 135 x 210 x 330 mm (métadonnées). Le poids est enregistré à 1,78 kg.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0465, notes de collection.
+- Références littéraires : Buddensieg, Tilmann (Hrsg.). *Peter Behrens und die AEG 1907-1914*. Berlin 1979, p. 49.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Kettle AEG AG, Nr. 1/1997/0466
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric kettle manufactured by Allgemeine Elektricitäts-Gesellschaft AEG AG, likely from the 1930s, as inferred from its design style and materials (metadata). The kettle features a rounded body with a prominent spout and a lid topped with a small finial. The handle is made of black material, possibly Bakelite, which contrasts with the shiny metallic surface of the kettle. The body appears to be constructed from nickel-plated brass and aluminum, providing both durability and aesthetic appeal. 
+The kettle's design reflects the Art Deco style prevalent during the 1930s, characterized by smooth curves and streamlined forms. This design philosophy emphasized both functionality and elegance, catering to the modern household's needs. The kettle is equipped with a base that likely houses the heating element, and it features a small outlet for steam, indicating its electric functionality. 
+Visible wear on the surface suggests that the kettle has been used, although no significant alterations or repairs are noted. The overall condition appears to be good, with minor scratches that are typical for objects of this age. The kettle's dimensions, as provided in the metadata, are approximately 170 mm in height, 270 mm in width, and 250 mm in depth, with a weight of 1.09 kg.
+**Material / Technique:**  
+The kettle is primarily made of nickel-plated brass and aluminum, with a black handle that is likely Bakelite. Assumptions regarding the materials are based on visual characteristics and historical context.
+**Dimensions:**  
+Object dimensions are 170 mm (H) x 270 mm (W) x 250 mm (D) as per metadata.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0466.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Wasserkocher AEG AG, Nr. 1/1997/0466
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein elektrischer Wasserkocher, hergestellt von der Allgemeine Elektricitäts-Gesellschaft AEG AG, wahrscheinlich aus den 1930er Jahren, basierend auf dem Designstil und den Materialien (Metadaten). Der Wasserkocher hat einen runden Körper mit einem markanten Ausguss und einem Deckel, der mit einem kleinen Knauf versehen ist. Der Griff besteht aus schwarzem Material, möglicherweise Bakelit, was einen Kontrast zur glänzenden Metalloberfläche des Wasserkochers bildet. 
+Der Körper scheint aus vernickeltem Messing und Aluminium gefertigt zu sein, was sowohl Haltbarkeit als auch ästhetische Anziehungskraft bietet. Das Design des Wasserkochers spiegelt den Art-Déco-Stil wider, der in den 1930er Jahren vorherrschte und durch glatte Kurven und stromlinienförmige Formen gekennzeichnet ist. Diese Designphilosophie betonte sowohl Funktionalität als auch Eleganz und erfüllte die Bedürfnisse des modernen Haushalts. Der Wasserkocher ist mit einer Basis ausgestattet, die wahrscheinlich das Heizelement beherbergt, und verfügt über einen kleinen Auslass für Dampf, was auf seine elektrische Funktionalität hinweist. 
+Sichtbare Abnutzung auf der Oberfläche deutet darauf hin, dass der Wasserkocher benutzt wurde, obwohl keine wesentlichen Veränderungen oder Reparaturen festgestellt wurden. Der allgemeine Zustand scheint gut zu sein, mit kleinen Kratzern, die für Objekte dieses Alters typisch sind. Die Abmessungen des Wasserkochers, wie in den Metadaten angegeben, betragen etwa 170 mm in der Höhe, 270 mm in der Breite und 250 mm in der Tiefe, mit einem Gewicht von 1,09 kg.
+**Material / Technik:**  
+Der Wasserkocher besteht hauptsächlich aus vernickeltem Messing und Aluminium, mit einem schwarzen Griff, der wahrscheinlich Bakelit ist. Annahmen über die Materialien basieren auf visuellen Eigenschaften und historischem Kontext.
+**Dimensions:**  
+Die Objektmaße betragen 170 mm (H) x 270 mm (B) x 250 mm (T) gemäß Metadaten.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0466.
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Czajnik elektryczny AEG AG, Nr. 1/1997/0466
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to czajnik elektryczny wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft AEG AG, prawdopodobnie z lat 30. XX wieku, co można wywnioskować z jego stylu i materiałów (metadane). Czajnik ma zaokrąglony korpus z wyraźnym dzióbkiem i pokrywką zakończoną małym finialem. Uchwyt wykonany jest z czarnego materiału, prawdopodobnie Bakelitu, co kontrastuje z błyszczącą metalową powierzchnią czajnika. 
+Korpus wydaje się być wykonany z mosiądzu pokrytego niklem i aluminium, co zapewnia zarówno trwałość, jak i estetyczny wygląd. Projekt czajnika odzwierciedla styl Art Deco, który był popularny w latach 30. XX wieku, charakteryzujący się gładkimi krzywiznami i opływowymi formami. Ta filozofia projektowania podkreślała zarówno funkcjonalność, jak i elegancję, odpowiadając na potrzeby nowoczesnego gospodarstwa domowego. Czajnik jest wyposażony w podstawę, która prawdopodobnie mieści element grzewczy, a także ma mały otwór na parę, co wskazuje na jego elektryczną funkcjonalność. 
+Widoczna zużycie na powierzchni sugeruje, że czajnik był używany, chociaż nie zauważono żadnych istotnych zmian ani napraw. Ogólny stan wydaje się być dobry, z drobnymi zarysowaniami, które są typowe dla obiektów w tym wieku. Wymiary czajnika, zgodnie z danymi w metadanych, wynoszą około 170 mm wysokości, 270 mm szerokości i 250 mm głębokości, a jego waga to 1,09 kg.
+**Material / Technique:**  
+Czajnik wykonany jest głównie z mosiądzu pokrytego niklem i aluminium, z czarnym uchwytem, który prawdopodobnie jest Bakelitem. Założenia dotyczące materiałów opierają się na cechach wizualnych i kontekście historycznym.
+**Dimensions:**  
+Wymiary obiektu wynoszą 170 mm (W) x 270 mm (S) x 250 mm (G) zgodnie z metadanymi.
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0466.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Bouilloire électrique AEG AG, Nr. 1/1997/0466
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est une bouilloire électrique fabriquée par l'Allgemeine Elektricitäts-Gesellschaft AEG AG, probablement des années 1930, comme le suggère son style de design et ses matériaux (métadonnées). La bouilloire présente un corps arrondi avec un bec proéminent et un couvercle surmonté d'un petit bouton. La poignée est en matériau noir, probablement du Bakélite, qui contraste avec la surface métallique brillante de la bouilloire. 
+Le corps semble être fabriqué en laiton nickelé et en aluminium, offrant à la fois durabilité et attrait esthétique. Le design de la bouilloire reflète le style Art Déco, prédominant dans les années 1930, caractérisé par des courbes lisses et des formes aérodynamiques. Cette philosophie de design mettait l'accent sur la fonctionnalité et l'élégance, répondant aux besoins des ménages modernes. La bouilloire est équipée d'une base qui abrite probablement l'élément chauffant et dispose d'une petite sortie pour la vapeur, indiquant sa fonctionnalité électrique. 
+L'usure visible sur la surface suggère que la bouilloire a été utilisée, bien qu'aucune modification ou réparation significative ne soit notée. L'état général semble bon, avec de petites rayures typiques des objets de cet âge. Les dimensions de la bouilloire, comme indiqué dans les métadonnées, sont d'environ 170 mm de hauteur, 270 mm de largeur et 250 mm de profondeur, avec un poids de 1,09 kg.
+**Material / Technique:**  
+La bouilloire est principalement en laiton nickelé et en aluminium, avec une poignée noire qui est probablement en Bakélite. Les hypothèses concernant les matériaux sont basées sur des caractéristiques visuelles et un contexte historique.
+**Dimensions:**  
+Les dimensions de l'objet sont de 170 mm (H) x 270 mm (L) x 250 mm (P) selon les métadonnées.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0466.
+- Références littéraires : Non disponible.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+[Object type] AEG Coffee Pot, Nr. 1/1997/0467
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a coffee pot manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) around 1910, as indicated by the metadata. The design features a sleek, conical body made from polished metal, likely nickel-plated brass, which is visible in the photographs. The pot has a distinctive spout that curves elegantly, allowing for precise pouring. The handle is ergonomically designed for ease of use, showcasing a smooth, rounded form that complements the overall aesthetic of the piece.
+Visible in the photographs are two brass fittings located at the base of the pot, suggesting that this object may have been part of a more complex brewing system, possibly involving a heating element. The lid features a small knob for easy opening, and there is a visible hinge mechanism that allows it to open smoothly. The surface of the pot shows signs of wear, including minor scratches and tarnishing, indicative of its age and use over time.
+Historically, this coffee pot reflects the early 20th-century design philosophy that emphasized functionality combined with aesthetic appeal. The work of Peter Behrens, a prominent figure in industrial design, is relevant here, as he was known for his contributions to the aesthetic and functional aspects of everyday objects. This coffee pot exemplifies the transition in design thinking during this period, where industrial production began to embrace artistic elements.
+**Material / Technique:**  
+The primary material is polished metal, specifically nickel-plated brass. The handle appears to be of the same material. There are no visible signs of plastic or Bakelite components. Assumptions regarding other materials are not available.
+**Dimensions:**  
+Diameter and height: approximately 120 x 215 mm (as per metadata). Weight: 0.79 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0467.
+- Literature references: Kadatz, Hans-Joachim, and Peter Behrens. *Peter Behrens Architekt-Maler-Grafiker und Formgestalter: 1868-1940*. Leipzig: VEBEA Seemann Verlag, 1977, S. 34.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+[Objekttyp] AEG Kaffeekanne, Nr. 1/1997/0467
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist eine Kaffeekanne, die um 1910 von der Allgemeine Elektricitäts-Gesellschaft (AEG) hergestellt wurde, wie in den Metadaten angegeben. Das Design zeigt einen schlanken, konischen Körper aus poliertem Metall, wahrscheinlich vernickeltem Messing, was in den Fotografien sichtbar ist. Die Kanne hat einen markanten Ausguss, der elegant geschwungen ist und präzises Ausgießen ermöglicht. Der Griff ist ergonomisch gestaltet, um die Handhabung zu erleichtern, und zeigt eine glatte, abgerundete Form, die die Gesamtästhetik des Stücks ergänzt.
+In den Fotografien sind zwei Messinganschlüsse an der Basis der Kanne sichtbar, was darauf hindeutet, dass dieses Objekt möglicherweise Teil eines komplexeren Brühsystems war, möglicherweise mit einem Heizelement. Der Deckel verfügt über einen kleinen Knopf zum einfachen Öffnen, und es ist ein sichtbarer Scharniermechanismus vorhanden, der ein reibungsloses Öffnen ermöglicht. Die Oberfläche der Kanne zeigt Gebrauchsspuren, einschließlich kleiner Kratzer und Anlauf, was auf ihr Alter und die Nutzung im Laufe der Zeit hinweist.
+Historisch spiegelt diese Kaffeekanne die Designphilosophie des frühen 20. Jahrhunderts wider, die Funktionalität mit ästhetischem Reiz kombinierte. Die Arbeit von Peter Behrens, einer herausragenden Figur im Industriedesign, ist hier relevant, da er für seine Beiträge zu den ästhetischen und funktionalen Aspekten alltäglicher Objekte bekannt war. Diese Kaffeekanne veranschaulicht den Übergang im Designdenken während dieser Zeit, als die industrielle Produktion begann, künstlerische Elemente zu integrieren.
+**Material / Technik:**  
+Das Hauptmaterial ist poliertes Metall, speziell vernickeltes Messing. Der Griff scheint aus demselben Material zu bestehen. Sichtbare Anzeichen von Kunststoff oder Bakelit sind nicht vorhanden. Annahmen zu anderen Materialien sind nicht verfügbar.
+**Dimensions:**  
+Durchmesser und Höhe: ungefähr 120 x 215 mm (laut Metadaten). Gewicht: 0,79 kg.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0467.
+- Literaturverweise: Kadatz, Hans-Joachim, und Peter Behrens. *Peter Behrens Architekt-Maler-Grafiker und Formgestalter: 1868-1940*. Leipzig: VEBEA Seemann Verlag, 1977, S. 34.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+[Typ obiektu] Czajnik AEG, Nr. 1/1997/0467
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to czajnik do kawy wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG) około 1910 roku, co wskazują metadane. Projekt charakteryzuje się smukłym, stożkowym korpusem z polerowanego metalu, prawdopodobnie mosiądzu niklowanego, co jest widoczne na fotografiach. Czajnik ma charakterystyczny dzióbek, który elegancko się wygina, co umożliwia precyzyjne nalewanie. Uchwyt jest ergonomicznie zaprojektowany dla łatwości użytkowania, prezentując gładką, zaokrągloną formę, która uzupełnia ogólną estetykę przedmiotu.
+Na fotografiach widoczne są dwa mosiężne złącza umieszczone u podstawy czajnika, co sugeruje, że obiekt ten mógł być częścią bardziej złożonego systemu parzenia, prawdopodobnie z elementem grzewczym. Wieczko ma mały przycisk do łatwego otwierania, a widoczny jest mechanizm zawiasowy, który umożliwia płynne otwieranie. Powierzchnia czajnika wykazuje oznaki zużycia, w tym drobne zarysowania i matowienie, co wskazuje na jego wiek i użytkowanie w czasie.
+Historycznie, ten czajnik do kawy odzwierciedla filozofię projektowania z początku XX wieku, która łączyła funkcjonalność z estetycznym urokiem. Prace Petera Behrensa, wybitnej postaci w dziedzinie wzornictwa przemysłowego, są tutaj istotne, ponieważ był on znany z wkładu w estetyczne i funkcjonalne aspekty codziennych przedmiotów. Ten czajnik ilustruje przejście w myśleniu projektowym w tym okresie, kiedy produkcja przemysłowa zaczęła przyjmować elementy artystyczne.
+**Material / Technique:**  
+Głównym materiałem jest polerowany metal, konkretnie mosiądz niklowany. Uchwyt wydaje się być z tego samego materiału. Nie ma widocznych oznak komponentów plastikowych ani Bakelitu. Założenia dotyczące innych materiałów są niedostępne.
+**Dimensions:**  
+Średnica i wysokość: około 120 x 215 mm (zgodnie z metadanymi). Waga: 0,79 kg.
+**Provenance / Ownership history:**  
+Niedostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0467.
+- Odniesienia literaturowe: Kadatz, Hans-Joachim, i Peter Behrens. *Peter Behrens Architekt-Maler-Grafiker und Formgestalter: 1868-1940*. Lipsk: VEBEA Seemann Verlag, 1977, S. 34.
+- Zasoby internetowe: Niedostępne.
+---
+### French Version
+**Object Title / Type:**  
+[Type d'objet] Cafetière AEG, Nr. 1/1997/0467
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est une cafetière fabriquée par Allgemeine Elektricitäts-Gesellschaft (AEG) vers 1910, comme l'indiquent les métadonnées. Le design présente un corps conique élégant en métal poli, probablement en laiton nickelé, visible sur les photographies. La cafetière possède un bec caractéristique qui se courbe gracieusement, permettant un versement précis. La poignée est conçue de manière ergonomique pour faciliter l'utilisation, affichant une forme lisse et arrondie qui complète l'esthétique générale de la pièce.
+Visible sur les photographies, deux raccords en laiton sont situés à la base de la cafetière, suggérant que cet objet pourrait avoir fait partie d'un système de préparation plus complexe, possiblement impliquant un élément chauffant. Le couvercle présente un petit bouton pour une ouverture facile, et un mécanisme de charnière visible permet une ouverture fluide. La surface de la cafetière montre des signes d'usure, y compris de petites rayures et un ternissement, indicatifs de son âge et de son utilisation au fil du temps.
+Historiquement, cette cafetière reflète la philosophie de design du début du XXe siècle qui mettait l'accent sur la fonctionnalité combinée à l'attrait esthétique. Le travail de Peter Behrens, une figure emblématique du design industriel, est pertinent ici, car il était connu pour ses contributions aux aspects esthétiques et fonctionnels des objets du quotidien. Cette cafetière illustre la transition dans la pensée design de cette période, où la production industrielle a commencé à embrasser des éléments artistiques.
+**Material / Technique:**  
+Le matériau principal est un métal poli, spécifiquement du laiton nickelé. La poignée semble être du même matériau. Aucun signe visible de composants en plastique ou en Bakélite. Les hypothèses concernant d'autres matériaux ne sont pas disponibles.
+**Dimensions:**  
+Diamètre et hauteur : environ 120 x 215 mm (selon les métadonnées). Poids : 0,79 kg.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées muséales primaires : numéro d'inventaire 1/1997/0467.
+- Références littéraires : Kadatz, Hans-Joachim, et Peter Behrens. *Peter Behrens Architekt-Maler-Grafiker und Formgestalter: 1868-1940*. Leipzig : VEBEA Seemann Verlag, 1977, S. 34.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electrical Device AEG AG, Nr. 1/1997/0468
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electrical device manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) around the year 1930, as indicated by the metadata. The device features a cylindrical ceramic body, which is predominantly white with a glossy finish. The top of the cylinder is slightly flared, and the base is designed to provide stability. Visible inscriptions on the body read, "NUR 30 MINUTEN EINSCHALTEN! 1947 NICHT UNTER STROM BENUTZEN," indicating operational instructions and safety warnings. The text is printed in red, contrasting sharply with the white ceramic surface.
+The device is equipped with a textile-covered power cord that appears to be in good condition, suggesting it has been well-maintained. The cord terminates in a standard plug, which is also visible in the photographs. The overall design reflects the industrial aesthetic of the early 20th century, characterized by functional simplicity and a focus on materials that were both durable and easy to clean.
+In the context of its time, this device likely served a practical purpose in households or industrial settings, reflecting the growing reliance on electrical appliances in daily life. AEG was known for its innovative contributions to electrical engineering and domestic appliances, and this object exemplifies the company's commitment to quality and design during a period of rapid technological advancement.
+**Material / Technique:**  
+The primary materials identified are ceramic and textile for the cord. The base appears to be made of a durable metal, likely coated for aesthetic purposes. Assumptions regarding additional materials are not available.
+**Dimensions:**  
+Ø Height: 80 x 230 mm (as per metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0468.
 - No external sources found, description based on visual analysis of the photos.
 ---
 ### German Version
 **Object Title / Type:**  
-Elektrischer Wasserkocher, Nr. 1-1997-0466-000-000
+Elektrisches Gerät AEG AG, Nr. 1/1997/0468
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag wurde aus Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein elektrisches Gerät, das von der Allgemeinen Elektricitäts-Gesellschaft (AEG) um das Jahr 1930 hergestellt wurde, wie die Metadaten angeben. Das Gerät hat einen zylindrischen Keramikkörper, der überwiegend weiß mit einer glänzenden Oberfläche ist. Die Oberseite des Zylinders ist leicht ausladend, und die Basis ist so gestaltet, dass sie Stabilität bietet. Sichtbare Inschriften auf dem Körper lauten: "NUR 30 MINUTEN EINSCHALTEN! 1947 NICHT UNTER STROM BENUTZEN," was Betriebsanweisungen und Sicherheitswarnungen anzeigt. Der Text ist in Rot gedruckt und hebt sich stark von der weißen Keramikoberfläche ab.
+Das Gerät ist mit einem textilüberzogenen Stromkabel ausgestattet, das in gutem Zustand zu sein scheint, was darauf hindeutet, dass es gut gepflegt wurde. Das Kabel endet in einem Standardstecker, der ebenfalls in den Fotografien sichtbar ist. Das Gesamtdesign spiegelt die industrielle Ästhetik des frühen 20. Jahrhunderts wider, die durch funktionale Einfachheit und einen Fokus auf Materialien gekennzeichnet ist, die sowohl langlebig als auch leicht zu reinigen sind.
+Im Kontext seiner Zeit diente dieses Gerät wahrscheinlich einem praktischen Zweck in Haushalten oder industriellen Umgebungen und spiegelt die wachsende Abhängigkeit von elektrischen Geräten im täglichen Leben wider. AEG war bekannt für seine innovativen Beiträge zur Elektrotechnik und zu Haushaltsgeräten, und dieses Objekt exemplifiziert das Engagement des Unternehmens für Qualität und Design in einer Zeit rascher technologischer Fortschritte.
+**Material / Technik:**  
+Die identifizierten Hauptmaterialien sind Keramik und Textil für das Kabel. Die Basis scheint aus einem langlebigen Metall gefertigt zu sein, das wahrscheinlich aus ästhetischen Gründen beschichtet ist. Annahmen zu zusätzlichen Materialien sind nicht verfügbar.
+**Dimensions:**  
+Ø Höhe: 80 x 230 mm (laut Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0468.
+- Keine externen Quellen gefunden, Beschreibung basiert auf visueller Analyse der Fotos.
+---
+### Polish Version
+**Object Title / Type:**  
+Urządzenie elektryczne AEG AG, Nr. 1/1997/0468
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowano na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt jest urządzeniem elektrycznym wyprodukowanym przez Allgemeine Elektricitäts-Gesellschaft (AEG) około roku 1930, co wskazują metadane. Urządzenie ma cylindryczne ciało ceramiczne, które jest przeważnie białe z błyszczącym wykończeniem. Górna część cylindra jest lekko rozszerzona, a podstawa zaprojektowana jest w celu zapewnienia stabilności. Widoczne napisy na korpusie brzmią: "NUR 30 MINUTEN EINSCHALTEN! 1947 NICHT UNTER STROM BENUTZEN," co wskazuje na instrukcje obsługi i ostrzeżenia dotyczące bezpieczeństwa. Tekst jest drukowany na czerwono, co kontrastuje z białą powierzchnią ceramiki.
+Urządzenie jest wyposażone w kabel z tkaniny, który wydaje się być w dobrym stanie, co sugeruje, że było dobrze utrzymane. Kabel kończy się standardową wtyczką, która również jest widoczna na fotografiach. Całościowy design odzwierciedla przemysłową estetykę wczesnego XX wieku, charakteryzującą się funkcjonalną prostotą i skupieniem na materiałach, które były zarówno trwałe, jak i łatwe do czyszczenia.
+W kontekście swojego czasu, to urządzenie prawdopodobnie miało praktyczne zastosowanie w gospodarstwach domowych lub w środowiskach przemysłowych, odzwierciedlając rosnące uzależnienie od urządzeń elektrycznych w codziennym życiu. AEG była znana z innowacyjnych wkładów w inżynierię elektryczną i urządzenia domowe, a ten obiekt ilustruje zaangażowanie firmy w jakość i design w okresie szybkiego postępu technologicznego.
+**Material / Technique:**  
+Główne zidentyfikowane materiały to ceramika i tekstylia dla kabla. Podstawa wydaje się być wykonana z trwałego metalu, prawdopodobnie pokrytego w celach estetycznych. Założenia dotyczące dodatkowych materiałów są niedostępne.
+**Dimensions:**  
+Ø Wysokość: 80 x 230 mm (zgodnie z metadanymi).
+**Provenance / Ownership history:**  
+Niedostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0468.
+- Nie znaleziono źródeł zewnętrznych, opis oparty na analizie wizualnej zdjęć.
+---
+### French Version
+**Object Title / Type:**  
+Appareil électrique AEG AG, Nr. 1/1997/0468
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un appareil électrique fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG) vers l'année 1930, comme l'indiquent les métadonnées. L'appareil présente un corps cylindrique en céramique, principalement blanc avec une finition brillante. Le sommet du cylindre est légèrement évasé, et la base est conçue pour offrir de la stabilité. Les inscriptions visibles sur le corps indiquent : "NUR 30 MINUTEN EINSCHALTEN! 1947 NICHT UNTER STROM BENUTZEN," ce qui indique des instructions de fonctionnement et des avertissements de sécurité. Le texte est imprimé en rouge, contrastant fortement avec la surface en céramique blanche.
+L'appareil est équipé d'un cordon d'alimentation recouvert de textile, qui semble être en bon état, suggérant qu'il a été bien entretenu. Le cordon se termine par une prise standard, également visible sur les photographies. Le design global reflète l'esthétique industrielle du début du XXe siècle, caractérisée par une simplicité fonctionnelle et un accent sur des matériaux à la fois durables et faciles à nettoyer.
+Dans le contexte de son époque, cet appareil a probablement servi un but pratique dans les foyers ou les environnements industriels, reflétant la dépendance croissante aux appareils électriques dans la vie quotidienne. AEG était connue pour ses contributions innovantes à l'ingénierie électrique et aux appareils domestiques, et cet objet illustre l'engagement de l'entreprise envers la qualité et le design durant une période de progrès technologique rapide.
+**Material / Technique:**  
+Les matériaux principaux identifiés sont la céramique et le textile pour le cordon. La base semble être faite d'un métal durable, probablement revêtu pour des raisons esthétiques. Les hypothèses concernant des matériaux supplémentaires ne sont pas disponibles.
+**Dimensions:**  
+Ø Hauteur : 80 x 230 mm (selon les métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0468.
+- Aucune source externe trouvée, description basée sur l'analyse visuelle des photos.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Heating Pad AEG, Nr. 1/1997/0469 02
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a heating pad manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), likely produced around 1936 (assumption based on design style). The heating pad is designed for therapeutic use, providing warmth to alleviate discomfort or pain. It features a textile cover, which is visible in the photographs, and is likely made from cotton or a similar fabric, providing a soft surface for user comfort. The heating element is integrated into the pad, with a control mechanism that includes a black plastic switch, visible in the images, which allows the user to adjust the temperature.
+The pad is connected to a power source via a braided electrical cord, which is also visible in the photographs. The cord appears to be in good condition, although some wear is evident on the textile cover, indicating that the object has been used. The overall dimensions of the heating pad are approximately 315 mm in length, 195 mm in width, and 72 mm in height, as recorded in the metadata. The weight of the object is noted to be 0.14 kg.
+The packaging, which is also part of the object, features the AEG logo prominently, indicating the brand's commitment to quality and innovation during the early 20th century. AEG was known for its advancements in electrical appliances, and this heating pad reflects the company's focus on domestic comfort and health. The presence of a warranty card, visible in the photographs, suggests that the product was marketed with a guarantee of quality, which was a common practice for consumer goods at the time.
+**Material / Technique:**  
+The heating pad is primarily made of textile (likely cotton), with a metal heating element and a plastic switch. The cord is braided, likely made from a combination of rubber and textile materials. Assumptions regarding the materials are based on visual analysis.
+**Dimensions:**  
+Object dimensions are recorded as 315 mm (L) x 195 mm (W) x 72 mm (H). Weight: 0.14 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0469 02.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Wärmekissen AEG, Nr. 1/1997/0469 02
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein Wärmekissen, das von der Allgemeinen Elektricitäts-Gesellschaft (AEG) hergestellt wurde, wahrscheinlich um 1936 (Annahme basierend auf dem Designstil). Das Wärmekissen ist für therapeutische Zwecke konzipiert und bietet Wärme zur Linderung von Beschwerden oder Schmerzen. Es verfügt über einen Textildeckel, der in den Fotografien sichtbar ist, und besteht wahrscheinlich aus Baumwolle oder einem ähnlichen Stoff, der eine weiche Oberfläche für den Benutzerkomfort bietet. Das Heizelement ist in das Kissen integriert, mit einem Steuermechanismus, der einen schwarzen Kunststoffschalter umfasst, der in den Bildern sichtbar ist und es dem Benutzer ermöglicht, die Temperatur anzupassen.
+Das Kissen ist über ein geflochtenes Stromkabel mit einer Stromquelle verbunden, das ebenfalls in den Fotografien sichtbar ist. Das Kabel scheint sich in gutem Zustand zu befinden, obwohl einige Abnutzungserscheinungen am Textildeckel erkennbar sind, was darauf hindeutet, dass das Objekt verwendet wurde. Die Gesamtabmessungen des Wärmekissens betragen etwa 315 mm in der Länge, 195 mm in der Breite und 72 mm in der Höhe, wie im Metadaten aufgezeichnet. Das Gewicht des Objekts beträgt 0,14 kg.
+Die Verpackung, die ebenfalls Teil des Objekts ist, zeigt das AEG-Logo prominent, was auf das Engagement der Marke für Qualität und Innovation im frühen 20. Jahrhundert hinweist. AEG war bekannt für seine Fortschritte bei elektrischen Geräten, und dieses Wärmekissen spiegelt den Fokus des Unternehmens auf häuslichen Komfort und Gesundheit wider. Das Vorhandensein einer Garantiekarte, die in den Fotografien sichtbar ist, deutet darauf hin, dass das Produkt mit einer Qualitätsgarantie vermarktet wurde, was zu dieser Zeit eine gängige Praxis für Konsumgüter war.
+**Material / Technik:**  
+Das Wärmekissen besteht hauptsächlich aus Textil (wahrscheinlich Baumwolle), mit einem metallischen Heizelement und einem Kunststoffschalter. Das Kabel ist geflochten und besteht wahrscheinlich aus einer Kombination von Gummi und Textilmaterialien. Annahmen bezüglich der Materialien basieren auf visueller Analyse.
+**Dimensions:**  
+Die Objektmaße sind aufgezeichnet als 315 mm (L) x 195 mm (B) x 72 mm (H). Gewicht: 0,14 kg.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0469 02.
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Poduszka grzewcza AEG, Nr. 1/1997/0469 02
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to poduszka grzewcza wyprodukowana przez Allgemeine Elektricitäts-Gesellschaft (AEG), prawdopodobnie wyprodukowana około 1936 roku (założenie na podstawie stylu projektu). Poduszka grzewcza została zaprojektowana do użytku terapeutycznego, zapewniając ciepło w celu złagodzenia dyskomfortu lub bólu. Posiada pokrywę tekstylną, widoczną na fotografiach, która prawdopodobnie wykonana jest z bawełny lub podobnego materiału, co zapewnia miękką powierzchnię dla komfortu użytkownika. Element grzewczy jest zintegrowany z poduszką, a mechanizm sterujący obejmuje czarny plastikowy przełącznik, widoczny na zdjęciach, który pozwala użytkownikowi dostosować temperaturę.
+Poduszka jest podłączona do źródła zasilania za pomocą plecionego kabla elektrycznego, który również jest widoczny na fotografiach. Kabel wydaje się być w dobrym stanie, chociaż na pokrywie tekstylnej widoczne są pewne oznaki zużycia, co sugeruje, że obiekt był używany. Całkowite wymiary poduszki grzewczej wynoszą około 315 mm długości, 195 mm szerokości i 72 mm wysokości, zgodnie z danymi w metadanych. Waga obiektu wynosi 0,14 kg.
+Opakowanie, które również jest częścią obiektu, wyróżnia się wyraźnym logo AEG, co wskazuje na zaangażowanie marki w jakość i innowacje wczesnego XX wieku. AEG znane było z postępów w dziedzinie urządzeń elektrycznych, a ta poduszka grzewcza odzwierciedla skupienie firmy na domowym komforcie i zdrowiu. Obecność karty gwarancyjnej, widocznej na fotografiach, sugeruje, że produkt był reklamowany z gwarancją jakości, co było powszechną praktyką dla dóbr konsumpcyjnych w tamtym czasie.
+**Material / Technique:**  
+Poduszka grzewcza wykonana jest głównie z tekstyliów (prawdopodobnie bawełny), z metalowym elementem grzewczym i plastikowym przełącznikiem. Kabel jest pleciony, prawdopodobnie wykonany z kombinacji gumy i materiałów tekstylnych. Założenia dotyczące materiałów opierają się na analizie wizualnej.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako 315 mm (D) x 195 mm (S) x 72 mm (W). Waga: 0,14 kg.
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarza 1/1997/0469 02.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Coussin chauffant AEG, Nr. 1/1997/0469 02
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un coussin chauffant fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG), probablement produit vers 1936 (hypothèse basée sur le style de conception). Le coussin chauffant est conçu pour un usage thérapeutique, fournissant de la chaleur pour soulager l'inconfort ou la douleur. Il présente une housse en textile, visible sur les photographies, et est probablement fabriqué en coton ou dans un matériau similaire, offrant une surface douce pour le confort de l'utilisateur. L'élément chauffant est intégré dans le coussin, avec un mécanisme de contrôle comprenant un interrupteur en plastique noir, visible sur les images, qui permet à l'utilisateur de régler la température.
+Le coussin est relié à une source d'alimentation par un cordon électrique tressé, également visible sur les photographies. Le cordon semble être en bon état, bien que certaines marques d'usure soient visibles sur la housse en textile, indiquant que l'objet a été utilisé. Les dimensions globales du coussin chauffant sont d'environ 315 mm de long, 195 mm de large et 72 mm de haut, comme indiqué dans les métadonnées. Le poids de l'objet est noté à 0,14 kg.
+L'emballage, qui fait également partie de l'objet, présente le logo AEG de manière proéminente, indiquant l'engagement de la marque envers la qualité et l'innovation au début du XXe siècle. AEG était connu pour ses avancées dans les appareils électriques, et ce coussin chauffant reflète l'accent mis par l'entreprise sur le confort domestique et la santé. La présence d'une carte de garantie, visible sur les photographies, suggère que le produit était commercialisé avec une garantie de qualité, ce qui était une pratique courante pour les biens de consommation à l'époque.
+**Material / Technique:**  
+Le coussin chauffant est principalement fabriqué en textile (probablement en coton), avec un élément chauffant en métal et un interrupteur en plastique. Le cordon est tressé, probablement fabriqué à partir d'une combinaison de caoutchouc et de matériaux textiles. Les hypothèses concernant les matériaux sont basées sur une analyse visuelle.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme 315 mm (L) x 195 mm (l) x 72 mm (H). Poids : 0,14 kg.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées de musée primaires : Numéro d'inventaire 1/1997/0469 02.
+- Références littéraires : Non disponible.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Container [Brand + Model] [Function/identifier], Nr. 1/1997/0470
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a metal container characterized by its oval shape and polished surface, indicative of mid-20th century design aesthetics. The container features a lid with a central handle, which is secured by two metal clasps on either side, allowing for easy access. The lid is designed with a slight overhang, enhancing its functionality by preventing spillage. The body of the container is constructed from metal, likely stainless steel, providing durability and resistance to corrosion. The handles are wrapped in a woven material, possibly rattan, which serves both an aesthetic and functional purpose, ensuring a secure grip while minimizing heat transfer. 
+Visible wear on the surface suggests that the container has been used, although no significant alterations or repairs are evident. The overall condition appears to be good, with minor scratches and signs of use consistent with its age. The dimensions of the object, as recorded in the metadata, are approximately 115 mm in height, 165 mm in width, and an unspecified depth. The weight is noted to be 0.32 kg.
+This container likely served a practical purpose in domestic or industrial settings, reflecting the design philosophy of the early 20th century that emphasized functionality and simplicity. The use of metal as a primary material aligns with the industrial advancements of the time, where metal containers became increasingly popular for their durability and ease of cleaning. The design may also reflect the influence of Bauhaus principles, which favored minimalism and the integration of form and function.
+**Material / Technique:**  
+The container is primarily made of metal, likely stainless steel, with woven handles that appear to be made of rattan. Assumption: the metal may include other alloys for enhanced durability.
+**Dimensions:**  
+Object dimensions are recorded as approximately 115 mm (height) x 165 mm (width) x depth not available.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0470.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Behälter [Marke + Modell] [Funktion/Identifier], Nr. 1/1997/0470
 **Source Availability Statement:**  
 Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
 **Description:**  
-Das Objekt ist ein elektrischer Wasserkocher, der durch seinen polierten Metallkörper gekennzeichnet ist, der Licht reflektiert und eine glatte, abgerundete Form zeigt. Der Wasserkocher verfügt über einen markanten Ausguss und einen gebogenen Griff aus schwarzem Material, wahrscheinlich Bakelit, das in Küchengeräten der Mitte des 20. Jahrhunderts verbreitet ist. Der Deckel ist gewölbt und mit einem kleinen schwarzen Knauf verziert, was seine ästhetische Anziehungskraft erhöht. Die Basis des Wasserkochers ist etwas breiter, was Stabilität bietet, und ist mit kleinen Füßen ausgestattet, die ihn vom Untergrund abheben.
-Sichtbare Inschriften umfassen eine runde Platte an der Basis, die wahrscheinlich ein Herstellerzeichen ist, dessen spezifische Details jedoch in den Fotografien nicht erkennbar sind. Das Design des Wasserkochers deutet darauf hin, dass er für den Hausgebrauch gedacht war und den modernen ästhetischen Stil der Mitte des Jahrhunderts widerspiegelt, der sowohl Funktionalität als auch Stil betonte. Die Anwesenheit eines abnehmbaren Siebs, das in einem der Bilder sichtbar ist, zeigt, dass dieser Wasserkocher zum Aufbrühen von Tee konzipiert wurde, um lose Blätter beim Ausgießen zu halten.
-Der Zustand des Wasserkochers scheint gut zu sein, mit geringfügigen Oberflächenkratzern, die dem Alter und der Nutzung entsprechen. Es sind keine sichtbaren Anzeichen von erheblichem Verschleiß oder Reparaturen vorhanden, was darauf hindeutet, dass er gut gepflegt wurde. Das gesamte Design und die Materialien deuten darauf hin, dass dieser Wasserkocher wahrscheinlich aus der Mitte des 20. Jahrhunderts stammt, was mit dem Aufstieg elektrischer Küchengeräte in dieser Zeit übereinstimmt [Annahme basierend auf dem Designstil].
-**Material / Technique:**  
-Der Wasserkocher besteht hauptsächlich aus poliertem Metall, wahrscheinlich Edelstahl, mit einem schwarzen Griff, der Bakelit zu sein scheint. Die spezifischen Materialien der inneren Komponenten sind nicht verfügbar.
-**Dimensions:**  
+Das Objekt ist ein Metallbehälter, der durch seine ovale Form und die polierte Oberfläche gekennzeichnet ist, was auf die Designästhetik des mittleren 20. Jahrhunderts hinweist. Der Behälter verfügt über einen Deckel mit einem zentralen Griff, der durch zwei Metallverschlüsse an beiden Seiten gesichert ist, um einen einfachen Zugang zu ermöglichen. Der Deckel ist mit einem leichten Überhang gestaltet, der die Funktionalität verbessert, indem er ein Überlaufen verhindert. Der Körper des Behälters besteht aus Metall, wahrscheinlich Edelstahl, was Haltbarkeit und Korrosionsbeständigkeit bietet. Die Griffe sind mit einem geflochtenen Material, möglicherweise Rattan, umwickelt, was sowohl einen ästhetischen als auch funktionalen Zweck erfüllt, indem es einen sicheren Griff gewährleistet und die Wärmeübertragung minimiert.
+Sichtbare Abnutzung auf der Oberfläche deutet darauf hin, dass der Behälter verwendet wurde, obwohl keine wesentlichen Änderungen oder Reparaturen erkennbar sind. Der allgemeine Zustand scheint gut zu sein, mit geringfügigen Kratzern und Gebrauchsspuren, die mit seinem Alter übereinstimmen. Die Abmessungen des Objekts, wie in den Metadaten aufgezeichnet, betragen etwa 115 mm in der Höhe, 165 mm in der Breite und eine nicht spezifizierte Tiefe. Das Gewicht beträgt 0,32 kg.
+Dieser Behälter diente wahrscheinlich einem praktischen Zweck in häuslichen oder industriellen Umgebungen und spiegelt die Designphilosophie des frühen 20. Jahrhunderts wider, die Funktionalität und Einfachheit betonte. Die Verwendung von Metall als Hauptmaterial steht im Einklang mit den industriellen Fortschritten der Zeit, als Metallbehälter aufgrund ihrer Haltbarkeit und einfachen Reinigung zunehmend beliebt wurden. Das Design könnte auch den Einfluss der Bauhaus-Prinzipien widerspiegeln, die Minimalismus und die Integration von Form und Funktion bevorzugten.
+**Material / Technik:**  
+Der Behälter besteht hauptsächlich aus Metall, wahrscheinlich Edelstahl, mit Griffen, die aus Rattan zu bestehen scheinen. Annahme: Das Metall könnte andere Legierungen zur Verbesserung der Haltbarkeit enthalten.
+**Dimensions:**  
+Die Objektmaße sind mit etwa 115 mm (Höhe) x 165 mm (Breite) x Tiefe nicht verfügbar aufgezeichnet.
+**Provenance / Ownership history:**  
 Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0470.
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Pojemnik [Marka + Model] [Funkcja/identyfikator], Nr. 1/1997/0470
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to metalowy pojemnik charakteryzujący się owalnym kształtem i wypolerowaną powierzchnią, co wskazuje na estetykę projektowania z połowy XX wieku. Pojemnik posiada pokrywę z centralnym uchwytem, która jest zabezpieczona dwoma metalowymi klamrami po obu stronach, co umożliwia łatwy dostęp. Pokrywa jest zaprojektowana z lekkim występem, co zwiększa jej funkcjonalność, zapobiegając wylewaniu. Korpus pojemnika wykonany jest z metalu, prawdopodobnie ze stali nierdzewnej, co zapewnia trwałość i odporność na korozję. Uchwyty są owinięte plecionym materiałem, prawdopodobnie z rattanu, co pełni zarówno estetyczną, jak i funkcjonalną rolę, zapewniając pewny chwyt i minimalizując przewodnictwo ciepła.
+Widoczna zużycie na powierzchni sugeruje, że pojemnik był używany, chociaż nie widać istotnych zmian ani napraw. Ogólny stan wydaje się dobry, z drobnymi rysami i śladami użytkowania, które są zgodne z jego wiekiem. Wymiary obiektu, jak zapisano w metadanych, wynoszą około 115 mm wysokości, 165 mm szerokości i nieokreślonej głębokości. Waga wynosi 0,32 kg.
+Ten pojemnik prawdopodobnie służył praktycznemu celowi w warunkach domowych lub przemysłowych, odzwierciedlając filozofię projektowania wczesnego XX wieku, która kładła nacisk na funkcjonalność i prostotę. Użycie metalu jako głównego materiału jest zgodne z postępami przemysłowymi tamtego czasu, kiedy to metalowe pojemniki stały się coraz bardziej popularne ze względu na swoją trwałość i łatwość czyszczenia. Projekt może również odzwierciedlać wpływ zasad Bauhausu, które preferowały minimalizm i integrację formy z funkcją.
+**Material / Technique:**  
+Pojemnik wykonany jest głównie z metalu, prawdopodobnie ze stali nierdzewnej, z uchwytami, które wydają się być z rattanu. Założenie: metal może zawierać inne stopy dla zwiększenia trwałości.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako około 115 mm (wysokość) x 165 mm (szerokość) x głębokość nie dostępna.
+**Provenance / Ownership history:**  
+Nie dostępna.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0470.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Conteneur [Marque + Modèle] [Fonction/identifiant], Nr. 1/1997/0470
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un conteneur en métal caractérisé par sa forme ovale et sa surface polie, ce qui indique une esthétique de design du milieu du XXe siècle. Le conteneur dispose d'un couvercle avec une poignée centrale, qui est sécurisé par deux fermetures métalliques de chaque côté, permettant un accès facile. Le couvercle est conçu avec un léger débord, améliorant sa fonctionnalité en empêchant les débordements. Le corps du conteneur est fabriqué en métal, probablement en acier inoxydable, offrant durabilité et résistance à la corrosion. Les poignées sont enroulées d'un matériau tressé, probablement du rotin, qui remplit à la fois une fonction esthétique et fonctionnelle, garantissant une prise sécurisée tout en minimisant le transfert de chaleur.
+L'usure visible sur la surface suggère que le conteneur a été utilisé, bien qu'aucune modification ou réparation significative ne soit évidente. L'état général semble bon, avec de légères rayures et des signes d'utilisation conformes à son âge. Les dimensions de l'objet, telles qu'enregistrées dans les métadonnées, sont d'environ 115 mm de hauteur, 165 mm de largeur et une profondeur non spécifiée. Le poids est noté à 0,32 kg.
+Ce conteneur a probablement servi un but pratique dans des environnements domestiques ou industriels, reflétant la philosophie de design du début du XXe siècle qui mettait l'accent sur la fonctionnalité et la simplicité. L'utilisation du métal comme matériau principal s'aligne avec les avancées industrielles de l'époque, où les conteneurs en métal sont devenus de plus en plus populaires en raison de leur durabilité et de leur facilité de nettoyage. Le design peut également refléter l'influence des principes du Bauhaus, qui favorisaient le minimalisme et l'intégration de la forme et de la fonction.
+**Material / Technique:**  
+Le conteneur est principalement en métal, probablement en acier inoxydable, avec des poignées qui semblent être en rotin. Hypothèse : le métal peut inclure d'autres alliages pour une durabilité accrue.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme étant d'environ 115 mm (hauteur) x 165 mm (largeur) x profondeur non disponible.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées de musée primaires : numéro d'inventaire 1/1997/0470.
+- Références littéraires : Non disponible.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### Object Title / Type:
+Electric Lamp [AEG Model], Nr. 1/1997/0471 0
+### Source Availability Statement:
+No online description found. Entry generated from metadata and photo analysis.
+### Description:
+The object is an electric lamp manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), likely produced around 1940 (assumption based on design style). The lamp features a distinctive design characterized by a spherical shade, which is made of a light-colored plastic material, possibly Bakelite, that has a smooth, glossy finish. The base of the lamp is dark, likely made of a contrasting plastic or Bakelite, and exhibits a rounded form that complements the shade's shape. 
+The lamp is supported by a transparent acrylic stand, which provides stability while allowing for a minimalist aesthetic that emphasizes the lamp's design. The electrical components include a two-pronged plug, which is visible in the photographs, indicating its functionality as a household electric lamp. The cord is braided, suggesting a level of craftsmanship typical of the era, and it connects the lamp to the power source. 
+In terms of historical context, this lamp represents the mid-20th century design philosophy that emphasized both functionality and aesthetic appeal. During this period, AEG was a leading manufacturer in electrical appliances, contributing significantly to the domestic sphere's modernization. The lamp's design reflects the industrial trends of the time, where simplicity and elegance were paramount, and it likely served as a common household item, enhancing the living spaces of its users.
+The lamp's condition appears to be good, with no visible signs of significant wear or alterations. However, the absence of original packaging or documentation limits the understanding of its complete provenance.
+### Material / Technique:
+The lamp is constructed from certain materials including plastic (likely Bakelite), wood, textile fabric, and metal (as noted in the metadata). The exact composition of the plastic is not specified, but it is consistent with materials used in the 1940s. Assumptions regarding the materials are based on visual analysis of the object.
+### Dimensions:
+The dimensions of the object, as provided in the metadata, are approximately 120 mm in height, 100 mm in width, and 160 mm in depth. The weight is recorded at 0.3 kg.
+### Provenance / Ownership history:
+Not available.
+### Links / Sources:
+- **Primary museum metadata:** Inventory number: 1/1997/0471 0; Contributors: Allgemeine Elektricitäts-Gesellschaft AEG AG; AEG-Produktsammlung.
+- **Literature references:** Kelling, Ingeborg. *Alles elektrisch: 100 Jahre AEG Hausgeräte*: [Ausstellung im Centrum Industriekultur Nürnberg, 1989]. Nürnberg: AEG Hausgeräte, 1989, S. 21.
+- **Web resources:** Not available.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Iron [AEG] [Model not available], Nr. 1/1997/0472 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric iron, characterized by its robust design and ornamental features. The body of the iron exhibits a ribbed texture, which is both functional and decorative, likely intended to enhance grip and control during use. The handle is elegantly designed, featuring a central wooden section flanked by intricately shaped metal supports, which provide stability and comfort. The base of the iron is supported by four rounded feet, contributing to its stability when placed on a flat surface.
+Visible in the photographs, the iron is predominantly finished in a matte black color, suggesting a painted metal surface. The handle appears to be made of wood, contrasting with the metallic body. The presence of a power cord with a three-pronged plug indicates its functionality as an electric appliance, a significant advancement in household technology during the 20th century. The design reflects the aesthetic trends of the time, merging utility with decorative elements, which was common in domestic appliances of the era.
+This electric iron likely represents a period when household chores were being transformed by electrical appliances, making tasks such as ironing more efficient and less labor-intensive. The ornamental aspects of the design may also reflect the influence of Art Nouveau or similar movements, which emphasized organic forms and intricate details. The object serves as a testament to the evolution of domestic technology, showcasing how functionality and design can coexist.
+**Material / Technique:**  
+The iron is constructed from metal, with a wooden handle. The exact type of metal is not specified, but it appears to be painted steel. Assumptions regarding additional materials include plastic components, particularly in the plug and possibly in the internal mechanisms.
+**Dimensions:**  
+Object dimensions are recorded as 275 x 160 x 210 mm, with a weight of 0.94 kg (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0472 0.  
+- Literature references: Not available.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrisches Bügeleisen [AEG] [Modell nicht verfügbar], Nr. 1/1997/0472 0
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein elektrisches Bügeleisen, das sich durch sein robustes Design und seine ornamentalen Merkmale auszeichnet. Der Körper des Bügeleisens zeigt eine gerippte Textur, die sowohl funktional als auch dekorativ ist und wahrscheinlich dazu dient, den Griff und die Kontrolle während der Benutzung zu verbessern. Der Griff ist elegant gestaltet und verfügt über einen zentralen Holzbereich, der von kunstvoll geformten Metallstützen flankiert wird, die Stabilität und Komfort bieten. Die Basis des Bügeleisens wird von vier runden Füßen gestützt, was zur Stabilität auf einer flachen Oberfläche beiträgt.
+In den Fotografien sichtbar, ist das Bügeleisen überwiegend in einer mattschwarzen Farbe gehalten, was auf eine lackierte Metalloberfläche hindeutet. Der Griff scheint aus Holz zu bestehen, was einen Kontrast zum metallischen Körper bildet. Das Vorhandensein eines Stromkabels mit einem dreipoligen Stecker weist auf die Funktionalität als elektrisches Gerät hin, eine bedeutende Weiterentwicklung in der Haushaltstechnologie des 20. Jahrhunderts. Das Design spiegelt die ästhetischen Trends der Zeit wider, indem es Nützlichkeit mit dekorativen Elementen verbindet, was bei Haushaltsgeräten dieser Ära üblich war.
+Dieses elektrische Bügeleisen repräsentiert wahrscheinlich eine Zeit, in der Haushaltsarbeiten durch elektrische Geräte revolutioniert wurden, wodurch Aufgaben wie das Bügeln effizienter und weniger arbeitsintensiv wurden. Die ornamentalen Aspekte des Designs könnten auch den Einfluss des Jugendstils oder ähnlicher Bewegungen widerspiegeln, die organische Formen und filigrane Details betonten. Das Objekt dient als Zeugnis für die Evolution der Haustechnologie und zeigt, wie Funktionalität und Design koexistieren können.
+**Material / Technique:**  
+Das Bügeleisen besteht aus Metall, mit einem Holzgriff. Der genaue Metalltyp ist nicht spezifiziert, scheint aber aus lackiertem Stahl zu bestehen. Annahmen über zusätzliche Materialien umfassen Kunststoffkomponenten, insbesondere im Stecker und möglicherweise in den inneren Mechanismen.
+**Dimensions:**  
+Die Objektmaße sind mit 275 x 160 x 210 mm und einem Gewicht von 0,94 kg (Metadaten) verzeichnet.
 **Provenance / Ownership history:**  
 Nicht verfügbar.
 **Links / Sources:**  
-- Primäre Museumsmetadaten: 1-1997-0466-000-000  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0472 0.  
+- Literaturverweise: Nicht verfügbar.  
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Żelazko elektryczne [AEG] [Model niedostępny], Nr. 1/1997/0472 0
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to żelazko elektryczne, charakteryzujące się solidnym designem i ozdobnymi cechami. Korpus żelazka ma teksturę żebrowaną, która jest zarówno funkcjonalna, jak i dekoracyjna, prawdopodobnie mająca na celu poprawę chwytu i kontroli podczas użytkowania. Uchwyt jest elegancko zaprojektowany, z centralną drewnianą częścią flankowaną przez misternie uformowane metalowe podpory, które zapewniają stabilność i komfort. Podstawa żelazka jest wspierana przez cztery okrągłe nóżki, co przyczynia się do jego stabilności na płaskiej powierzchni.
+Widoczne na fotografiach, żelazko jest w przeważającej części wykończone w matowej czerni, co sugeruje malowaną metalową powierzchnię. Uchwyt wydaje się być wykonany z drewna, co kontrastuje z metalowym korpusem. Obecność przewodu zasilającego z trzypinowym wtykiem wskazuje na jego funkcjonalność jako urządzenia elektrycznego, co stanowi znaczący postęp w technologii domowej w XX wieku. Projekt odzwierciedla trendy estetyczne tamtego okresu, łącząc użyteczność z elementami dekoracyjnymi, co było powszechne w urządzeniach domowych tej epoki.
+To żelazko elektryczne prawdopodobnie reprezentuje okres, w którym prace domowe były transformowane przez urządzenia elektryczne, co czyniło takie zadania jak prasowanie bardziej efektywnymi i mniej pracochłonnymi. Aspekty ozdobne projektu mogą również odzwierciedlać wpływ secesji lub podobnych ruchów, które podkreślały organiczne formy i misternie szczegóły. Obiekt stanowi świadectwo ewolucji technologii domowej, pokazując, jak funkcjonalność i design mogą współistnieć.
+**Material / Technique:**  
+Żelazko wykonane jest z metalu, z drewnianym uchwytem. Dokładny typ metalu nie jest określony, ale wydaje się być stalą malowaną. Założenia dotyczące dodatkowych materiałów obejmują komponenty plastikowe, szczególnie w wtyczce i być może w mechanizmach wewnętrznych.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako 275 x 160 x 210 mm, z wagą 0,94 kg (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0472 0.  
+- Odniesienia literaturowe: Nie dostępne.  
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Fer à repasser électrique [AEG] [Modèle non disponible], Nr. 1/1997/0472 0
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un fer à repasser électrique, caractérisé par son design robuste et ses éléments ornementaux. Le corps du fer présente une texture nervurée, à la fois fonctionnelle et décorative, probablement destinée à améliorer la prise en main et le contrôle lors de l'utilisation. La poignée est élégamment conçue, avec une section centrale en bois flanquée de supports métalliques finement travaillés, offrant stabilité et confort. La base du fer repose sur quatre pieds ronds, contribuant à sa stabilité lorsqu'il est posé sur une surface plane.
+Visible sur les photographies, le fer est principalement fini dans une couleur noire mate, suggérant une surface métallique peinte. La poignée semble être en bois, contrastant avec le corps métallique. La présence d'un cordon d'alimentation avec une prise à trois broches indique sa fonctionnalité en tant qu'appareil électrique, une avancée significative dans la technologie domestique au XXe siècle. Le design reflète les tendances esthétiques de l'époque, alliant utilité et éléments décoratifs, ce qui était courant dans les appareils domestiques de l'ère.
+Ce fer à repasser électrique représente probablement une période où les tâches ménagères étaient transformées par des appareils électriques, rendant des tâches telles que le repassage plus efficaces et moins laborieuses. Les aspects ornementaux du design peuvent également refléter l'influence de l'Art Nouveau ou de mouvements similaires, qui mettaient l'accent sur des formes organiques et des détails complexes. L'objet témoigne de l'évolution de la technologie domestique, montrant comment fonctionnalité et design peuvent coexister.
+**Material / Technique:**  
+Le fer est construit en métal, avec une poignée en bois. Le type exact de métal n'est pas spécifié, mais il semble s'agir d'acier peint. Les hypothèses concernant des matériaux supplémentaires incluent des composants en plastique, en particulier dans la prise et peut-être dans les mécanismes internes.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme 275 x 160 x 210 mm, avec un poids de 0,94 kg (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0472 0.  
+- Références littéraires : Non disponible.  
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Cigar Lighter, Nr. 1/1997/0473 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric cigar lighter, characterized by its distinctive bell-shaped base and ornate design. The base features intricate relief work depicting floral motifs and figures, which are visible in the photographs. The lighter's body is composed of a metallic material, likely painted in a gold finish, enhancing its decorative appeal. The upper part of the lighter consists of a cylindrical neck that supports the ignition mechanism, which is capped with a small, circular component. The overall design suggests a blend of functionality and aesthetic elegance, typical of late 20th-century decorative objects.
+The lighter is equipped with a power cord that terminates in a standard plug, indicating its electrical functionality. The presence of this cord suggests that the device was intended for use in domestic settings, reflecting the era's shift towards electric appliances in everyday life. The year of manufacture is noted as 1990, which situates this object within a period of increased consumerism and innovation in home goods.
+The object weighs approximately 1.2 kg, and its dimensions are recorded as Ø height: 175 x 300 mm (assumption based on metadata). The condition appears to be good, with no visible signs of significant wear or alterations, although the exact state of the internal mechanisms is not discernible from the photographs.
+**Material / Technique:**  
+The materials identified include metal, plastic, and textile fabric, as noted in the metadata. The finish appears to be a painted metallic surface, likely applied to enhance durability and aesthetic appeal. Assumptions regarding the specific types of metal or plastic used are not available.
+**Dimensions:**  
+Ø height: 175 x 300 mm (assumption based on metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0473 0.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Zigarrenanzünder, Nr. 1/1997/0473 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein elektrischer Zigarrenanzünder, der durch seine charakteristische glockenförmige Basis und das aufwendige Design gekennzeichnet ist. Die Basis weist filigrane Reliefarbeiten mit floralen Motiven und Figuren auf, die in den Fotografien sichtbar sind. Der Körper des Anzünders besteht aus einem metallischen Material, das wahrscheinlich in einer goldenen Farbe lackiert ist, was seine dekorative Anziehungskraft erhöht. Der obere Teil des Anzünders besteht aus einem zylindrischen Hals, der den Zündmechanismus trägt, der mit einem kleinen, runden Element gekrönt ist. Das Gesamtdesign deutet auf eine Mischung aus Funktionalität und ästhetischer Eleganz hin, die typisch für dekorative Objekte des späten 20. Jahrhunderts ist.
+Der Anzünder ist mit einem Stromkabel ausgestattet, das in einem Standardstecker endet, was auf seine elektrische Funktionalität hinweist. Das Vorhandensein dieses Kabels deutet darauf hin, dass das Gerät für den Einsatz in privaten Haushalten gedacht war, was den Wandel der Ära hin zu elektrischen Geräten im Alltag widerspiegelt. Das Herstellungsjahr wird mit 1990 angegeben, was dieses Objekt in eine Zeit des zunehmenden Konsumverhaltens und der Innovation im Bereich Haushaltswaren einordnet.
+Das Objekt wiegt etwa 1,2 kg, und die Abmessungen sind mit Ø Höhe: 175 x 300 mm angegeben (Annahme basierend auf den Metadaten). Der Zustand scheint gut zu sein, ohne sichtbare Anzeichen von erheblichem Verschleiß oder Veränderungen, obwohl der genaue Zustand der inneren Mechanismen aus den Fotografien nicht erkennbar ist.
+**Material / Technik:**  
+Die identifizierten Materialien umfassen Metall, Kunststoff und Textilgewebe, wie in den Metadaten angegeben. Die Oberfläche scheint eine lackierte Metalloberfläche zu sein, die wahrscheinlich aufgebracht wurde, um Haltbarkeit und ästhetische Anziehungskraft zu erhöhen. Annahmen über die spezifischen Arten von Metall oder Kunststoff, die verwendet wurden, sind nicht verfügbar.
+**Dimensions:**  
+Ø Höhe: 175 x 300 mm (Annahme basierend auf den Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0473 0.
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Elektryczny zapalnik cygar, Nr. 1/1997/0473 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to elektryczny zapalnik cygar, charakteryzujący się charakterystyczną, dzwonowatą podstawą oraz bogatym wzornictwem. Podstawa posiada misternie wykonane reliefy przedstawiające motywy florystyczne i postacie, które są widoczne na fotografiach. Korpus zapalnika wykonany jest z materiału metalowego, prawdopodobnie pokrytego złotym lakierem, co zwiększa jego dekoracyjną atrakcyjność. Górna część zapalnika składa się z cylindrycznej szyi, która wspiera mechanizm zapłonowy, zakończony małym, okrągłym elementem. Całościowe wzornictwo sugeruje połączenie funkcjonalności i estetycznej elegancji, typowe dla dekoracyjnych obiektów końca XX wieku.
+Zapalnik wyposażony jest w przewód zasilający zakończony standardową wtyczką, co wskazuje na jego elektryczną funkcjonalność. Obecność tego przewodu sugeruje, że urządzenie było przeznaczone do użytku domowego, co odzwierciedla zmianę epoki w kierunku elektrycznych urządzeń w codziennym życiu. Rok produkcji podano jako 1990, co umiejscawia ten obiekt w okresie wzrastającego konsumpcjonizmu i innowacji w towarach domowych.
+Obiekt waży około 1,2 kg, a jego wymiary są zapisane jako Ø wysokość: 175 x 300 mm (założenie na podstawie metadanych). Stan obiektu wydaje się być dobry, bez widocznych oznak znacznego zużycia lub zmian, chociaż dokładny stan mechanizmów wewnętrznych nie jest dostrzegalny na fotografiach.
+**Material / Technique:**  
+Zidentyfikowane materiały to metal, plastik i tkanina, jak podano w metadanych. Wykończenie wydaje się być metalową powierzchnią pokrytą lakierem, prawdopodobnie nałożoną w celu zwiększenia trwałości i atrakcyjności estetycznej. Założenia dotyczące konkretnych rodzajów metalu lub plastiku użytych w produkcie są niedostępne.
+**Dimensions:**  
+Ø wysokość: 175 x 300 mm (założenie na podstawie metadanych).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarza 1/1997/0473 0.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Allume-cigare électrique, Nr. 1/1997/0473 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un allume-cigare électrique, caractérisé par sa base en forme de cloche et son design orné. La base présente des reliefs complexes représentant des motifs floraux et des figures, visibles sur les photographies. Le corps de l'allume-cigare est composé d'un matériau métallique, probablement peint en doré, ce qui renforce son attrait décoratif. La partie supérieure de l'allume-cigare se compose d'un col cylindrique qui supporte le mécanisme d'allumage, surmonté d'un petit élément circulaire. Le design global suggère un mélange de fonctionnalité et d'élégance esthétique, typique des objets décoratifs de la fin du XXe siècle.
+L'allume-cigare est équipé d'un cordon d'alimentation se terminant par une prise standard, indiquant sa fonctionnalité électrique. La présence de ce cordon suggère que l'appareil était destiné à un usage domestique, reflétant le passage de l'époque vers des appareils électriques dans la vie quotidienne. L'année de fabrication est notée comme 1990, ce qui situe cet objet dans une période de consommation accrue et d'innovation dans les biens domestiques.
+L'objet pèse environ 1,2 kg, et ses dimensions sont enregistrées comme Ø hauteur : 175 x 300 mm (hypothèse basée sur les métadonnées). L'état semble bon, sans signes visibles d'usure significative ou de modifications, bien que l'état exact des mécanismes internes ne soit pas discernable à partir des photographies.
+**Material / Technique:**  
+Les matériaux identifiés comprennent le métal, le plastique et le tissu, comme indiqué dans les métadonnées. La finition semble être une surface métallique peinte, probablement appliquée pour améliorer la durabilité et l'attrait esthétique. Les hypothèses concernant les types spécifiques de métal ou de plastique utilisés ne sont pas disponibles.
+**Dimensions:**  
+Ø hauteur : 175 x 300 mm (hypothèse basée sur les métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0473 0.
+- Références littéraires : Non disponible.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Iron AEG AG, Nr. 1/1997/0474 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric iron manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) in 1923. The design features a compact, rounded body with a polished metallic finish, indicative of the industrial aesthetics of the early 20th century. The iron is equipped with a black, textured handle that is wrapped in a textile material, providing a tactile grip for the user. The handle is mounted on a base that is also metallic, showcasing a smooth, reflective surface. 
+Visible in the photographs is a coiled electrical cord that is neatly wrapped around the base of the iron, suggesting a design consideration for storage and ease of use. The base has a circular shape with a diameter that appears consistent across the images. The top of the iron features a circular, raised pattern, likely serving both aesthetic and functional purposes, possibly to enhance grip or heat distribution.
+The iron's construction includes metal and textile materials, with the base likely made of polished steel and the handle wrapped in a textile covering. The presence of a ceramic component is noted in the metadata, though its specific location within the iron is not discernible from the images. The overall condition of the iron appears to be well-preserved, with no visible signs of significant wear or alterations, although the electrical cord may not be original, as it shows signs of aging.
+**Material / Technique:**  
+The materials identified include metal (likely polished steel), textile (used for the handle), and ceramic (as per metadata). The specific location of the ceramic component is not available. Assumptions regarding the materials are based on visible characteristics.
+**Dimensions:**  
+The dimensions provided in the metadata indicate a height of 70 mm, a width of 60 mm, and a depth of 120 mm with the handles raised. The weight is recorded at 0.7 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0474 01.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrisches Bügeleisen AEG AG, Nr. 1/1997/0474 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein elektrisches Bügeleisen, das 1923 von der Allgemeinen Elektricitäts-Gesellschaft (AEG) hergestellt wurde. Das Design zeigt einen kompakten, abgerundeten Körper mit einer polierten Metalloberfläche, die die industrielle Ästhetik des frühen 20. Jahrhunderts widerspiegelt. Das Bügeleisen ist mit einem schwarzen, strukturierten Griff ausgestattet, der mit einem Textilmaterial umwickelt ist und dem Benutzer einen taktilen Halt bietet. Der Griff ist auf einer Basis montiert, die ebenfalls metallisch ist und eine glatte, reflektierende Oberfläche aufweist.
+In den Fotografien ist ein gewickeltes Stromkabel zu sehen, das ordentlich um die Basis des Bügeleisens gewickelt ist, was auf eine durchdachte Designüberlegung für die Aufbewahrung und Benutzerfreundlichkeit hinweist. Die Basis hat eine kreisförmige Form mit einem Durchmesser, der in den Bildern konsistent erscheint. Die Oberseite des Bügeleisens weist ein kreisförmiges, erhabenes Muster auf, das sowohl ästhetische als auch funktionale Zwecke erfüllen könnte, möglicherweise zur Verbesserung des Griffs oder der Wärmeverteilung.
+Die Konstruktion des Bügeleisens umfasst Metall und Textilmaterialien, wobei die Basis wahrscheinlich aus poliertem Stahl und der Griff mit einem Textilüberzug umwickelt ist. Die Anwesenheit eines keramischen Elements wird in den Metadaten erwähnt, obwohl dessen spezifischer Standort im Bügeleisen aus den Bildern nicht erkennbar ist. Der allgemeine Zustand des Bügeleisens scheint gut erhalten zu sein, ohne sichtbare Anzeichen von erheblichem Verschleiß oder Veränderungen, obwohl das Stromkabel möglicherweise nicht original ist, da es Anzeichen von Alterung aufweist.
+**Material / Technik:**  
+Die identifizierten Materialien umfassen Metall (wahrscheinlich polierter Stahl), Textil (für den Griff verwendet) und Keramik (laut Metadaten). Der spezifische Standort des keramischen Elements ist nicht verfügbar. Annahmen zu den Materialien basieren auf sichtbaren Merkmalen.
+**Dimensions:**  
+Die in den Metadaten angegebenen Abmessungen betragen eine Höhe von 70 mm, eine Breite von 60 mm und eine Tiefe von 120 mm mit hochgeklappten Griffen. Das Gewicht wird mit 0,7 kg angegeben.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0474 01.
+- Literaturverweise: Not available.
+- Webressourcen: Not available.
+---
+### Polish Version
+**Object Title / Type:**  
+Żelazko elektryczne AEG AG, Nr. 1/1997/0474 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to elektryczne żelazko wyprodukowane przez Allgemeine Elektricitäts-Gesellschaft (AEG) w 1923 roku. Projekt charakteryzuje się zwartą, zaokrągloną obudową z polerowanej metalowej powierzchni, co jest typowe dla estetyki przemysłowej początku XX wieku. Żelazko wyposażone jest w czarny, teksturowany uchwyt, owinięty materiałem tekstylnym, co zapewnia użytkownikowi wygodny chwyt. Uchwyt zamontowany jest na podstawie, która również jest metalowa, z gładką, odbijającą powierzchnią.
+Na fotografiach widoczne jest zwinięte przewód elektryczny, starannie owinięty wokół podstawy żelazka, co sugeruje przemyślane rozwiązanie dotyczące przechowywania i łatwości użytkowania. Podstawa ma okrągły kształt, a średnica wydaje się być spójna na wszystkich zdjęciach. Górna część żelazka ma okrągły, wypukły wzór, który może pełnić zarówno funkcje estetyczne, jak i funkcjonalne, prawdopodobnie poprawiając chwyt lub rozkład ciepła.
+Konstrukcja żelazka obejmuje materiały metalowe i tekstylne, przy czym podstawa prawdopodobnie wykonana jest z polerowanej stali, a uchwyt owinięty jest materiałem tekstylnym. W metadanych zauważono obecność elementu ceramicznego, chociaż jego konkretna lokalizacja w żelazku nie jest widoczna na zdjęciach. Ogólny stan żelazka wydaje się być dobrze zachowany, bez widocznych oznak znacznego zużycia lub zmian, chociaż przewód elektryczny może nie być oryginalny, ponieważ wykazuje oznaki starzenia.
+**Material / Technique:**  
+Zidentyfikowane materiały to metal (prawdopodobnie polerowana stal), tekstyl (użyty do uchwytu) oraz ceramika (zgodnie z metadanymi). Konkretna lokalizacja elementu ceramicznego nie jest dostępna. Założenia dotyczące materiałów opierają się na widocznych cechach.
+**Dimensions:**  
+Wymiary podane w metadanych wskazują na wysokość 70 mm, szerokość 60 mm i głębokość 120 mm przy podniesionych uchwytach. Waga wynosi 0,7 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarza 1/1997/0474 01.
+- Odniesienia literaturowe: Not available.
+- Zasoby internetowe: Not available.
+---
+### French Version
+**Object Title / Type:**  
+Fer à repasser électrique AEG AG, Nr. 1/1997/0474 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un fer à repasser électrique fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG) en 1923. Le design présente un corps compact et arrondi avec une finition métallique polie, caractéristique de l'esthétique industrielle du début du XXe siècle. Le fer est équipé d'une poignée noire texturée, enveloppée d'un matériau textile, offrant une prise tactile à l'utilisateur. La poignée est montée sur une base également métallique, affichant une surface lisse et réfléchissante.
+Visible sur les photographies, un cordon électrique enroulé est soigneusement enroulé autour de la base du fer, suggérant une considération de conception pour le rangement et la facilité d'utilisation. La base a une forme circulaire avec un diamètre qui semble cohérent sur les images. Le dessus du fer présente un motif circulaire en relief, probablement destiné à des fins esthétiques et fonctionnelles, peut-être pour améliorer la prise ou la répartition de la chaleur.
+La construction du fer comprend des matériaux métalliques et textiles, la base étant probablement en acier poli et la poignée étant enveloppée d'un revêtement textile. La présence d'un élément en céramique est notée dans les métadonnées, bien que son emplacement spécifique dans le fer ne soit pas discernable à partir des images. L'état général du fer semble être bien conservé, sans signes visibles d'usure significative ou de modifications, bien que le cordon électrique puisse ne pas être d'origine, car il montre des signes de vieillissement.
+**Material / Technique:**  
+Les matériaux identifiés comprennent le métal (probablement en acier poli), le textile (utilisé pour la poignée) et la céramique (selon les métadonnées). L'emplacement spécifique de l'élément en céramique n'est pas disponible. Les hypothèses concernant les matériaux sont basées sur des caractéristiques visibles.
+**Dimensions:**  
+Les dimensions fournies dans les métadonnées indiquent une hauteur de 70 mm, une largeur de 60 mm et une profondeur de 120 mm avec les poignées relevées. Le poids est enregistré à 0,7 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0474 01.
+- Références littéraires : Not available.
+- Ressources web : Not available.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Cooking Pot AEG, Nr. 1/1997/0475
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric cooking pot manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) in 1930, as indicated by the metadata. The pot features a cylindrical body made of nickel-plated brass, which is evident from the reflective surface visible in the photographs. The lid is also made of the same material and is topped with a wooden knob, providing a contrast to the metallic finish. The handle, which is affixed to the side of the pot, is made of wood, suggesting a design consideration for heat insulation, allowing for safe handling during operation.
+The pot has a distinctive outlet on the side, which is likely designed for steam release or for connecting to an electrical source, indicating its function as an electric cooking appliance. The presence of a voltage and wattage label on the base reads: "200/240 VOLT 300 WATT," confirming its electrical specifications. The overall design reflects the industrial aesthetics of the early 20th century, characterized by functional simplicity and utilitarian form.
+The condition of the object shows signs of wear consistent with age, including minor scratches and tarnishing on the surface, which is typical for metal objects of this era. There are no visible repairs or alterations, suggesting that the pot has been preserved in its original state. The absence of any inventory tags or collection stickers indicates that the provenance is not available.
+**Material / Technique:**  
+The primary materials identified are nickel-plated brass and wood. The nickel plating provides a protective layer against corrosion while enhancing the aesthetic appeal. The wooden handle is likely made from a hardwood, providing durability and a comfortable grip. Assumptions regarding other materials are not available.
+**Dimensions:**  
+The dimensions are provided in the metadata as Ø height: 120 x 150 mm. 
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0475.
+- No external sources found, description based on visual analysis of the photos.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Kochtopf AEG, Nr. 1/1997/0475
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein elektrischer Kochtopf, der 1930 von der Allgemeine Elektricitäts-Gesellschaft (AEG) hergestellt wurde, wie in den Metadaten angegeben. Der Topf hat einen zylindrischen Körper aus vernickeltem Messing, was sich in der reflektierenden Oberfläche in den Fotografien zeigt. Der Deckel besteht ebenfalls aus demselben Material und ist mit einem Holzknopf versehen, der einen Kontrast zur metallischen Oberfläche bietet. Der Griff, der an der Seite des Topfes angebracht ist, besteht aus Holz, was auf eine Designüberlegung zur Wärmeisolierung hinweist und ein sicheres Handling während des Betriebs ermöglicht.
+Der Topf hat einen charakteristischen Auslass an der Seite, der wahrscheinlich für die Dampfabgabe oder den Anschluss an eine Stromquelle gedacht ist, was seine Funktion als elektrisches Kochgerät anzeigt. Die auf der Unterseite angebrachte Spannung- und Wattage-Bezeichnung lautet: "200/240 VOLT 300 WATT", was die elektrischen Spezifikationen bestätigt. Das Gesamtdesign spiegelt die industrielle Ästhetik des frühen 20. Jahrhunderts wider, die durch funktionale Einfachheit und utilitaristische Form gekennzeichnet ist.
+Der Zustand des Objekts zeigt Alterserscheinungen wie kleine Kratzer und Anlaufen der Oberfläche, was für Metallobjekte dieser Epoche typisch ist. Es sind keine sichtbaren Reparaturen oder Veränderungen vorhanden, was darauf hindeutet, dass der Topf in seinem ursprünglichen Zustand erhalten geblieben ist. Das Fehlen von Inventaretiketten oder Sammlungsaufklebern deutet darauf hin, dass die Provenienz nicht verfügbar ist.
+**Material / Technique:**  
+Die identifizierten Hauptmaterialien sind vernickeltes Messing und Holz. Die Nickelbeschichtung bietet eine Schutzschicht gegen Korrosion und verbessert die ästhetische Anziehungskraft. Der Holzgriff besteht wahrscheinlich aus einem Hartholz, das Haltbarkeit und einen bequemen Griff bietet. Annahmen zu anderen Materialien sind nicht verfügbar.
+**Dimensions:**  
+Die Abmessungen sind in den Metadaten mit Ø Höhe: 120 x 150 mm angegeben.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0475.
 - Keine externen Quellen gefunden, Beschreibung basiert auf visueller Analyse der Fotos.
 ---
 ### Polish Version
 **Object Title / Type:**  
-Czajnik elektryczny, Nr. 1-1997-0466-000-000
-**Source Availability Statement:**  
-Nie znaleziono opisu online. Wpis stworzony na podstawie metadanych i analizy zdjęć.
-**Description:**  
-Obiekt to czajnik elektryczny charakteryzujący się polerowanym metalowym korpusem, który odbija światło i ukazuje gładką, zaokrągloną formę. Czajnik ma wyraźny dzióbek oraz zakrzywiony uchwyt wykonany z czarnego materiału, prawdopodobnie Bakelitu, który jest powszechny w urządzeniach kuchennych z połowy XX wieku. Pokrywka jest kopułowata i zwieńczona małym czarnym finialem, co zwiększa jej estetyczną atrakcyjność. Podstawa czajnika jest nieco szersza, co zapewnia stabilność, a także wyposażona jest w małe nóżki, które podnoszą go nad powierzchnię.
-Widoczne napisy obejmują okrągłą płytkę na podstawie, która prawdopodobnie jest znakiem producenta, ale szczegóły nie są widoczne na zdjęciach. Projekt czajnika sugeruje, że był przeznaczony do użytku domowego, odzwierciedlając estetykę nowoczesności z połowy wieku, która podkreślała zarówno funkcjonalność, jak i styl. Obecność wyjmowanego sitka, widocznego na jednym ze zdjęć, wskazuje, że ten czajnik został zaprojektowany do parzenia herbaty, umożliwiając zatrzymanie luźnych liści podczas nalewania.
-Stan czajnika wydaje się dobry, z drobnymi rysami na powierzchni, które są zgodne z wiekiem i użytkowaniem. Nie ma widocznych oznak znacznego zużycia ani napraw, co sugeruje, że był dobrze utrzymywany. Całkowity projekt i materiały wskazują, że ten czajnik prawdopodobnie pochodzi z połowy XX wieku, co jest zgodne z rozwojem elektrycznych urządzeń kuchennych w tym okresie [założenie oparte na stylu projektowania].
-**Material / Technique:**  
-Czajnik wykonany jest głównie z polerowanego metalu, prawdopodobnie ze stali nierdzewnej, z czarnym uchwytem, który wydaje się być Bakelitem. Szczegółowe materiały wewnętrznych komponentów są niedostępne.
-**Dimensions:**  
+Elektromagnetyczny garnek AEG, Nr. 1/1997/0475
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to elektryczny garnek do gotowania wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG) w 1930 roku, co wskazują metadane. Garnek ma cylindryczne ciało wykonane z mosiądzu pokrytego niklem, co jest widoczne na odbijającej się powierzchni na fotografiach. Pokrywka również wykonana jest z tego samego materiału i ma drewniany uchwyt, co stanowi kontrast do metalicznego wykończenia. Uchwyt, przymocowany do boku garnka, wykonany jest z drewna, co sugeruje rozważenie projektowe dotyczące izolacji cieplnej, umożliwiając bezpieczne użytkowanie podczas pracy.
+Garnek ma charakterystyczny wylot z boku, który prawdopodobnie służy do uwalniania pary lub do podłączenia do źródła zasilania, co wskazuje na jego funkcję jako elektrycznego urządzenia do gotowania. Na podstawie etykiety z napięciem i mocą na spodzie widnieje napis: "200/240 VOLT 300 WATT", co potwierdza jego specyfikacje elektryczne. Ogólny design odzwierciedla przemysłową estetykę wczesnego XX wieku, charakteryzującą się funkcjonalną prostotą i użytkowym kształtem.
+Stan obiektu wykazuje oznaki zużycia typowe dla wieku, w tym drobne zarysowania i matowienie powierzchni, co jest typowe dla metalowych obiektów z tej epoki. Nie widać żadnych napraw ani zmian, co sugeruje, że garnek zachował się w swoim oryginalnym stanie. Brak jakichkolwiek etykiet inwentarzowych lub naklejek kolekcjonerskich wskazuje, że pochodzenie nie jest dostępne.
+**Material / Technique:**  
+Główne materiały to mosiądz pokryty niklem i drewno. Powłoka niklowa zapewnia ochronną warstwę przed korozją, jednocześnie poprawiając estetykę. Uchwyt drewniany prawdopodobnie wykonany jest z twardego drewna, co zapewnia trwałość i wygodny chwyt. Założenia dotyczące innych materiałów są niedostępne.
+**Dimensions:**  
+Wymiary podano w metadanych jako Ø wysokość: 120 x 150 mm.
+**Provenance / Ownership history:**  
 Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarza 1/1997/0475.
+- Nie znaleziono źródeł zewnętrznych, opis oparty na analizie wizualnej zdjęć.
+---
+### French Version
+**Object Title / Type:**  
+Casserole électrique AEG, Nr. 1/1997/0475
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est une casserole électrique fabriquée par Allgemeine Elektricitäts-Gesellschaft (AEG) en 1930, comme l'indiquent les métadonnées. La casserole présente un corps cylindrique en laiton nickelé, ce qui est évident par la surface réfléchissante visible sur les photographies. Le couvercle est également fabriqué dans le même matériau et est surmonté d'un bouton en bois, offrant un contraste avec la finition métallique. La poignée, fixée sur le côté de la casserole, est en bois, suggérant une considération de conception pour l'isolation thermique, permettant une manipulation sécurisée pendant l'utilisation.
+La casserole possède un orifice distinctif sur le côté, probablement conçu pour l'évacuation de la vapeur ou pour se connecter à une source électrique, indiquant sa fonction en tant qu'appareil de cuisson électrique. La présence d'une étiquette de tension et de puissance sur la base indique : "200/240 VOLT 300 WATT", confirmant ses spécifications électriques. Le design global reflète l'esthétique industrielle du début du XXe siècle, caractérisée par une simplicité fonctionnelle et une forme utilitaire.
+L'état de l'objet montre des signes d'usure cohérents avec son âge, y compris de petites rayures et un ternissement de la surface, ce qui est typique pour les objets métalliques de cette époque. Aucune réparation ou modification visible n'est présente, suggérant que la casserole a été préservée dans son état d'origine. L'absence d'étiquettes d'inventaire ou d'autocollants de collection indique que la provenance n'est pas disponible.
+**Material / Technique:**  
+Les matériaux principaux identifiés sont le laiton nickelé et le bois. Le placage en nickel fournit une couche protectrice contre la corrosion tout en améliorant l'attrait esthétique. La poignée en bois est probablement en bois dur, offrant durabilité et confort. Les hypothèses concernant d'autres matériaux ne sont pas disponibles.
+**Dimensions:**  
+Les dimensions sont fournies dans les métadonnées comme Ø hauteur : 120 x 150 mm.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0475.
+- Aucune source externe trouvée, description basée sur l'analyse visuelle des photos.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Hair Dryer AEG [Model Identifier], Nr. 1/1997/0476
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric hair dryer manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) in 1939, as indicated in the metadata. The design features a distinctive metallic body with a polished chrome finish, which is characteristic of the era's aesthetic. The dryer has a curved nozzle that allows for focused airflow, enhancing its functionality. The front of the device is adorned with a perforated grille, which serves both aesthetic and functional purposes, allowing for heat dissipation while preventing hair from entering the mechanism.
+The handle is made of black plastic, providing a contrast to the shiny metal body. A switch is integrated into the handle, allowing users to toggle between heat settings, although the specific settings are not visible in the photos. The power cord is wrapped neatly, indicating careful design consideration for storage and usability. The overall dimensions of the object, as per the metadata, are approximately 80 mm in height, 190 mm in width, and 200 mm in depth, with a weight of 0.74 kg.
+In terms of historical context, this hair dryer represents a significant advancement in personal grooming technology during the late 1930s, a period marked by rapid industrialization and the rise of consumer electronics. AEG was a pioneer in electrical appliances, and this model likely contributed to the company's reputation for quality and innovation in household products. The design philosophy of the time emphasized both functionality and style, which is evident in this object.
+**Material / Technique:**  
+The hair dryer is constructed from metal and plastic, with textile components visible in the power cord. The specific type of metal is not identified, but it appears to be a polished steel or chrome finish. The handle is made of black plastic, while the cord is wrapped in a textile material. Assumptions about additional materials are not available.
+**Dimensions:**  
+Object dimensions are provided as 80 mm (H) x 190 mm (W) x 200 mm (D). The weight is 0.74 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0476.
+- Literature references: Schmitz, Silvia, and Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Haartrockner AEG [Modellbezeichnung], Nr. 1/1997/0476
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein elektrischer Haartrockner, hergestellt von der Allgemeinen Elektricitäts-Gesellschaft (AEG) im Jahr 1939, wie in den Metadaten angegeben. Das Design zeichnet sich durch einen markanten Metallkörper mit polierter Chromoberfläche aus, was charakteristisch für die Ästhetik dieser Zeit ist. Der Haartrockner verfügt über eine gebogene Düse, die einen fokussierten Luftstrom ermöglicht und somit die Funktionalität verbessert. Die Vorderseite des Geräts ist mit einem perforierten Gitter verziert, das sowohl ästhetische als auch funktionale Zwecke erfüllt, indem es eine Wärmeabfuhr ermöglicht und gleichzeitig verhindert, dass Haare in den Mechanismus gelangen.
+Der Griff besteht aus schwarzem Kunststoff, was einen Kontrast zum glänzenden Metallkörper bietet. Ein Schalter ist in den Griff integriert, der es den Benutzern ermöglicht, zwischen den Temperatureinstellungen zu wechseln, obwohl die spezifischen Einstellungen auf den Fotos nicht sichtbar sind. Das Netzkabel ist ordentlich gewickelt, was auf eine durchdachte Gestaltung für die Aufbewahrung und Benutzerfreundlichkeit hinweist. Die Gesamtabmessungen des Objekts betragen laut Metadaten etwa 80 mm Höhe, 190 mm Breite und 200 mm Tiefe, mit einem Gewicht von 0,74 kg.
+In Bezug auf den historischen Kontext stellt dieser Haartrockner einen bedeutenden Fortschritt in der Technologie der Körperpflege in den späten 1930er Jahren dar, einer Zeit, die von schneller Industrialisierung und dem Aufstieg der Unterhaltungselektronik geprägt war. AEG war ein Pionier im Bereich elektrischer Geräte, und dieses Modell trug wahrscheinlich zur Reputation des Unternehmens für Qualität und Innovation bei Haushaltsprodukten bei. Die Designphilosophie dieser Zeit betonte sowohl Funktionalität als auch Stil, was in diesem Objekt deutlich wird.
+**Material / Technik:**  
+Der Haartrockner besteht aus Metall und Kunststoff, wobei textile Komponenten im Netzkabel sichtbar sind. Der spezifische Metalltyp ist nicht identifiziert, scheint jedoch eine polierte Stahl- oder Chromoberfläche zu sein. Der Griff besteht aus schwarzem Kunststoff, während das Kabel in einem textilen Material gewickelt ist. Annahmen über zusätzliche Materialien sind nicht verfügbar.
+**Dimensions:**  
+Die Objektmaße sind mit 80 mm (H) x 190 mm (B) x 200 mm (T) angegeben. Das Gewicht beträgt 0,74 kg.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0476.
+- Literaturverweise: Schmitz, Silvia, und Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.
+- Web-Ressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Suszarka elektryczna AEG [Model identyfikacyjny], Nr. 1/1997/0476
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to elektryczna suszarka do włosów wyprodukowana przez Allgemeine Elektricitäts-Gesellschaft (AEG) w 1939 roku, co wskazują metadane. Projekt charakteryzuje się wyraźnym metalowym korpusem z polerowaną chromowaną powierzchnią, co jest typowe dla estetyki tamtej epoki. Suszarka ma zakrzywioną dyszę, która umożliwia skoncentrowany przepływ powietrza, co zwiększa jej funkcjonalność. Przód urządzenia zdobi perforowana siatka, która pełni zarówno estetyczną, jak i funkcjonalną rolę, umożliwiając odprowadzanie ciepła i zapobiegając dostawaniu się włosów do mechanizmu.
+Uchwyt wykonany jest z czarnego plastiku, co kontrastuje z błyszczącym metalowym korpusem. W uchwycie zintegrowany jest przełącznik, który pozwala użytkownikom przełączać między ustawieniami temperatury, chociaż konkretne ustawienia nie są widoczne na zdjęciach. Kabel zasilający jest starannie owinięty, co wskazuje na przemyślane rozwiązania dotyczące przechowywania i użyteczności. Całkowite wymiary obiektu, zgodnie z metadanymi, wynoszą około 80 mm wysokości, 190 mm szerokości i 200 mm głębokości, a waga wynosi 0,74 kg.
+W kontekście historycznym ta suszarka do włosów reprezentuje znaczący postęp w technologii pielęgnacji osobistej w późnych latach 30. XX wieku, okresie charakteryzującym się szybką industrializacją i wzrostem elektroniki użytkowej. AEG była pionierem w produkcji urządzeń elektrycznych, a ten model prawdopodobnie przyczynił się do reputacji firmy jako producenta wysokiej jakości i innowacyjnych produktów gospodarstwa domowego. Filozofia projektowania tamtych czasów kładła nacisk zarówno na funkcjonalność, jak i styl, co jest widoczne w tym obiekcie.
+**Material / Technique:**  
+Suszarka wykonana jest z metalu i plastiku, a w kablu zasilającym widoczne są komponenty tekstylne. Konkretnego typu metalu nie zidentyfikowano, ale wydaje się, że jest to polerowana stal lub chrom. Uchwyt wykonany jest z czarnego plastiku, a kabel owinięty jest w materiał tekstylny. Założenia dotyczące dodatkowych materiałów są niedostępne.
+**Dimensions:**  
+Wymiary obiektu podano jako 80 mm (W) x 190 mm (S) x 200 mm (G). Waga wynosi 0,74 kg.
 **Provenance / Ownership history:**  
 Nie dostępne.
 **Links / Sources:**  
-- Podstawowe metadane muzealne: 1-1997-0466-000-000  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0476.
+- Odniesienia literaturowe: Schmitz, Silvia, i Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.
+- Zasoby internetowe: Niedostępne.
+---
+### French Version
+**Object Title / Type:**  
+Sèche-cheveux électrique AEG [Identifiant du modèle], Nr. 1/1997/0476
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un sèche-cheveux électrique fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG) en 1939, comme indiqué dans les métadonnées. Le design présente un corps métallique distinctif avec une finition chromée polie, caractéristique de l'esthétique de l'époque. Le sèche-cheveux dispose d'un embout incurvé qui permet un flux d'air concentré, améliorant ainsi sa fonctionnalité. L'avant de l'appareil est orné d'une grille perforée, qui remplit à la fois des fonctions esthétiques et fonctionnelles, permettant la dissipation de la chaleur tout en empêchant les cheveux d'entrer dans le mécanisme.
+La poignée est en plastique noir, offrant un contraste avec le corps métallique brillant. Un interrupteur est intégré à la poignée, permettant aux utilisateurs de basculer entre les réglages de chaleur, bien que les réglages spécifiques ne soient pas visibles sur les photos. Le cordon d'alimentation est soigneusement enroulé, indiquant une attention particulière portée à la conception pour le rangement et l'utilisation. Les dimensions globales de l'objet, selon les métadonnées, sont d'environ 80 mm de hauteur, 190 mm de largeur et 200 mm de profondeur, avec un poids de 0,74 kg.
+En termes de contexte historique, ce sèche-cheveux représente une avancée significative dans la technologie des soins personnels à la fin des années 1930, une période marquée par une industrialisation rapide et l'essor de l'électronique grand public. AEG était un pionnier des appareils électriques, et ce modèle a probablement contribué à la réputation de l'entreprise pour sa qualité et son innovation dans les produits ménagers. La philosophie de design de l'époque mettait l'accent sur la fonctionnalité et le style, ce qui est évident dans cet objet.
+**Material / Technique:**  
+Le sèche-cheveux est construit en métal et en plastique, avec des composants textiles visibles dans le cordon d'alimentation. Le type de métal spécifique n'est pas identifié, mais il semble s'agir d'une finition en acier poli ou en chrome. La poignée est en plastique noir, tandis que le cordon est enroulé dans un matériau textile. Les hypothèses concernant des matériaux supplémentaires ne sont pas disponibles.
+**Dimensions:**  
+Les dimensions de l'objet sont fournies comme 80 mm (H) x 190 mm (L) x 200 mm (P). Le poids est de 0,74 kg.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0476.
+- Références littéraires : Schmitz, Silvia, et Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe : Quensen, 2007.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Kitchen Appliance AEG [Function/identifier], Nr. 1/1997/0477
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a kitchen appliance manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), likely produced around 1926 (assumption based on metadata). The appliance features a compact, rectangular body made predominantly of white porcelain, which is complemented by metallic components, including a stainless steel outlet. The design is characterized by its smooth, glossy finish, indicative of the era's aesthetic preferences for clean lines and functional forms.
+The appliance is equipped with two wooden handles, which are ergonomically designed for ease of use. These handles are attached to a mechanism that likely serves a specific function, possibly related to food preparation or processing. The front of the appliance displays a series of small ventilation holes, suggesting that it may have been designed to dissipate heat during operation, a common feature in appliances of this period.
+In terms of condition, the object appears to be well-preserved, with no visible signs of significant wear or alterations. However, minor surface blemishes are present, which may be attributed to age. The presence of the AEG logo on the side of the appliance further authenticates its provenance and connects it to the broader history of electrical appliances in the early 20th century.
+The significance of this object lies in its representation of the technological advancements in kitchen appliances during the interwar period. AEG was known for its innovative designs and contributions to domestic technology, and this appliance exemplifies the company's commitment to quality and functionality. The design philosophy of the time emphasized not only utility but also aesthetic appeal, which is evident in this object.
+**Material / Technique:**  
+The primary materials identified are porcelain and metal, specifically stainless steel for the outlet. The handles are made of wood. Assumptions regarding additional materials are not available.
+**Dimensions:**  
+Object dimensions are recorded as approximately 260 x 70 x 100 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0477.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Küchengerät AEG [Funktion/Identifier], Nr. 1/1997/0477
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein Küchengerät, das von der Allgemeine Elektricitäts-Gesellschaft (AEG) hergestellt wurde, wahrscheinlich um 1926 (Annahme basierend auf Metadaten). Das Gerät hat einen kompakten, rechteckigen Körper, der überwiegend aus weißem Porzellan besteht und durch metallische Komponenten, einschließlich eines Edelstahl-Auslasses, ergänzt wird. Das Design zeichnet sich durch seine glatte, glänzende Oberfläche aus, die die ästhetischen Vorlieben der damaligen Zeit für klare Linien und funktionale Formen widerspiegelt.
+Das Gerät ist mit zwei Holzgriffen ausgestattet, die ergonomisch gestaltet sind, um die Handhabung zu erleichtern. Diese Griffe sind mit einem Mechanismus verbunden, der wahrscheinlich eine spezifische Funktion hat, möglicherweise im Zusammenhang mit der Lebensmittelzubereitung oder -verarbeitung. An der Vorderseite des Geräts sind eine Reihe kleiner Belüftungsöffnungen zu sehen, was darauf hindeutet, dass es möglicherweise zur Wärmeableitung während des Betriebs konzipiert wurde, ein häufiges Merkmal von Geräten dieser Zeit.
+In Bezug auf den Zustand scheint das Objekt gut erhalten zu sein, ohne sichtbare Anzeichen von erheblichem Verschleiß oder Veränderungen. Allerdings sind kleinere Oberflächenfehler vorhanden, die auf das Alter zurückzuführen sein könnten. Das Vorhandensein des AEG-Logos an der Seite des Geräts authentifiziert dessen Provenienz und verbindet es mit der breiteren Geschichte elektrischer Geräte im frühen 20. Jahrhundert.
+Die Bedeutung dieses Objekts liegt in seiner Repräsentation der technologischen Fortschritte bei Küchengeräten während der Zwischenkriegszeit. AEG war bekannt für seine innovativen Designs und Beiträge zur Haustechnik, und dieses Gerät exemplifiziert das Engagement des Unternehmens für Qualität und Funktionalität. Die Designphilosophie der Zeit betonte nicht nur die Nützlichkeit, sondern auch die ästhetische Anziehungskraft, die in diesem Objekt deutlich wird.
+**Material / Technik:**  
+Die identifizierten Hauptmaterialien sind Porzellan und Metall, insbesondere Edelstahl für den Auslass. Die Griffe bestehen aus Holz. Annahmen bezüglich zusätzlicher Materialien sind nicht verfügbar.
+**Dimensions:**  
+Die Objektmaße sind mit ca. 260 x 70 x 100 mm (Metadaten) angegeben.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0477.
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Urządzenie kuchenne AEG [Funkcja/identyfikator], Nr. 1/1997/0477
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt jest urządzeniem kuchennym wyprodukowanym przez Allgemeine Elektricitäts-Gesellschaft (AEG), prawdopodobnie wyprodukowanym około 1926 roku (założenie na podstawie metadanych). Urządzenie ma kompaktowy, prostokątny kształt, wykonane głównie z białej porcelany, uzupełnione metalowymi elementami, w tym stalowym wyjściem. Projekt charakteryzuje się gładką, błyszczącą powierzchnią, co wskazuje na estetyczne preferencje epoki dla czystych linii i funkcjonalnych form.
+Urządzenie wyposażone jest w dwa drewniane uchwyty, które są ergonomicznie zaprojektowane dla łatwości użytkowania. Uchwyty te są połączone z mechanizmem, który prawdopodobnie pełni określoną funkcję, być może związaną z przygotowaniem lub przetwarzaniem żywności. Z przodu urządzenia widoczne są małe otwory wentylacyjne, co sugeruje, że mogło być zaprojektowane do odprowadzania ciepła podczas pracy, co jest powszechną cechą urządzeń z tego okresu.
+Jeśli chodzi o stan, obiekt wydaje się być dobrze zachowany, bez widocznych oznak znacznego zużycia lub zmian. Jednakże, na powierzchni występują drobne niedoskonałości, które mogą być przypisane wiekowi. Obecność logo AEG na boku urządzenia dodatkowo autoryzuje jego pochodzenie i łączy je z szerszą historią urządzeń elektrycznych z początku XX wieku.
+Znaczenie tego obiektu polega na jego reprezentacji postępów technologicznych w urządzeniach kuchennych w okresie międzywojennym. AEG była znana z innowacyjnych projektów i wkładu w technologię domową, a to urządzenie ilustruje zaangażowanie firmy w jakość i funkcjonalność. Filozofia projektowania tego okresu podkreślała nie tylko użyteczność, ale także atrakcyjność estetyczną, co jest widoczne w tym obiekcie.
+**Material / Technique:**  
+Główne materiały to porcelana i metal, w szczególności stal nierdzewna dla wyjścia. Uchwyty wykonane są z drewna. Założenia dotyczące dodatkowych materiałów są niedostępne.
+**Dimensions:**  
+Wymiary obiektu podano jako około 260 x 70 x 100 mm (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0477.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Appareil de cuisine AEG [Fonction/identifiant], Nr. 1/1997/0477
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un appareil de cuisine fabriqué par l'Allgemeine Elektricitäts-Gesellschaft (AEG), probablement produit vers 1926 (hypothèse basée sur les métadonnées). L'appareil présente un corps rectangulaire compact, principalement en porcelaine blanche, complété par des composants métalliques, y compris une sortie en acier inoxydable. Le design est caractérisé par sa finition lisse et brillante, indicative des préférences esthétiques de l'époque pour des lignes épurées et des formes fonctionnelles.
+L'appareil est équipé de deux poignées en bois, ergonomiquement conçues pour faciliter son utilisation. Ces poignées sont reliées à un mécanisme qui remplit probablement une fonction spécifique, peut-être liée à la préparation ou au traitement des aliments. À l'avant de l'appareil, une série de petits trous de ventilation est visible, suggérant qu'il a été conçu pour dissiper la chaleur pendant son fonctionnement, une caractéristique courante des appareils de cette période.
+En termes d'état, l'objet semble être bien conservé, sans signes visibles d'usure significative ou de modifications. Cependant, de légères imperfections de surface sont présentes, ce qui peut être attribué à l'âge. La présence du logo AEG sur le côté de l'appareil authentifie davantage sa provenance et le relie à l'histoire plus large des appareils électriques au début du XXe siècle.
+La signification de cet objet réside dans sa représentation des avancées technologiques dans les appareils de cuisine pendant l'entre-deux-guerres. AEG était connue pour ses conceptions innovantes et ses contributions à la technologie domestique, et cet appareil illustre l'engagement de l'entreprise envers la qualité et la fonctionnalité. La philosophie de design de l'époque mettait l'accent non seulement sur l'utilité, mais aussi sur l'attrait esthétique, ce qui est évident dans cet objet.
+**Material / Technique:**  
+Les matériaux principaux identifiés sont la porcelaine et le métal, en particulier l'acier inoxydable pour la sortie. Les poignées sont en bois. Les hypothèses concernant des matériaux supplémentaires ne sont pas disponibles.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme étant d'environ 260 x 70 x 100 mm (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées muséales primaires : Numéro d'inventaire 1/1997/0477.
+- Références littéraires : Non disponible.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**
+Miniature Iron AEG, Nr. 1/1997/0483 0
+**Source Availability Statement:**
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**
+The object is a miniature iron manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) around 1930. This small appliance, likely intended as a promotional item or gift, features a polished metallic body with a distinctive curved shape, characteristic of early 20th-century design. The handle is made of black-painted wood, providing a contrast to the shiny metal surface. 
+Visible in the photographs, the iron has a small brass valve and a key mechanism, suggesting it may have been designed to accommodate steam or other heating methods, although specific operational details are not provided. The base of the iron is slightly rounded, which would facilitate smooth gliding over fabric surfaces. The presence of a fabric strap attached to the base indicates a potential for hanging or storage, although its original purpose remains unclear.
+The object is in good condition, with minimal visible wear. The metallic surface shows some signs of tarnishing, which is typical for items of this age. There are no indications of repairs or alterations, and all components appear to be original. The dimensions of the iron are approximately 75 mm in length, 40 mm in width, and 50 mm in height, with a weight of 0.13 kg (metadata). 
+This miniature iron reflects the industrial design trends of the 1930s, where functionality was often paired with aesthetic appeal. AEG, known for its innovative electrical appliances, played a significant role in the development of household technologies during this period, contributing to the modernization of domestic life.
+**Material / Technique:**
+The iron is constructed from metal, with a wooden handle and textile components. The specific type of metal is not identified, but it is likely a form of steel or aluminum based on the visual characteristics. Assumption: the textile component may be cotton or a similar fabric.
+**Dimensions:**
+Object dimensions are recorded as 75 mm (L) x 40 mm (W) x 50 mm (H). Weight is noted as 0.13 kg.
+**Provenance / Ownership history:**
+Not available.
+**Links / Sources:**
+- Primary museum metadata: Inventory number 1/1997/0483 0.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**
+Miniaturbügeleisen AEG, Nr. 1/1997/0483 0
+**Source Availability Statement:**
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**
+Das Objekt ist ein Miniaturbügeleisen, das um 1930 von der Allgemeinen Elektricitäts-Gesellschaft (AEG) hergestellt wurde. Dieses kleine Gerät, wahrscheinlich als Werbegeschenk oder Geschenk gedacht, weist einen polierten Metallkörper mit einer charakteristischen geschwungenen Form auf, die für das frühe 20. Jahrhundert typisch ist. Der Griff besteht aus schwarz lackiertem Holz, was einen Kontrast zur glänzenden Metalloberfläche bietet.
+In den Fotografien sichtbar, hat das Bügeleisen ein kleines Messingventil und einen Schlüsselmechanismus, was darauf hindeutet, dass es möglicherweise für Dampf oder andere Heizmethoden konzipiert wurde, obwohl spezifische Betriebsdetails nicht angegeben sind. Die Basis des Bügeleisens ist leicht abgerundet, was ein sanftes Gleiten über Stoffoberflächen erleichtert. Das Vorhandensein eines Stoffriemens, der an der Basis befestigt ist, deutet auf eine mögliche Aufhängung oder Lagerung hin, obwohl der ursprüngliche Zweck unklar bleibt.
+Das Objekt ist in gutem Zustand, mit minimalen sichtbaren Abnutzungserscheinungen. Die Metalloberfläche zeigt einige Anzeichen von Anlaufen, was für Gegenstände dieses Alters typisch ist. Es gibt keine Hinweise auf Reparaturen oder Änderungen, und alle Komponenten scheinen original zu sein. Die Abmessungen des Bügeleisens betragen etwa 75 mm in der Länge, 40 mm in der Breite und 50 mm in der Höhe, mit einem Gewicht von 0,13 kg (Metadaten).
+Dieses Miniaturbügeleisen spiegelt die Industriedesign-Trends der 1930er Jahre wider, in denen Funktionalität oft mit ästhetischem Reiz kombiniert wurde. AEG, bekannt für seine innovativen Elektrogeräte, spielte eine bedeutende Rolle bei der Entwicklung von Haushalts-Technologien in dieser Zeit und trug zur Modernisierung des häuslichen Lebens bei.
+**Material / Technik:**
+Das Bügeleisen besteht aus Metall, mit einem Holzgriff und textilen Komponenten. Der spezifische Metalltyp ist nicht identifiziert, es handelt sich jedoch wahrscheinlich um eine Form von Stahl oder Aluminium, basierend auf den visuellen Eigenschaften. Annahme: Die textile Komponente könnte aus Baumwolle oder einem ähnlichen Stoff bestehen.
+**Dimensions:**
+Die Objektmaße sind mit 75 mm (L) x 40 mm (B) x 50 mm (H) verzeichnet. Das Gewicht beträgt 0,13 kg.
+**Provenance / Ownership history:**
+Not available.
+**Links / Sources:**
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0483 0.
+- Literaturverweise: Not available.
+- Webressourcen: Not available.
+---
+### Polish Version
+**Object Title / Type:**
+Miniaturowe Żelazko AEG, Nr. 1/1997/0483 0
+**Source Availability Statement:**
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**
+Obiekt to miniaturowe żelazko wyprodukowane przez Allgemeine Elektricitäts-Gesellschaft (AEG) około 1930 roku. To małe urządzenie, prawdopodobnie przeznaczone jako przedmiot promocyjny lub prezent, ma wypolerowaną metalową obudowę o charakterystycznym, zakrzywionym kształcie, typowym dla wczesnego XX wieku. Uchwyt wykonany jest z drewna malowanego na czarno, co kontrastuje z błyszczącą metalową powierzchnią.
+Widoczne na fotografiach, żelazko ma mały mosiężny zawór i mechanizm klucza, co sugeruje, że mogło być zaprojektowane do obsługi pary lub innych metod grzewczych, chociaż szczegółowe informacje operacyjne nie są podane. Podstawa żelazka jest lekko zaokrąglona, co ułatwia gładkie przesuwanie po powierzchniach tkanin. Obecność materiałowego paska przymocowanego do podstawy wskazuje na możliwość zawieszenia lub przechowywania, chociaż jego pierwotny cel pozostaje niejasny.
+Obiekt jest w dobrym stanie, z minimalnymi widocznymi śladami zużycia. Powierzchnia metalowa wykazuje pewne oznaki matowienia, co jest typowe dla przedmiotów w tym wieku. Nie ma oznak napraw lub zmian, a wszystkie komponenty wydają się być oryginalne. Wymiary żelazka wynoszą około 75 mm długości, 40 mm szerokości i 50 mm wysokości, a waga wynosi 0,13 kg (metadane).
+To miniaturowe żelazko odzwierciedla trendy w projektowaniu przemysłowym lat 30. XX wieku, gdzie funkcjonalność często łączono z estetycznym wyglądem. AEG, znane z innowacyjnych urządzeń elektrycznych, odegrało znaczącą rolę w rozwoju technologii domowych w tym okresie, przyczyniając się do modernizacji życia domowego.
+**Material / Technique:**
+Żelazko wykonane jest z metalu, z drewnianym uchwytem i komponentami tekstylnymi. Konkretnego typu metalu nie zidentyfikowano, ale prawdopodobnie jest to forma stali lub aluminium na podstawie cech wizualnych. Założenie: komponent tekstylny może być wykonany z bawełny lub podobnego materiału.
+**Dimensions:**
+Wymiary obiektu są zapisane jako 75 mm (D) x 40 mm (S) x 50 mm (W). Waga wynosi 0,13 kg.
+**Provenance / Ownership history:**
+Not available.
+**Links / Sources:**
+- Podstawowe metadane muzealne: Numer inwentarza 1/1997/0483 0.
+- Odniesienia literaturowe: Not available.
+- Zasoby internetowe: Not available.
+---
+### French Version
+**Object Title / Type:**
+Fer à repasser miniature AEG, Nr. 1/1997/0483 0
+**Source Availability Statement:**
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**
+L'objet est un fer à repasser miniature fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG) vers 1930. Cet appareil de petite taille, probablement destiné comme article promotionnel ou cadeau, présente un corps métallique poli avec une forme courbée distinctive, caractéristique du design du début du XXe siècle. La poignée est en bois peint en noir, offrant un contraste avec la surface métallique brillante.
+Visible sur les photographies, le fer possède une petite valve en laiton et un mécanisme à clé, suggérant qu'il pourrait avoir été conçu pour accueillir de la vapeur ou d'autres méthodes de chauffage, bien que les détails opérationnels spécifiques ne soient pas fournis. La base du fer est légèrement arrondie, ce qui faciliterait le glissement sur les surfaces en tissu. La présence d'une sangle en tissu attachée à la base indique un potentiel de suspension ou de rangement, bien que son but original reste flou.
+L'objet est en bon état, avec peu de signes d'usure visibles. La surface métallique montre quelques signes de ternissement, ce qui est typique pour des objets de cet âge. Il n'y a aucune indication de réparations ou d'altérations, et tous les composants semblent être d'origine. Les dimensions du fer sont d'environ 75 mm de long, 40 mm de large et 50 mm de haut, avec un poids de 0,13 kg (métadonnées).
+Ce fer à repasser miniature reflète les tendances du design industriel des années 1930, où la fonctionnalité était souvent associée à l'attrait esthétique. AEG, connue pour ses appareils électriques innovants, a joué un rôle significatif dans le développement des technologies domestiques durant cette période, contribuant à la modernisation de la vie domestique.
+**Material / Technique:**
+Le fer est construit en métal, avec une poignée en bois et des composants textiles. Le type spécifique de métal n'est pas identifié, mais il s'agit probablement d'une forme d'acier ou d'aluminium en fonction des caractéristiques visuelles. Hypothèse : le composant textile pourrait être en coton ou un tissu similaire.
+**Dimensions:**
+Les dimensions de l'objet sont enregistrées comme 75 mm (L) x 40 mm (l) x 50 mm (H). Le poids est noté à 0,13 kg.
+**Provenance / Ownership history:**
+Not available.
+**Links / Sources:**
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0483 0.
+- Références littéraires : Not available.
+- Ressources web : Not available.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Fan AEG Model, Nr. 1/1997/0484 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric fan manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), likely produced around 1908 (metadata). The fan features a circular base with a height and diameter of approximately 250 mm, weighing 1.98 kg. The design reflects the industrial aesthetics of the early 20th century, characterized by a combination of functionality and elegance. The fan's body is predominantly painted black, with a brass cage surrounding the blades, which are made of brass as well. The blades are shaped in a slightly curved manner, optimizing airflow while maintaining a visually appealing form.
+The front of the fan displays the AEG logo prominently on a circular black background, indicating the brand's identity. The fan is equipped with a standard electrical cord, which appears to be original, although its condition shows signs of wear. The visible components include a metal base, brass blades, and a protective cage that enhances safety while allowing for efficient air circulation.
+This fan is emblematic of the technological advancements during the late 19th and early 20th centuries, a period marked by rapid industrialization and the introduction of electric appliances into everyday life. AEG, under the influence of designer Peter Behrens, played a significant role in shaping modern industrial design, emphasizing both aesthetic and functional qualities. The fan's design is a testament to the era's innovation, contrasting with earlier manual fans and showcasing the transition to electric-powered devices.
+**Material / Technique:**  
+The fan is constructed from painted steel, brass, and plastic, with the primary materials being metal (including cast iron and brass sheet), textile fabric, and plastic (metadata). The assumption is made that the protective cage is also made of brass.
+**Dimensions:**  
+Diameter and height: Ø 250 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0484 0.
+- Literature references: Buddensieg, Tilmann, and Henning Rogge. *Industriekultur: Peter Behrens und die AEG 1907-1914*. Berlin: Bebr. Mann Verlag, 1978, S. D156/D157.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektroventilator AEG Modell, Nr. 1/1997/0484 0
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein Elektroventilator, hergestellt von der Allgemeinen Elektricitäts-Gesellschaft (AEG), wahrscheinlich um 1908 produziert (Metadaten). Der Ventilator hat eine runde Basis mit einer Höhe und einem Durchmesser von etwa 250 mm und wiegt 1,98 kg. Das Design spiegelt die industrielle Ästhetik des frühen 20. Jahrhunderts wider, gekennzeichnet durch eine Kombination aus Funktionalität und Eleganz. Der Körper des Ventilators ist überwiegend schwarz lackiert, mit einem Messingkäfig, der die Blätter umgibt, die ebenfalls aus Messing bestehen. Die Blätter sind leicht gebogen, um den Luftstrom zu optimieren und gleichzeitig eine ansprechende Form zu bewahren.
+Die Vorderseite des Ventilators zeigt das AEG-Logo prominent auf einem runden schwarzen Hintergrund, was die Markenidentität anzeigt. Der Ventilator ist mit einem Standardstromkabel ausgestattet, das original zu sein scheint, obwohl der Zustand Abnutzungserscheinungen zeigt. Zu den sichtbaren Komponenten gehören eine Metallbasis, Messingblätter und ein Schutzkäfig, der die Sicherheit erhöht und gleichzeitig eine effiziente Luftzirkulation ermöglicht.
+Dieser Ventilator ist ein Symbol für die technologischen Fortschritte im späten 19. und frühen 20. Jahrhundert, einer Zeit, die durch rasche Industrialisierung und die Einführung elektrischer Geräte in den Alltag geprägt war. AEG, unter dem Einfluss des Designers Peter Behrens, spielte eine bedeutende Rolle bei der Gestaltung des modernen Industriedesigns, wobei sowohl ästhetische als auch funktionale Qualitäten betont wurden. Das Design des Ventilators ist ein Beweis für die Innovation dieser Ära, im Gegensatz zu früheren manuellen Ventilatoren und zeigt den Übergang zu elektrischen Geräten.
+**Material / Technique:**  
+Der Ventilator besteht aus lackiertem Stahl, Messing und Kunststoff, wobei die Hauptmaterialien Metall (einschließlich Gusseisen und Messingblech), Textilgewebe und Kunststoff sind (Metadaten). Es wird angenommen, dass der Schutzkäfig ebenfalls aus Messing besteht.
+**Dimensions:**  
+Durchmesser und Höhe: Ø 250 mm (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0484 0.
+- Literaturverweise: Buddensieg, Tilmann, und Henning Rogge. *Industriekultur: Peter Behrens und die AEG 1907-1914*. Berlin: Bebr. Mann Verlag, 1978, S. D156/D157.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Wentylator elektryczny AEG Model, Nr. 1/1997/0484 0
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to wentylator elektryczny wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG), prawdopodobnie wyprodukowany około 1908 roku (metadane). Wentylator ma okrągłą podstawę o wysokości i średnicy około 250 mm, ważącą 1,98 kg. Projekt odzwierciedla przemysłową estetykę początku XX wieku, charakteryzującą się połączeniem funkcjonalności i elegancji. Obudowa wentylatora jest przeważnie malowana na czarno, z mosiężną klatką otaczającą łopaty, które również wykonane są z mosiądzu. Łopaty mają lekko zakrzywiony kształt, co optymalizuje przepływ powietrza, zachowując jednocześnie atrakcyjną formę.
+Przód wentylatora wyraźnie pokazuje logo AEG na okrąłym czarnym tle, co wskazuje na tożsamość marki. Wentylator jest wyposażony w standardowy przewód elektryczny, który wydaje się być oryginalny, chociaż jego stan wykazuje oznaki zużycia. Wśród widocznych komponentów znajdują się metalowa podstawa, mosiężne łopaty i klatka ochronna, która zwiększa bezpieczeństwo, jednocześnie umożliwiając efektywną cyrkulację powietrza.
+Ten wentylator jest symbolem postępu technologicznego pod koniec XIX i na początku XX wieku, okresu charakteryzującego się szybkim uprzemysłowieniem i wprowadzeniem urządzeń elektrycznych do codziennego życia. AEG, pod wpływem projektanta Petera Behrensa, odegrało znaczącą rolę w kształtowaniu nowoczesnego designu przemysłowego, podkreślając zarówno estetyczne, jak i funkcjonalne cechy. Projekt wentylatora jest dowodem na innowacje tej epoki, w przeciwieństwie do wcześniejszych wentylatorów ręcznych, pokazując przejście do urządzeń zasilanych elektrycznie.
+**Material / Technique:**  
+Wentylator wykonany jest z malowanej stali, mosiądzu i plastiku, przy czym główne materiały to metal (w tym żeliwo i blacha mosiężna), tkanina tekstylna i plastik (metadane). Zakłada się, że klatka ochronna również wykonana jest z mosiądzu.
+**Dimensions:**  
+Średnica i wysokość: Ø 250 mm (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0484 0.
+- Odniesienia literaturowe: Buddensieg, Tilmann, i Henning Rogge. *Industriekultur: Peter Behrens und die AEG 1907-1914*. Berlin: Bebr. Mann Verlag, 1978, S. D156/D157.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Ventilateur électrique AEG Modèle, Nr. 1/1997/0484 0
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un ventilateur électrique fabriqué par l'Allgemeine Elektricitäts-Gesellschaft (AEG), probablement produit vers 1908 (métadonnées). Le ventilateur présente une base circulaire avec une hauteur et un diamètre d'environ 250 mm, pesant 1,98 kg. Le design reflète l'esthétique industrielle du début du XXe siècle, caractérisée par une combinaison de fonctionnalité et d'élégance. Le corps du ventilateur est principalement peint en noir, avec une cage en laiton entourant les pales, qui sont également en laiton. Les pales sont légèrement courbées, optimisant le flux d'air tout en maintenant une forme visuellement attrayante.
+L'avant du ventilateur affiche le logo AEG de manière proéminente sur un fond noir circulaire, indiquant l'identité de la marque. Le ventilateur est équipé d'un cordon électrique standard, qui semble être d'origine, bien que son état montre des signes d'usure. Les composants visibles comprennent une base en métal, des pales en laiton et une cage de protection qui améliore la sécurité tout en permettant une circulation d'air efficace.
+Ce ventilateur est emblématique des avancées technologiques à la fin du XIXe et au début du XXe siècle, une période marquée par une industrialisation rapide et l'introduction d'appareils électriques dans la vie quotidienne. AEG, sous l'influence du designer Peter Behrens, a joué un rôle significatif dans la formation du design industriel moderne, mettant l'accent sur des qualités esthétiques et fonctionnelles. Le design du ventilateur témoigne de l'innovation de l'époque, contrastant avec les ventilateurs manuels antérieurs et montrant la transition vers des appareils alimentés par l'électricité.
+**Material / Technique:**  
+Le ventilateur est construit en acier peint, en laiton et en plastique, les matériaux principaux étant le métal (y compris la fonte et la tôle en laiton), le tissu textile et le plastique (métadonnées). Il est supposé que la cage de protection est également en laiton.
+**Dimensions:**  
+Diamètre et hauteur : Ø 250 mm (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées muséales primaires : Numéro d'inventaire 1/1997/0484 0.
+- Références littéraires : Buddensieg, Tilmann, et Henning Rogge. *Industriekultur: Peter Behrens und die AEG 1907-1914*. Berlin : Bebr. Mann Verlag, 1978, S. D156/D157.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Cooking Appliance AEG, Nr. 1/1997/0488 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric cooking appliance manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG), likely produced around 1926 (metadata). The appliance features a circular cooking surface, which is made of a dark, possibly ceramic material, and is mounted on a metallic base. The overall design reflects the industrial aesthetic of the 1920s, characterized by functional simplicity and robust construction.
+The appliance is equipped with a handle made of black plastic or Bakelite, which shows visible wear, indicating frequent use. The metallic components appear to be nickel-plated brass, contributing to both durability and aesthetic appeal. The base of the appliance includes a connector for electrical power, suggesting that it operates on a standard voltage, likely 230V, as indicated by the visible inscription "230V 450W" on the appliance (visible in photos).
+The circular cooking surface is surrounded by a metallic rim, which is designed to facilitate even heat distribution. The handle is ergonomically shaped for ease of use, allowing the user to flip or rotate the cooking surface as needed. The overall condition of the appliance shows signs of wear, particularly on the handle and the cooking surface, which may have been subjected to high temperatures over time.
+In the context of the 1920s, this appliance represents the growing trend of electric cooking devices, which began to gain popularity in households as a result of advancements in electrical engineering and the increasing availability of electricity. AEG, as a pioneering company in electrical appliances, played a significant role in this transformation, contributing to the modernization of domestic cooking practices.
+**Material / Technique:**  
+The appliance is constructed from nickel-plated brass and possibly ceramic for the cooking surface. The handle is likely made of Bakelite or plastic. Assumption: the cooking surface may be ceramic based on its appearance.
+**Dimensions:**  
+Object dimensions are recorded as approximately 330 x 170 x 72 mm (metadata). Weight is noted as 0.6 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0488 0.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrisches Kochgerät AEG, Nr. 1/1997/0488 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein elektrisches Kochgerät, das von der Allgemeinen Elektricitäts-Gesellschaft (AEG) hergestellt wurde, vermutlich um 1926 (Metadaten). Das Gerät verfügt über eine kreisförmige Kochfläche, die aus einem dunklen, möglicherweise keramischen Material besteht und auf einem metallischen Sockel montiert ist. Das Gesamtdesign spiegelt die industrielle Ästhetik der 1920er Jahre wider, die durch funktionale Einfachheit und robuste Konstruktion gekennzeichnet ist.
+Das Gerät ist mit einem Griff aus schwarzem Kunststoff oder Bakelit ausgestattet, der sichtbare Abnutzungsspuren aufweist, was auf häufigen Gebrauch hinweist. Die metallischen Komponenten scheinen aus vernickeltem Messing zu bestehen, was sowohl zur Haltbarkeit als auch zur ästhetischen Anziehungskraft beiträgt. Die Unterseite des Geräts enthält einen Anschluss für elektrische Energie, was darauf hindeutet, dass es mit einer Standardspannung, wahrscheinlich 230V, betrieben wird, wie die sichtbare Inschrift "230V 450W" auf dem Gerät zeigt (sichtbar in den Fotos).
+Die kreisförmige Kochfläche ist von einem metallischen Rand umgeben, der dafür ausgelegt ist, eine gleichmäßige Wärmeverteilung zu gewährleisten. Der Griff ist ergonomisch geformt, um die Benutzung zu erleichtern, sodass der Benutzer die Kochfläche nach Bedarf wenden oder drehen kann. Der allgemeine Zustand des Geräts zeigt Abnutzungsspuren, insbesondere am Griff und an der Kochfläche, die im Laufe der Zeit hohen Temperaturen ausgesetzt gewesen sein könnten.
+Im Kontext der 1920er Jahre repräsentiert dieses Gerät den wachsenden Trend elektrischer Kochgeräte, die in Haushalten an Beliebtheit gewannen, bedingt durch Fortschritte in der Elektrotechnik und die zunehmende Verfügbarkeit von Elektrizität. AEG, als Pionierunternehmen im Bereich elektrischer Geräte, spielte eine bedeutende Rolle in dieser Transformation und trug zur Modernisierung der häuslichen Kochpraktiken bei.
+**Material / Technik:**  
+Das Gerät besteht aus vernickeltem Messing und möglicherweise Keramik für die Kochfläche. Der Griff ist wahrscheinlich aus Bakelit oder Kunststoff. Annahme: Die Kochfläche könnte keramisch sein, basierend auf ihrem Erscheinungsbild.
+**Dimensions:**  
+Die Objektmaße sind mit etwa 330 x 170 x 72 mm (Metadaten) angegeben. Das Gewicht beträgt 0,6 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0488 0.
+- Literaturverweise: Not available.
+- Webressourcen: Not available.
+---
+### Polish Version
+**Object Title / Type:**  
+Urządzenie elektryczne AEG, Nr. 1/1997/0488 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to urządzenie elektryczne wyprodukowane przez Allgemeine Elektricitäts-Gesellschaft (AEG), prawdopodobnie wyprodukowane około 1926 roku (metadane). Urządzenie ma okrągłą powierzchnię grzewczą, która wykonana jest z ciemnego, prawdopodobnie ceramicznego materiału, i jest zamontowana na metalowej podstawie. Ogólny design odzwierciedla przemysłową estetykę lat 20. XX wieku, charakteryzującą się funkcjonalną prostotą i solidną konstrukcją.
+Urządzenie wyposażone jest w uchwyt wykonany z czarnego plastiku lub bakelitu, który wykazuje widoczne ślady zużycia, co wskazuje na częste użytkowanie. Metalowe elementy wydają się być pokryte niklem, co przyczynia się zarówno do trwałości, jak i atrakcyjności estetycznej. Podstawa urządzenia zawiera złącze do zasilania elektrycznego, co sugeruje, że działa na standardowym napięciu, prawdopodobnie 230V, co wskazuje widoczna inskrypcja "230V 450W" na urządzeniu (widoczne na zdjęciach).
+Okrągła powierzchnia grzewcza otoczona jest metalowym brzegiem, który ma na celu zapewnienie równomiernego rozkładu ciepła. Uchwyt ma ergonomiczną formę, co ułatwia użytkowanie, pozwalając użytkownikowi na obracanie lub przechylanie powierzchni grzewczej w razie potrzeby. Ogólny stan urządzenia pokazuje oznaki zużycia, szczególnie na uchwycie i powierzchni grzewczej, które mogły być narażone na wysokie temperatury w czasie użytkowania.
+W kontekście lat 20. XX wieku to urządzenie reprezentuje rosnący trend elektrycznych urządzeń kuchennych, które zaczęły zyskiwać popularność w gospodarstwach domowych w wyniku postępów w inżynierii elektrycznej i coraz większej dostępności energii elektrycznej. AEG, jako pionierska firma w dziedzinie urządzeń elektrycznych, odegrała znaczącą rolę w tej transformacji, przyczyniając się do modernizacji praktyk kulinarnych w domach.
+**Material / Technique:**  
+Urządzenie wykonane jest z mosiądzu pokrytego niklem i prawdopodobnie ceramiki dla powierzchni grzewczej. Uchwyt wykonany jest prawdopodobnie z bakelitu lub plastiku. Założenie: powierzchnia grzewcza może być ceramiczna na podstawie jej wyglądu.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako około 330 x 170 x 72 mm (metadane). Waga wynosi 0,6 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0488 0.
+- Odniesienia literaturowe: Not available.
+- Zasoby internetowe: Not available.
+---
+### French Version
+**Object Title / Type:**  
+Appareil de cuisson électrique AEG, Nr. 1/1997/0488 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un appareil de cuisson électrique fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG), probablement produit vers 1926 (métadonnées). L'appareil présente une surface de cuisson circulaire, réalisée en un matériau sombre, probablement en céramique, et monté sur une base métallique. Le design général reflète l'esthétique industrielle des années 1920, caractérisée par une simplicité fonctionnelle et une construction robuste.
+L'appareil est équipé d'une poignée en plastique noir ou en bakélite, qui montre des signes d'usure visibles, indiquant une utilisation fréquente. Les composants métalliques semblent être en laiton plaqué nickel, contribuant à la durabilité et à l'attrait esthétique. La base de l'appareil comprend un connecteur pour l'alimentation électrique, suggérant qu'il fonctionne sur une tension standard, probablement 230V, comme l'indique l'inscription visible "230V 450W" sur l'appareil (visible sur les photos).
+La surface de cuisson circulaire est entourée d'un bord métallique, conçu pour faciliter une répartition uniforme de la chaleur. La poignée est ergonomiquement conçue pour faciliter l'utilisation, permettant à l'utilisateur de retourner ou de faire pivoter la surface de cuisson selon les besoins. L'état général de l'appareil montre des signes d'usure, en particulier sur la poignée et la surface de cuisson, qui ont pu être soumises à des températures élevées au fil du temps.
+Dans le contexte des années 1920, cet appareil représente la tendance croissante des dispositifs de cuisson électriques, qui ont commencé à gagner en popularité dans les foyers en raison des avancées en ingénierie électrique et de l'augmentation de la disponibilité de l'électricité. AEG, en tant qu'entreprise pionnière dans le domaine des appareils électriques, a joué un rôle significatif dans cette transformation, contribuant à la modernisation des pratiques culinaires domestiques.
+**Material / Technique:**  
+L'appareil est construit en laiton plaqué nickel et probablement en céramique pour la surface de cuisson. La poignée est probablement en bakélite ou en plastique. Hypothèse : la surface de cuisson pourrait être en céramique en fonction de son apparence.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme étant d'environ 330 x 170 x 72 mm (métadonnées). Le poids est noté à 0,6 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0488 0.
+- Références littéraires : Not available.
+- Ressources web : Not available.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Waffle Iron AEG Model, Nr. 1/1997/0489 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a waffle iron manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) around 1933, as indicated by the metadata. The appliance features a circular design with a polished metallic surface, primarily constructed from nickel-plated metal, which is evident in the visible wear and tarnishing on the exterior. The waffle iron has two handles on either side, which are made of a dark material, likely Bakelite, providing a contrasting texture to the metallic body. The top of the appliance is adorned with a central knob for opening, while the base is supported by four short legs, ensuring stability during use.
+The waffle iron's functional layout includes a dual cooking surface, each patterned with a diamond-shaped grid, which is characteristic of waffle irons designed to create the iconic texture of waffles. The visible inscription on the appliance reads, "AEG, Nr. 247910, 220 VOLT, 700 WATT," indicating its electrical specifications. The presence of a coiled metal tube suggests a mechanism for steam release, which is crucial for the cooking process, allowing moisture to escape and preventing sogginess in the waffles.
+In terms of condition, the appliance shows signs of age, with visible rust and discoloration, particularly around the seams and the cooking surfaces. This wear suggests that the waffle iron was likely used frequently, reflecting its role in domestic cooking during the early to mid-20th century. The design and functionality of this waffle iron align with the industrial design trends of the 1930s, emphasizing both utility and aesthetic appeal.
+**Material / Technique:**  
+The waffle iron is primarily made of nickel-plated metal, with additional components likely made of Bakelite for the handles. The cooking surfaces appear to be cast iron, which is typical for such appliances. Assumption: the presence of porcelain may be inferred from the metadata but is not visible in the photos.
+**Dimensions:**  
+Diameter: 192 mm; Height: 160 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0489 0.  
+- Literature references: Not available.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Waffeleisen AEG Modell, Nr. 1/1997/0489 0
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein Waffeleisen, das um 1933 von der Allgemeine Elektricitäts-Gesellschaft (AEG) hergestellt wurde, wie in den Metadaten angegeben. Das Gerät weist ein kreisförmiges Design mit einer polierten Metalloberfläche auf, die hauptsächlich aus vernickeltem Metall besteht, was sich in der sichtbaren Abnutzung und dem Anlaufen der Außenseite zeigt. Das Waffeleisen hat auf beiden Seiten zwei Griffe, die aus einem dunklen Material bestehen, wahrscheinlich Bakelit, was einen kontrastierenden Textur zum metallischen Körper bietet. Die Oberseite des Geräts ist mit einem zentralen Knopf zum Öffnen versehen, während die Basis von vier kurzen Füßen gestützt wird, um Stabilität während des Gebrauchs zu gewährleisten.
+Das funktionale Layout des Waffeleisens umfasst eine doppelte Kochfläche, die jeweils mit einem rautenförmigen Gittermuster versehen ist, das charakteristisch für Waffeleisen ist, die die ikonische Textur von Waffeln erzeugen. Die sichtbare Inschrift auf dem Gerät lautet: "AEG, Nr. 247910, 220 VOLT, 700 WATT," was auf die elektrischen Spezifikationen hinweist. Die Anwesenheit eines gewundenen Metallrohrs deutet auf einen Mechanismus zur Dampfabführung hin, der für den Kochprozess entscheidend ist, um Feuchtigkeit entweichen zu lassen und ein Durchweichen der Waffeln zu verhindern.
+In Bezug auf den Zustand zeigt das Gerät Alterserscheinungen, mit sichtbarem Rost und Verfärbungen, insbesondere an den Nähten und den Kochflächen. Diese Abnutzung deutet darauf hin, dass das Waffeleisen wahrscheinlich häufig verwendet wurde, was seine Rolle beim häuslichen Kochen im frühen bis mittleren 20. Jahrhundert widerspiegelt. Das Design und die Funktionalität dieses Waffeleisens entsprechen den Industriedesign-Trends der 1930er Jahre, die sowohl Nützlichkeit als auch ästhetische Anziehungskraft betonen.
+**Material / Technik:**  
+Das Waffeleisen besteht hauptsächlich aus vernickeltem Metall, während zusätzliche Komponenten wahrscheinlich aus Bakelit für die Griffe gefertigt sind. Die Kochflächen scheinen aus Gusseisen zu sein, was für solche Geräte typisch ist. Annahme: Die Anwesenheit von Porzellan kann aus den Metadaten abgeleitet werden, ist jedoch in den Fotos nicht sichtbar.
+**Dimensions:**  
+Durchmesser: 192 mm; Höhe: 160 mm (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0489 0.  
+- Literaturverweise: Nicht verfügbar.  
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Gofrownica AEG Model, Nr. 1/1997/0489 0
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to gofrownica wyprodukowana przez Allgemeine Elektricitäts-Gesellschaft (AEG) około 1933 roku, co wskazują metadane. Urządzenie ma okrągły kształt z wypolerowaną metalową powierzchnią, głównie wykonaną z metalu pokrytego niklem, co widać w widocznej zużyciu i matowieniu na zewnętrznej stronie. Gofrownica ma dwa uchwyty po obu stronach, które wykonane są z ciemnego materiału, prawdopodobnie Bakelitu, co stanowi kontrastującą teksturę do metalowego korpusu. Górna część urządzenia ozdobiona jest centralnym pokrętłem do otwierania, podczas gdy podstawa jest wspierana przez cztery krótkie nóżki, co zapewnia stabilność podczas użytkowania.
+Funkcjonalny układ gofrownicy obejmuje podwójną powierzchnię do gotowania, z każdą wzorowaną na diamentowym siatce, co jest charakterystyczne dla gofrownic zaprojektowanych do tworzenia ikonicznej tekstury gofrów. Widoczny napis na urządzeniu brzmi: "AEG, Nr. 247910, 220 VOLT, 700 WATT," co wskazuje na jego specyfikacje elektryczne. Obecność zwiniętej metalowej rurki sugeruje mechanizm odprowadzania pary, co jest kluczowe dla procesu gotowania, pozwalając na ucieczkę wilgoci i zapobiegając nasiąkaniu gofrów.
+Jeśli chodzi o stan, urządzenie wykazuje oznaki starzenia, z widocznym rdzą i przebarwieniami, szczególnie wokół szwów i powierzchni gotujących. To zużycie sugeruje, że gofrownica była prawdopodobnie często używana, co odzwierciedla jej rolę w gotowaniu domowym w pierwszej połowie XX wieku. Projekt i funkcjonalność tej gofrownicy są zgodne z trendami wzornictwa przemysłowego lat 30., podkreślając zarówno użyteczność, jak i atrakcyjność estetyczną.
+**Material / Technique:**  
+Gofrownica wykonana jest głównie z metalu pokrytego niklem, a dodatkowe elementy prawdopodobnie wykonane są z Bakelitu dla uchwytów. Powierzchnie do gotowania wydają się być wykonane z żeliwa, co jest typowe dla takich urządzeń. Założenie: obecność porcelany może być wywnioskowana z metadanych, ale nie jest widoczna na zdjęciach.
+**Dimensions:**  
+Średnica: 192 mm; Wysokość: 160 mm (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0489 0.  
+- Odniesienia literaturowe: Nie dostępne.  
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Gaufrier AEG Modèle, Nr. 1/1997/0489 0
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un gaufrier fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG) vers 1933, comme l'indiquent les métadonnées. L'appareil présente un design circulaire avec une surface métallique polie, principalement constituée de métal plaqué nickel, ce qui est évident dans l'usure visible et le ternissement de l'extérieur. Le gaufrier est doté de deux poignées de chaque côté, probablement en Bakélite, offrant une texture contrastante par rapport au corps métallique. Le dessus de l'appareil est orné d'un bouton central pour l'ouverture, tandis que la base est soutenue par quatre petites pattes, assurant la stabilité lors de l'utilisation.
+La disposition fonctionnelle du gaufrier comprend une double surface de cuisson, chacune ornée d'un motif en forme de diamant, caractéristique des gaufriers conçus pour créer la texture iconique des gaufres. L'inscription visible sur l'appareil indique : "AEG, Nr. 247910, 220 VOLT, 700 WATT," ce qui précise ses spécifications électriques. La présence d'un tube métallique enroulé suggère un mécanisme d'évacuation de la vapeur, crucial pour le processus de cuisson, permettant à l'humidité de s'échapper et évitant que les gaufres ne deviennent détrempées.
+En termes d'état, l'appareil montre des signes de vieillissement, avec de la rouille et des décolorations visibles, en particulier autour des joints et des surfaces de cuisson. Cette usure suggère que le gaufrier a probablement été utilisé fréquemment, reflétant son rôle dans la cuisine domestique au début et au milieu du XXe siècle. Le design et la fonctionnalité de ce gaufrier s'alignent sur les tendances du design industriel des années 1930, mettant en avant à la fois l'utilité et l'attrait esthétique.
+**Material / Technique:**  
+Le gaufrier est principalement fabriqué en métal plaqué nickel, avec des composants supplémentaires probablement en Bakélite pour les poignées. Les surfaces de cuisson semblent être en fonte, ce qui est typique pour de tels appareils. Hypothèse : la présence de porcelaine peut être déduite des métadonnées, mais n'est pas visible sur les photos.
+**Dimensions:**  
+Diamètre : 192 mm ; Hauteur : 160 mm (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0489 0.  
+- Références littéraires : Non disponible.  
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Steam Curling Iron AEG-Dampffrisierstab, Nr. 1/1997/0526 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a steam curling iron, identified as the AEG-Dampffrisierstab, manufactured around 1977 (metadata). The curling iron features a distinctive design characterized by a predominantly orange handle with black accents. The handle is ergonomically shaped, allowing for a comfortable grip during use. A green button is located on the handle, likely serving as a control for steam release, which is a critical feature for achieving the desired curling effect. The curling iron's nozzle is transparent, suggesting that it may have a steam chamber that heats water to create steam for curling hair.
+The object is presented in its original packaging, which includes a cardboard box adorned with a photograph of a model showcasing the product's use, indicating its marketing strategy aimed at domestic consumers. The packaging also features the brand name "AEG" prominently, reflecting the company's reputation in household appliances during the late 20th century. 
+In terms of functionality, the steam curling iron represents a significant innovation in hair styling technology, combining the traditional curling iron with steam application to enhance the curling process. This method likely provided a gentler approach to styling, reducing heat damage to hair compared to conventional curling irons. The design and technology of this curling iron can be seen as part of a broader trend in the 1970s towards more user-friendly and effective home appliances.
+**Material / Technique:**  
+The curling iron is primarily constructed from plastic, specifically a painted plastic for the handle, while the nozzle appears to be made of a heat-resistant material, likely glass or a similar composite. The cord is rubberized, ensuring flexibility and durability during use. Assumptions regarding additional materials are not available.
+**Dimensions:**  
+The dimensions of the object are recorded as 60 mm in height, 475 mm in width, and 85 mm in depth (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0526 01.  
+- Literature references: Not available.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Dampffrisierstab AEG, Nr. 1/1997/0526 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein Dampffrisierstab, identifiziert als AEG-Dampffrisierstab, hergestellt um 1977 (Metadaten). Der Frisierstab weist ein markantes Design auf, das durch einen überwiegend orangefarbenen Griff mit schwarzen Akzenten gekennzeichnet ist. Der Griff ist ergonomisch geformt, was eine bequeme Handhabung während der Nutzung ermöglicht. Ein grüner Knopf befindet sich am Griff und dient wahrscheinlich als Steuerung für die Dampfabgabe, die eine entscheidende Funktion für den gewünschten Lockeneffekt darstellt. Die Düse des Frisierstabs ist transparent, was darauf hindeutet, dass sie möglicherweise eine Dampfkamera enthält, die Wasser erhitzt, um Dampf zum Locken von Haaren zu erzeugen.
+Das Objekt wird in seiner Originalverpackung präsentiert, die eine Pappschachtel umfasst, die mit einem Foto eines Modells geschmückt ist, das die Verwendung des Produkts zeigt. Dies deutet auf eine Marketingstrategie abzielend auf Haushaltsverbraucher hin. Die Verpackung zeigt auch den Markennamen "AEG" prominent, was den Ruf des Unternehmens im Bereich Haushaltsgeräte im späten 20. Jahrhundert widerspiegelt.
+In Bezug auf die Funktionalität stellt der Dampffrisierstab eine bedeutende Innovation in der Haarstyling-Technologie dar, indem er den traditionellen Lockenstab mit Dampfanwendung kombiniert, um den Lockenprozess zu verbessern. Diese Methode bot wahrscheinlich einen sanfteren Ansatz zum Stylen, wodurch Hitzeschäden an den Haaren im Vergleich zu herkömmlichen Lockenstäben reduziert wurden. Das Design und die Technologie dieses Lockenstabs können als Teil eines breiteren Trends in den 1970er Jahren betrachtet werden, der auf benutzerfreundlichere und effektivere Haushaltsgeräte abzielte.
+**Material / Technik:**  
+Der Frisierstab besteht hauptsächlich aus Kunststoff, insbesondere aus lackiertem Kunststoff für den Griff, während die Düse wahrscheinlich aus einem hitzebeständigen Material, möglicherweise Glas oder einem ähnlichen Verbundstoff, gefertigt ist. Das Kabel ist gummiert, was Flexibilität und Haltbarkeit während der Nutzung gewährleistet. Annahmen zu zusätzlichen Materialien sind nicht verfügbar.
+**Dimensions:**  
+Die Abmessungen des Objekts sind mit 60 mm Höhe, 475 mm Breite und 85 mm Tiefe angegeben (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0526 01.  
+- Literaturreferenzen: Nicht verfügbar.  
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Żelazko parowe AEG-Dampffrisierstab, Nr. 1/1997/0526 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to żelazko parowe, zidentyfikowane jako AEG-Dampffrisierstab, wyprodukowane około 1977 roku (metadane). Żelazko charakteryzuje się wyraźnym designem, z dominującą pomarańczową rączką i czarnymi akcentami. Rączka ma ergonomiczną formę, co pozwala na wygodne trzymanie podczas użycia. Na rączce znajduje się zielony przycisk, który prawdopodobnie służy do regulacji wydobywania pary, co jest kluczową funkcją dla uzyskania pożądanego efektu loków. Dysza żelazka jest przezroczysta, co sugeruje, że może mieć komorę parową, która podgrzewa wodę, aby wytworzyć parę do kręcenia włosów.
+Obiekt jest prezentowany w oryginalnym opakowaniu, które zawiera kartonowe pudełko ozdobione zdjęciem modelki pokazującej sposób użycia produktu, co wskazuje na strategię marketingową skierowaną do konsumentów domowych. Opakowanie również wyraźnie eksponuje nazwę marki "AEG", co odzwierciedla reputację firmy w zakresie urządzeń gospodarstwa domowego w drugiej połowie XX wieku.
+Jeśli chodzi o funkcjonalność, żelazko parowe stanowi znaczącą innowację w technologii stylizacji włosów, łącząc tradycyjne żelazko do loków z aplikacją pary, aby poprawić proces kręcenia. Ta metoda prawdopodobnie zapewniała łagodniejsze podejście do stylizacji, zmniejszając uszkodzenia cieplne włosów w porównaniu do konwencjonalnych żelazek do loków. Projekt i technologia tego żelazka można postrzegać jako część szerszego trendu w latach 70. w kierunku bardziej przyjaznych dla użytkownika i skutecznych urządzeń domowych.
+**Material / Technique:**  
+Żelazko wykonane jest głównie z plastiku, w szczególności z malowanego plastiku dla rączki, podczas gdy dysza wydaje się być wykonana z materiału odpornego na wysoką temperaturę, prawdopodobnie szkła lub podobnego kompozytu. Przewód jest gumowany, co zapewnia elastyczność i trwałość podczas użycia. Założenia dotyczące dodatkowych materiałów są niedostępne.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako 60 mm wysokości, 475 mm szerokości i 85 mm głębokości (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarza 1/1997/0526 01.  
+- Odniesienia literaturowe: Nie dostępne.  
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Fer à friser à vapeur AEG-Dampffrisierstab, Nr. 1/1997/0526 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un fer à friser à vapeur, identifié comme AEG-Dampffrisierstab, fabriqué vers 1977 (métadonnées). Le fer à friser présente un design distinctif caractérisé par une poignée principalement orange avec des accents noirs. La poignée est ergonomiquement conçue, permettant une prise en main confortable lors de son utilisation. Un bouton vert est situé sur la poignée, servant probablement de contrôle pour la libération de vapeur, qui est une fonction essentielle pour obtenir l'effet de boucles souhaité. La buse du fer à friser est transparente, suggérant qu'elle pourrait avoir une chambre à vapeur qui chauffe l'eau pour créer de la vapeur pour friser les cheveux.
+L'objet est présenté dans son emballage d'origine, qui comprend une boîte en carton ornée d'une photographie d'un modèle montrant l'utilisation du produit, indiquant une stratégie marketing visant les consommateurs domestiques. L'emballage présente également le nom de la marque "AEG" de manière proéminente, reflétant la réputation de l'entreprise dans le domaine des appareils ménagers à la fin du XXe siècle.
+En termes de fonctionnalité, le fer à friser à vapeur représente une innovation significative dans la technologie de coiffure, combinant le fer à friser traditionnel avec l'application de vapeur pour améliorer le processus de bouclage. Cette méthode a probablement fourni une approche plus douce pour le coiffage, réduisant les dommages causés par la chaleur aux cheveux par rapport aux fers à friser conventionnels. Le design et la technologie de ce fer à friser peuvent être considérés comme faisant partie d'une tendance plus large dans les années 1970 vers des appareils ménagers plus conviviaux et efficaces.
+**Material / Technique:**  
+Le fer à friser est principalement fabriqué en plastique, en particulier un plastique peint pour la poignée, tandis que la buse semble être faite d'un matériau résistant à la chaleur, probablement du verre ou un composite similaire. Le cordon est en caoutchouc, assurant flexibilité et durabilité lors de l'utilisation. Les hypothèses concernant des matériaux supplémentaires ne sont pas disponibles.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme 60 mm de hauteur, 475 mm de largeur et 85 mm de profondeur (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0526 01.  
+- Références littéraires : Non disponible.  
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Cleaning Device AEG-Telefunken AG, Nr. 1/1997/0540 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a cleaning device manufactured by AEG-Telefunken AG in 1973, characterized by its compact design and functional layout. The device features a rectangular body with a prominent green plastic casing, which is indicative of the design aesthetics of the 1970s. The top of the device is equipped with two red circular knobs, which likely serve as controls for operation, and a white knob that may function as an on/off switch or a setting selector. The visible bristle brush mechanism, located centrally, is designed for effective cleaning, suggesting that this device was intended for household or industrial use.
+The device's design reflects the industrial design trends of the era, emphasizing functionality and user-friendliness. The integration of bright colors, such as the red knobs against the green body, not only enhances visibility but also aligns with the playful design ethos of the time. The presence of a removable cover, which can be seen in the images, indicates ease of maintenance and access to the internal components, a feature that would have been appreciated by users.
+In terms of materials, the device is primarily constructed from plastic (Kunststoff) and metal (Metall), as noted in the metadata. The plastic casing appears to be in good condition, with minor signs of wear, while the internal bristle mechanism shows no visible damage. The overall design and materials suggest a robust construction, suitable for repeated use.
+**Material / Technique:**  
+The device is made of plastic (Kunststoff) and metal (Metall). Assumptions regarding additional materials are not available.
+**Dimensions:**  
+The dimensions of the object are approximately 500 x 360 x 195 mm, with a weight of 4.46 kg, as provided in the metadata.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0540 0.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Reinigungsgerät AEG-Telefunken AG, Nr. 1/1997/0540 0
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein Reinigungsgerät, das 1973 von AEG-Telefunken AG hergestellt wurde und sich durch sein kompaktes Design und funktionale Anordnung auszeichnet. Das Gerät hat einen rechteckigen Körper mit einem auffälligen grünen Kunststoffgehäuse, das die Designästhetik der 1970er Jahre widerspiegelt. Die Oberseite des Geräts ist mit zwei roten runden Knöpfen ausgestattet, die wahrscheinlich als Steuerungen für den Betrieb dienen, sowie einem weißen Knopf, der als Ein/Aus-Schalter oder Einstellungswähler fungieren könnte. Der sichtbare Bürstenmechanismus, der zentral angeordnet ist, ist für eine effektive Reinigung konzipiert, was darauf hindeutet, dass dieses Gerät für den Haushalts- oder Industriebereich gedacht war.
+Das Design des Geräts spiegelt die Industriedesign-Trends der Zeit wider, die Funktionalität und Benutzerfreundlichkeit betonen. Die Integration von hellen Farben, wie den roten Knöpfen auf dem grünen Gehäuse, verbessert nicht nur die Sichtbarkeit, sondern passt auch zur verspielten Designphilosophie der Zeit. Das Vorhandensein einer abnehmbaren Abdeckung, die in den Bildern zu sehen ist, deutet auf eine einfache Wartung und den Zugang zu den internen Komponenten hin, ein Merkmal, das von den Benutzern geschätzt worden wäre.
+In Bezug auf die Materialien besteht das Gerät hauptsächlich aus Kunststoff (Kunststoff) und Metall (Metall), wie in den Metadaten angegeben. Das Kunststoffgehäuse scheint sich in gutem Zustand zu befinden, mit geringfügigen Abnutzungsspuren, während der interne Bürstenmechanismus keine sichtbaren Schäden aufweist. Das gesamte Design und die Materialien deuten auf eine robuste Konstruktion hin, die für wiederholte Nutzung geeignet ist.
+**Material / Technik:**  
+Das Gerät besteht aus Kunststoff (Kunststoff) und Metall (Metall). Annahmen bezüglich zusätzlicher Materialien sind nicht verfügbar.
+**Dimensions:**  
+Die Abmessungen des Objekts betragen etwa 500 x 360 x 195 mm, mit einem Gewicht von 4,46 kg, wie in den Metadaten angegeben.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0540 0.
+- Literaturreferenzen: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Urządzenie czyszczące AEG-Telefunken AG, Nr. 1/1997/0540 0
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to urządzenie czyszczące wyprodukowane przez AEG-Telefunken AG w 1973 roku, charakteryzujące się kompaktowym designem i funkcjonalnym układem. Urządzenie ma prostokątną obudowę z wyraźnym zielonym plastikowym wykończeniem, co jest charakterystyczne dla estetyki lat 70. Na górze urządzenia znajdują się dwa czerwone okrągłe pokrętła, które prawdopodobnie służą jako elementy sterujące, oraz biały pokrętło, które może pełnić funkcję włącznika/wyłącznika lub selektora ustawień. Widoczny mechanizm szczotkowy, umieszczony centralnie, jest zaprojektowany do skutecznego czyszczenia, co sugeruje, że to urządzenie było przeznaczone do użytku domowego lub przemysłowego.
+Design urządzenia odzwierciedla trendy w projektowaniu przemysłowym tamtej epoki, podkreślając funkcjonalność i łatwość obsługi. Integracja jasnych kolorów, takich jak czerwone pokrętła na zielonym korpusie, nie tylko zwiększa widoczność, ale także wpisuje się w radosną filozofię projektowania tamtych czasów. Obecność zdejmowanej pokrywy, widocznej na zdjęciach, wskazuje na łatwość konserwacji i dostęp do wewnętrznych komponentów, co byłoby doceniane przez użytkowników.
+Jeśli chodzi o materiały, urządzenie jest głównie wykonane z plastiku (Kunststoff) i metalu (Metall), jak podano w metadanych. Korpus z tworzywa sztucznego wydaje się być w dobrym stanie, z niewielkimi oznakami zużycia, podczas gdy wewnętrzny mechanizm szczotkowy nie wykazuje widocznych uszkodzeń. Całkowity design i materiały sugerują solidną konstrukcję, odpowiednią do wielokrotnego użytku.
+**Material / Technique:**  
+Urządzenie wykonane jest z plastiku (Kunststoff) i metalu (Metall). Założenia dotyczące dodatkowych materiałów są niedostępne.
+**Dimensions:**  
+Wymiary obiektu wynoszą około 500 x 360 x 195 mm, a waga to 4,46 kg, jak podano w metadanych.
+**Provenance / Ownership history:**  
+Niedostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarza 1/1997/0540 0.
+- Odniesienia literaturowe: Niedostępne.
+- Zasoby internetowe: Niedostępne.
+---
+### French Version
+**Object Title / Type:**  
+Appareil de nettoyage AEG-Telefunken AG, Nr. 1/1997/0540 0
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un appareil de nettoyage fabriqué par AEG-Telefunken AG en 1973, caractérisé par son design compact et sa disposition fonctionnelle. L'appareil présente un boîtier rectangulaire avec un revêtement en plastique vert, typique de l'esthétique des années 1970. Le dessus de l'appareil est équipé de deux boutons ronds rouges, qui servent probablement de commandes pour le fonctionnement, ainsi qu'un bouton blanc qui pourrait fonctionner comme un interrupteur ou un sélecteur de réglage. Le mécanisme de brosse visible, situé au centre, est conçu pour un nettoyage efficace, suggérant que cet appareil était destiné à un usage domestique ou industriel.
+Le design de l'appareil reflète les tendances du design industriel de l'époque, mettant l'accent sur la fonctionnalité et la convivialité. L'intégration de couleurs vives, telles que les boutons rouges sur le boîtier vert, améliore non seulement la visibilité, mais s'inscrit également dans l'esprit ludique du design de l'époque. La présence d'un couvercle amovible, visible sur les images, indique une facilité d'entretien et d'accès aux composants internes, une caractéristique qui aurait été appréciée par les utilisateurs.
+En termes de matériaux, l'appareil est principalement construit en plastique (Kunststoff) et en métal (Metall), comme indiqué dans les métadonnées. Le boîtier en plastique semble être en bon état, avec de légers signes d'usure, tandis que le mécanisme de brosse interne ne montre aucun dommage visible. Le design global et les matériaux suggèrent une construction robuste, adaptée à une utilisation répétée.
+**Material / Technique:**  
+L'appareil est fabriqué en plastique (Kunststoff) et en métal (Metall). Les hypothèses concernant des matériaux supplémentaires ne sont pas disponibles.
+**Dimensions:**  
+Les dimensions de l'objet sont d'environ 500 x 360 x 195 mm, avec un poids de 4,46 kg, comme indiqué dans les métadonnées.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0540 0.
+- Références littéraires : Non disponible.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Vacuum Cleaner AEG ÖKO-VAMPYR electronic, Nr. 1/1997/0541 08
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The AEG ÖKO-VAMPYR electronic vacuum cleaner, manufactured around 1994 (as indicated by the embossed date on the lid compartment for paper filters), exemplifies the design and technological advancements of domestic appliances during the late 20th century. The object features a streamlined, ergonomic design characterized by its smooth, rounded edges and a compact form, which is typical of the era's emphasis on user-friendly appliances. The color scheme predominantly includes a vibrant turquoise body with black accents, reflecting contemporary aesthetic trends.
+The vacuum cleaner is equipped with a range of controls located on the top surface, including a power button and various settings, which are likely designed for different cleaning modes. The visible control panel suggests a user-centric approach, allowing for easy operation. The object also includes a flexible hose and a floor nozzle labeled "AEG VARIO 3000," indicating compatibility with various cleaning attachments, enhancing its functionality.
+Materials observed include a plastic body, likely ABS or a similar polymer, which is common in vacuum cleaner construction due to its durability and lightweight properties. The finish appears to be smooth and glossy, indicative of a high-quality manufacturing process. The presence of visible wear on the packaging suggests that the object has been previously handled, although the vacuum cleaner itself appears to be in good condition.
+The AEG brand, known for its innovation in electrical appliances, has a significant history in the development of household technologies. The ÖKO-VAMPYR model represents a shift towards more environmentally conscious designs, aligning with the growing consumer demand for sustainable products during the 1990s. This model may have been part of AEG's strategy to enhance its market position by appealing to eco-aware consumers.
+**Material / Technique:**  
+Materials: Plastic (assumed ABS).  
+Assumption: Other materials not visible.
+**Dimensions:**  
+Dimensions: 140 x 102 x 0.01 mm (metadata).  
+Assumption: No further measurements available.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0541 08.  
+- Literature references: Not available.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Staubsauger AEG ÖKO-VAMPYR electronic, Nr. 1/1997/0541 08
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Der AEG ÖKO-VAMPYR electronic Staubsauger, hergestellt um 1994 (wie durch das geprägte Datum im Deckelfach für Papierfilter angezeigt), exemplifiziert das Design und die technologischen Fortschritte von Haushaltsgeräten im späten 20. Jahrhundert. Das Objekt zeichnet sich durch ein stromlinienförmiges, ergonomisches Design mit glatten, abgerundeten Kanten und einer kompakten Form aus, was typisch für die Benutzerfreundlichkeit dieser Ära ist. Die Farbgestaltung umfasst überwiegend einen lebhaften türkisfarbenen Körper mit schwarzen Akzenten, was den zeitgenössischen ästhetischen Trends entspricht.
+Der Staubsauger ist mit einer Reihe von Bedienelementen auf der Oberseite ausgestattet, darunter ein Netzschalter und verschiedene Einstellungen, die wahrscheinlich für unterschiedliche Reinigungsmodi konzipiert sind. Das sichtbare Bedienfeld deutet auf einen benutzerzentrierten Ansatz hin, der eine einfache Bedienung ermöglicht. Das Objekt umfasst auch einen flexiblen Schlauch und eine Bodendüse, die mit "AEG VARIO 3000" gekennzeichnet ist, was auf die Kompatibilität mit verschiedenen Reinigungsaufsätzen hinweist und die Funktionalität erhöht.
+Die beobachteten Materialien umfassen einen Kunststoffkörper, wahrscheinlich ABS oder ein ähnliches Polymer, das aufgrund seiner Haltbarkeit und Leichtigkeit häufig in der Herstellung von Staubsaugern verwendet wird. Die Oberfläche scheint glatt und glänzend zu sein, was auf einen hochwertigen Herstellungsprozess hinweist. Die sichtbaren Abnutzungserscheinungen auf der Verpackung deuten darauf hin, dass das Objekt zuvor gehandhabt wurde, obwohl der Staubsauger selbst in gutem Zustand zu sein scheint.
+Die Marke AEG, bekannt für ihre Innovationen im Bereich elektrischer Geräte, hat eine bedeutende Geschichte in der Entwicklung von Haushaltstechnologien. Das Modell ÖKO-VAMPYR stellt einen Wandel hin zu umweltbewussteren Designs dar, was mit der wachsenden Nachfrage der Verbraucher nach nachhaltigen Produkten in den 1990er Jahren übereinstimmt. Dieses Modell könnte Teil von AEGs Strategie gewesen sein, seine Marktposition zu stärken, indem es umweltbewusste Verbraucher anspricht.
+**Material / Technik:**  
+Materialien: Kunststoff (angenommene ABS).  
+Annahme: Weitere Materialien nicht sichtbar.
+**Dimensions:**  
+Abmessungen: 140 x 102 x 0,01 mm (Metadaten).  
+Annahme: Keine weiteren Messungen verfügbar.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0541 08.  
+- Literaturverweise: Nicht verfügbar.  
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Odkurzacz AEG ÖKO-VAMPYR electronic, Nr. 1/1997/0541 08
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Odkurzacz AEG ÖKO-VAMPYR electronic, wyprodukowany około 1994 roku (jak wskazuje wytłoczone na pokrywie datowanie na wkładki do filtrów papierowych), stanowi przykład projektowania i postępu technologicznego w dziedzinie sprzętu domowego pod koniec XX wieku. Obiekt charakteryzuje się opływowym, ergonomicznym kształtem, z gładkimi, zaokrąglonymi krawędziami oraz kompaktową formą, co jest typowe dla nacisku na przyjazne dla użytkownika urządzenia w tym okresie. Dominująca kolorystyka obejmuje żywy turkusowy korpus z czarnymi akcentami, odzwierciedlając współczesne trendy estetyczne.
+Odkurzacz wyposażony jest w szereg elementów sterujących umieszczonych na górnej powierzchni, w tym przycisk zasilania oraz różne ustawienia, które prawdopodobnie są zaprojektowane do różnych trybów czyszczenia. Widoczny panel sterowania sugeruje podejście skoncentrowane na użytkowniku, umożliwiające łatwą obsługę. Obiekt zawiera również elastyczny wąż oraz końcówkę do podłóg oznaczoną "AEG VARIO 3000", co wskazuje na kompatybilność z różnymi akcesoriami do czyszczenia, zwiększając jego funkcjonalność.
+Zaobserwowane materiały to plastikowa obudowa, prawdopodobnie ABS lub podobny polimer, który jest powszechnie stosowany w budowie odkurzaczy ze względu na swoją trwałość i lekkość. Wykończenie wydaje się gładkie i błyszczące, co wskazuje na wysoką jakość procesu produkcji. Widoczne ślady zużycia na opakowaniu sugerują, że obiekt był wcześniej używany, chociaż sam odkurzacz wydaje się być w dobrym stanie.
+Marka AEG, znana z innowacji w dziedzinie sprzętu elektrycznego, ma znaczną historię w rozwoju technologii domowych. Model ÖKO-VAMPYR reprezentuje przesunięcie w kierunku bardziej ekologicznych projektów, co jest zgodne z rosnącym zapotrzebowaniem konsumentów na zrównoważone produkty w latach 90. XX wieku. Model ten mógł być częścią strategii AEG mającej na celu wzmocnienie swojej pozycji rynkowej poprzez przyciąganie świadomych ekologicznie konsumentów.
+**Material / Technique:**  
+Materiały: Plastik (przyjęte ABS).  
+Założenie: Inne materiały niewidoczne.
+**Dimensions:**  
+Wymiary: 140 x 102 x 0,01 mm (metadane).  
+Założenie: Brak dalszych pomiarów.
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0541 08.  
+- Odniesienia literaturowe: Nie dostępne.  
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Aspirateur AEG ÖKO-VAMPYR electronic, Nr. 1/1997/0541 08
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'aspirateur AEG ÖKO-VAMPYR electronic, fabriqué vers 1994 (comme indiqué par la date embossée sur le couvercle du compartiment pour filtres en papier), illustre le design et les avancées technologiques des appareils domestiques à la fin du XXe siècle. L'objet présente un design aérodynamique et ergonomique, caractérisé par des bords lisses et arrondis ainsi qu'une forme compacte, typique de l'accent mis sur la convivialité des appareils à cette époque. La palette de couleurs comprend principalement un corps turquoise vif avec des accents noirs, reflétant les tendances esthétiques contemporaines.
+L'aspirateur est équipé d'une gamme de commandes situées sur la surface supérieure, y compris un bouton d'alimentation et divers réglages, probablement conçus pour différents modes de nettoyage. Le panneau de contrôle visible suggère une approche centrée sur l'utilisateur, permettant une utilisation facile. L'objet comprend également un tuyau flexible et une buse de sol étiquetée "AEG VARIO 3000", indiquant la compatibilité avec divers accessoires de nettoyage, augmentant ainsi sa fonctionnalité.
+Les matériaux observés incluent un corps en plastique, probablement en ABS ou un polymère similaire, couramment utilisé dans la construction d'aspirateurs en raison de sa durabilité et de sa légèreté. La finition semble lisse et brillante, indicative d'un processus de fabrication de haute qualité. La présence d'usure visible sur l'emballage suggère que l'objet a été manipulé auparavant, bien que l'aspirateur lui-même semble être en bon état.
+La marque AEG, connue pour son innovation dans les appareils électriques, a une histoire significative dans le développement des technologies domestiques. Le modèle ÖKO-VAMPYR représente un tournant vers des conceptions plus respectueuses de l'environnement, en accord avec la demande croissante des consommateurs pour des produits durables dans les années 1990. Ce modèle pourrait avoir fait partie de la stratégie d'AEG pour renforcer sa position sur le marché en attirant des consommateurs soucieux de l'environnement.
+**Material / Technique:**  
+Matériaux : Plastique (ABS supposé).  
+Hypothèse : Autres matériaux non visibles.
+**Dimensions:**  
+Dimensions : 140 x 102 x 0,01 mm (métadonnées).  
+Hypothèse : Pas d'autres mesures disponibles.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées principales du musée : Numéro d'inventaire 1/1997/0541 08.  
+- Références littéraires : Non disponible.  
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Container [Allgemeine Elektricitäts-Gesellschaft AEG AG] [Function/identifier], Nr. 1/1997/0543 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a decorative container, likely manufactured by Allgemeine Elektricitäts-Gesellschaft AEG AG around the year 1930, as inferred from the design style and materials used. The container features a rounded base with a flared, ribbed body and a domed lid topped with a small finial. The exterior exhibits a striking marbled pattern in shades of dark brown and reddish-brown, reminiscent of tortoiseshell, which was a popular aesthetic in early 20th-century design. 
+The lid fits snugly onto the body, ensuring that the contents are securely enclosed. The ribbed design not only adds visual interest but also enhances grip when lifting the lid. The interior is smooth and unadorned, suggesting a utilitarian purpose beneath its decorative exterior. This container may have served various functions, such as holding small items or as a decorative piece in domestic settings, reflecting the era's blend of functionality and style.
+The use of synthetic materials, specifically "Kunststoff (u.a. Tenacit)" as noted in the metadata, indicates an early adoption of modern materials in consumer goods, aligning with the industrial advancements of the time. This object exemplifies the intersection of art and industry, showcasing how design evolved to incorporate new materials while maintaining aesthetic appeal.
+**Material / Technique:**  
+The container is primarily made of synthetic plastic (Kunststoff), specifically Tenacit, which is a durable material. The finish appears smooth and glossy, contributing to its decorative quality. The exact composition of the marbled pattern is not specified, but it is consistent with the aesthetic trends of the period. 
+**Dimensions:**  
+Diameter: approximately 130 mm; Height: approximately 120 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0543 0.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Behälter [Allgemeine Elektricitäts-Gesellschaft AEG AG] [Funktion/Identifier], Nr. 1/1997/0543 0
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein dekorativer Behälter, der wahrscheinlich um das Jahr 1930 von der Allgemeinen Elektricitäts-Gesellschaft AEG AG hergestellt wurde, wie aus dem Designstil und den verwendeten Materialien abgeleitet. Der Behälter hat eine abgerundete Basis mit einem ausgestellten, gerippten Körper und einem gewölbten Deckel, der mit einem kleinen Knauf versehen ist. Die Außenseite zeigt ein auffälliges marmoriertes Muster in dunklen Braun- und Rottönen, das an Schildpatt erinnert und in der Designästhetik des frühen 20. Jahrhunderts beliebt war.
+Der Deckel passt eng auf den Körper und sorgt dafür, dass der Inhalt sicher eingeschlossen ist. Das gerippte Design fügt nicht nur visuelles Interesse hinzu, sondern verbessert auch den Griff beim Anheben des Deckels. Das Innere ist glatt und ungeschmückt, was auf einen utilitaristischen Zweck unter der dekorativen Oberfläche hindeutet. Dieser Behälter könnte verschiedene Funktionen erfüllt haben, wie das Halten kleiner Gegenstände oder als dekoratives Stück in häuslichen Umgebungen, was den Stil und die Funktionalität der damaligen Zeit widerspiegelt.
+Die Verwendung von synthetischen Materialien, insbesondere "Kunststoff (u.a. Tenacit)", wie in den Metadaten angegeben, zeigt eine frühe Annahme moderner Materialien in Konsumgütern und steht im Einklang mit den industriellen Fortschritten der Zeit. Dieses Objekt exemplifiziert die Schnittstelle von Kunst und Industrie und zeigt, wie sich das Design weiterentwickelte, um neue Materialien zu integrieren und gleichzeitig ästhetische Anziehungskraft zu bewahren.
+**Material / Technik:**  
+Der Behälter besteht hauptsächlich aus synthetischem Kunststoff (Kunststoff), speziell Tenacit, einem langlebigen Material. Die Oberfläche erscheint glatt und glänzend, was zu seiner dekorativen Qualität beiträgt. Die genaue Zusammensetzung des marmorierten Musters ist nicht angegeben, entspricht jedoch den ästhetischen Trends der Zeit.
+**Dimensions:**  
+Durchmesser: ca. 130 mm; Höhe: ca. 120 mm (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0543 0.
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Pojemnik [Allgemeine Elektricitäts-Gesellschaft AEG AG] [Funkcja/identyfikator], Nr. 1/1997/0543 0
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to dekoracyjny pojemnik, prawdopodobnie wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft AEG AG około roku 1930, co można wnioskować na podstawie stylu designu i użytych materiałów. Pojemnik ma zaokrągloną podstawę z rozszerzającym się, żebrowanym korpusem oraz kopułkowatą pokrywę zakończoną małym finialem. Zewnętrzna strona prezentuje uderzający marmurkowy wzór w odcieniach ciemnego brązu i czerwono-brązowego, przypominający muszle żółwi, co było popularne w estetyce wczesnego XX wieku.
+Pokrywa ściśle przylega do korpusu, zapewniając bezpieczne zamknięcie zawartości. Żebrowany design nie tylko dodaje wizualnego zainteresowania, ale także poprawia chwyt podczas podnoszenia pokrywy. Wnętrze jest gładkie i nieozdobione, co sugeruje użyteczność pod dekoracyjną powierzchnią. Ten pojemnik mógł pełnić różne funkcje, takie jak przechowywanie małych przedmiotów lub jako element dekoracyjny w domowych wnętrzach, odzwierciedlając styl i funkcjonalność tamtej epoki.
+Użycie syntetycznych materiałów, w szczególności "Kunststoff (u.a. Tenacit)", jak podano w metadanych, wskazuje na wczesne przyjęcie nowoczesnych materiałów w dobrach konsumpcyjnych, co jest zgodne z postępami przemysłowymi tamtego okresu. Obiekt ten ilustruje przecięcie sztuki i przemysłu, pokazując, jak projektowanie ewoluowało, aby włączyć nowe materiały, zachowując jednocześnie atrakcyjność estetyczną.
+**Material / Technique:**  
+Pojemnik wykonany jest głównie z syntetycznego plastiku (Kunststoff), w szczególności Tenacit, który jest materiałem trwałym. Wykończenie wydaje się gładkie i błyszczące, co przyczynia się do jego dekoracyjnej jakości. Dokładny skład marmurkowego wzoru nie jest określony, ale jest zgodny z estetycznymi trendami tego okresu.
+**Dimensions:**  
+Średnica: około 130 mm; Wysokość: około 120 mm (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0543 0.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Conteneur [Allgemeine Elektricitäts-Gesellschaft AEG AG] [Fonction/identifiant], Nr. 1/1997/0543 0
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un conteneur décoratif, probablement fabriqué par Allgemeine Elektricitäts-Gesellschaft AEG AG vers l'année 1930, comme le suggère le style de design et les matériaux utilisés. Le conteneur présente une base arrondie avec un corps évasé et nervuré, ainsi qu'un couvercle en dôme surmonté d'un petit bouton. L'extérieur présente un motif marbré frappant dans des teintes de brun foncé et de brun rougeâtre, rappelant la carapace de tortue, qui était une esthétique populaire au début du XXe siècle.
+Le couvercle s'adapte parfaitement au corps, garantissant que le contenu est bien enfermé. Le design nervuré ajoute non seulement un intérêt visuel, mais améliore également la prise lors du levage du couvercle. L'intérieur est lisse et non orné, suggérant un but utilitaire sous son extérieur décoratif. Ce conteneur pourrait avoir servi à diverses fonctions, telles que le stockage de petits objets ou comme pièce décorative dans des environnements domestiques, reflétant le style et la fonctionnalité de l'époque.
+L'utilisation de matériaux synthétiques, en particulier "Kunststoff (u.a. Tenacit)", comme indiqué dans les métadonnées, indique une adoption précoce de matériaux modernes dans les biens de consommation, en accord avec les avancées industrielles de l'époque. Cet objet illustre l'intersection de l'art et de l'industrie, montrant comment le design a évolué pour intégrer de nouveaux matériaux tout en maintenant un attrait esthétique.
+**Material / Technique:**  
+Le conteneur est principalement fabriqué en plastique synthétique (Kunststoff), spécifiquement Tenacit, qui est un matériau durable. La finition semble lisse et brillante, contribuant à sa qualité décorative. La composition exacte du motif marbré n'est pas spécifiée, mais elle est cohérente avec les tendances esthétiques de la période.
+**Dimensions:**  
+Diamètre : environ 130 mm ; Hauteur : environ 120 mm (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées de musée primaires : Numéro d'inventaire 1/1997/0543 0.
+- Références littéraires : Non disponible.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Iron AEG, Nr. 1/1997/0544
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric iron manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) in the 1930s, as indicated by the metadata. The iron features a streamlined, metallic body with a distinctive shape, typical of the design philosophy of the era, which emphasized both functionality and aesthetic appeal. The handle is made of wood, coated in a dark finish, which contrasts with the polished metal surface of the body. The visible inscription on the handle reads "AEG," indicating the brand, while the base of the iron has a small opening for steam release, suggesting that this model was designed for efficient ironing. 
+The iron's base plate appears to be made of a durable metal, likely steel, with a slightly rounded edge, facilitating smooth gliding over fabric. The overall condition of the object shows signs of wear, particularly on the handle where the paint has chipped away, indicating frequent use. The presence of rust on the base suggests that the iron may have been exposed to moisture, which is common for such household appliances. 
+In terms of functionality, this electric iron represents a significant advancement in domestic technology during the early 20th century, moving away from traditional flat irons that required heating on a stove. The introduction of electric irons like this one revolutionized the process of ironing, making it more accessible and efficient for households. The design reflects the industrial advancements of the time, as well as the growing consumer culture that embraced electrical appliances for everyday tasks.
+**Material / Technique:**  
+The iron is primarily constructed from metal, with a wooden handle. The exact type of metal is not specified but appears to be steel. The finish is metallic, with visible wear and rust, particularly on the base. Assumption: the handle may be Bakelite or another type of plastic, given its appearance.
+**Dimensions:**  
+The dimensions of the object are approximately 190 x 110 x 130 mm, with a weight of 2.84 kg (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0544.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrisches Bügeleisen AEG, Nr. 1/1997/0544
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein elektrisches Bügeleisen, das in den 1930er Jahren von der Allgemeinen Elektricitäts-Gesellschaft (AEG) hergestellt wurde, wie die Metadaten angeben. Das Bügeleisen weist einen stromlinienförmigen, metallischen Körper mit einer charakteristischen Form auf, die typisch für die Designphilosophie dieser Zeit ist, die sowohl Funktionalität als auch ästhetische Anziehungskraft betont. Der Griff besteht aus Holz und ist in einem dunklen Finish gehalten, was einen Kontrast zur polierten Metalloberfläche des Körpers bildet. Die sichtbare Inschrift auf dem Griff lautet "AEG", was die Marke anzeigt, während die Unterseite des Bügeleisens eine kleine Öffnung zur Dampfabgabe aufweist, was darauf hindeutet, dass dieses Modell für effizientes Bügeln konzipiert wurde.
+Die Bügelsohle scheint aus einem strapazierfähigen Metall, wahrscheinlich Stahl, gefertigt zu sein, mit einer leicht abgerundeten Kante, die ein sanftes Gleiten über den Stoff erleichtert. Der allgemeine Zustand des Objekts zeigt Gebrauchsspuren, insbesondere am Griff, wo die Farbe abplatzt, was auf häufigen Gebrauch hinweist. Die Anwesenheit von Rost an der Unterseite deutet darauf hin, dass das Bügeleisen möglicherweise Feuchtigkeit ausgesetzt war, was bei solchen Haushaltsgeräten häufig vorkommt.
+In Bezug auf die Funktionalität stellt dieses elektrische Bügeleisen einen bedeutenden Fortschritt in der Haushaltstechnologie des frühen 20. Jahrhunderts dar, da es von traditionellen Bügeleisen abwich, die auf einem Herd erhitzt werden mussten. Die Einführung von elektrischen Bügeleisen wie diesem revolutionierte den Bügelprozess und machte ihn für Haushalte zugänglicher und effizienter. Das Design spiegelt die industriellen Fortschritte der Zeit sowie die wachsende Konsumkultur wider, die elektrische Geräte für alltägliche Aufgaben annahm.
+**Material / Technik:**  
+Das Bügeleisen besteht hauptsächlich aus Metall, mit einem Holzgriff. Der genaue Metalltyp ist nicht spezifiziert, scheint aber Stahl zu sein. Die Oberfläche ist metallisch, mit sichtbarem Verschleiß und Rost, insbesondere an der Unterseite. Annahme: Der Griff könnte Bakelit oder einen anderen Kunststofftyp sein, basierend auf seinem Aussehen.
+**Dimensions:**  
+Die Abmessungen des Objekts betragen ungefähr 190 x 110 x 130 mm, mit einem Gewicht von 2,84 kg (Metadaten).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0544.
+- Literaturverweise: Not available.
+- Webressourcen: Not available.
+---
+### Polish Version
+**Object Title / Type:**  
+Żelazko elektryczne AEG, Nr. 1/1997/0544
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to elektryczne żelazko wyprodukowane przez Allgemeine Elektricitäts-Gesellschaft (AEG) w latach 30. XX wieku, co wskazują metadane. Żelazko ma opływowy, metalowy korpus o charakterystycznym kształcie, typowym dla filozofii projektowania tamtej epoki, która podkreślała zarówno funkcjonalność, jak i estetykę. Uchwyt wykonany jest z drewna, pokryty ciemnym wykończeniem, co kontrastuje z polerowaną metalową powierzchnią korpusu. Widoczny napis na uchwycie brzmi "AEG", co wskazuje na markę, podczas gdy spód żelazka ma małe otwarcie do uwalniania pary, co sugeruje, że ten model został zaprojektowany z myślą o efektywnym prasowaniu.
+Płyta podstawy żelazka wydaje się być wykonana z trwałego metalu, prawdopodobnie stali, z lekko zaokrąglonym brzegiem, co ułatwia gładkie przesuwanie po tkaninie. Ogólny stan obiektu pokazuje oznaki zużycia, szczególnie na uchwycie, gdzie farba się łuszczy, co wskazuje na częste użytkowanie. Obecność rdzy na podstawie sugeruje, że żelazko mogło być narażone na wilgoć, co jest powszechne w przypadku takich urządzeń domowych.
+Jeśli chodzi o funkcjonalność, to elektryczne żelazko stanowi znaczący postęp w technologii domowej na początku XX wieku, odchodząc od tradycyjnych żelazek, które wymagały podgrzewania na kuchence. Wprowadzenie elektrycznych żelazek, takich jak to, zrewolucjonizowało proces prasowania, czyniąc go bardziej dostępnym i efektywnym dla gospodarstw domowych. Projekt odzwierciedla postępy przemysłowe tamtej epoki oraz rosnącą kulturę konsumpcyjną, która przyjmowała urządzenia elektryczne do codziennych zadań.
+**Material / Technique:**  
+Żelazko jest głównie wykonane z metalu, z drewnianym uchwytem. Dokładny typ metalu nie jest określony, ale wydaje się być stalowy. Wykończenie jest metaliczne, z widocznym zużyciem i rdzą, szczególnie na podstawie. Założenie: uchwyt może być z Bakelitu lub innego rodzaju plastiku, biorąc pod uwagę jego wygląd.
+**Dimensions:**  
+Wymiary obiektu wynoszą około 190 x 110 x 130 mm, a waga to 2,84 kg (metadane).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0544.
+- Odniesienia literaturowe: Not available.
+- Zasoby internetowe: Not available.
+---
+### French Version
+**Object Title / Type:**  
+Fer à repasser électrique AEG, Nr. 1/1997/0544
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un fer à repasser électrique fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG) dans les années 1930, comme l'indiquent les métadonnées. Le fer présente un corps métallique profilé avec une forme distinctive, typique de la philosophie de design de l'époque, qui mettait l'accent sur la fonctionnalité et l'attrait esthétique. La poignée est en bois, recouverte d'une finition sombre, contrastant avec la surface métallique polie du corps. L'inscription visible sur la poignée indique "AEG", ce qui désigne la marque, tandis que la base du fer comporte une petite ouverture pour l'évacuation de la vapeur, suggérant que ce modèle a été conçu pour un repassage efficace.
+La plaque de base du fer semble être fabriquée à partir d'un métal durable, probablement de l'acier, avec un bord légèrement arrondi, facilitant un glissement en douceur sur le tissu. L'état général de l'objet montre des signes d'usure, en particulier sur la poignée où la peinture s'est écaillée, indiquant un usage fréquent. La présence de rouille sur la base suggère que le fer a pu être exposé à l'humidité, ce qui est courant pour de tels appareils ménagers.
+En termes de fonctionnalité, ce fer à repasser électrique représente un progrès significatif dans la technologie domestique au début du XXe siècle, s'éloignant des fers traditionnels qui nécessitaient d'être chauffés sur un poêle. L'introduction de fers à repasser électriques comme celui-ci a révolutionné le processus de repassage, le rendant plus accessible et efficace pour les ménages. Le design reflète les avancées industrielles de l'époque ainsi que la culture de consommation croissante qui a adopté les appareils électriques pour les tâches quotidiennes.
+**Material / Technique:**  
+Le fer est principalement construit en métal, avec une poignée en bois. Le type exact de métal n'est pas spécifié mais semble être de l'acier. La finition est métallique, avec une usure et de la rouille visibles, en particulier sur la base. Hypothèse : la poignée pourrait être en Bakélite ou un autre type de plastique, compte tenu de son apparence.
+**Dimensions:**  
+Les dimensions de l'objet sont d'environ 190 x 110 x 130 mm, avec un poids de 2,84 kg (métadonnées).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0544.
+- Références littéraires : Not available.
+- Ressources web : Not available.</t>
+  </si>
+  <si>
+    <t>### Object Title / Type:
+Faucet [Brand + Model not available], Nr. 1/1997/0545 0
+### Source Availability Statement:
+No online description found. Entry generated from metadata and photo analysis.
+### Description:
+The object is a faucet, likely designed for domestic use, as indicated by its form and functional elements. The faucet features two distinct handles, each adorned with colored indicators: one handle has a red dot, while the other has a blue dot, suggesting a hot and cold water function, respectively. The handles are shaped with a star-like design, which is characteristic of mid-20th century faucet designs, providing both aesthetic appeal and ergonomic functionality. 
+The body of the faucet is constructed from polished metal, exhibiting a chrome finish that reflects light, indicative of the materials used during the period of manufacture. The spout extends in a curved manner, allowing for practical water flow into a sink or basin. A small, white plastic tube is visible at the end of the spout, which may have served as a connection point for water delivery, although its current condition suggests it may be non-functional or deteriorated.
+Visible wear on the surface of the faucet indicates its usage over time, with slight tarnishing and scratches present, particularly on the chrome finish. The faucet appears to have been well-maintained, but the presence of some corrosion suggests it has been exposed to moisture, a common issue for plumbing fixtures. The overall design reflects the industrial aesthetic of the 1960s and 1970s, a period marked by a focus on functionalism and simplicity in household appliances.
+The historical context of this faucet aligns with the post-war era, where there was a significant shift towards modern conveniences in domestic life, driven by technological advancements and a growing consumer culture. The design philosophy of this period emphasized both utility and style, as seen in the choice of materials and form.
+### Material / Technique:
+The faucet is primarily made of metal, specifically polished chrome, which is evident from the reflective surface visible in the photographs. The handles appear to be made of a durable plastic, likely Bakelite or a similar material, which was commonly used during the mid-20th century for its resilience and aesthetic qualities. The small tube at the end of the spout is made of plastic. Assumptions regarding the materials are based on visual analysis.
+### Dimensions:
+The dimensions of the object are recorded as 230 x 130 x 150 mm, with a weight of 0.58 kg (metadata).
+### Provenance / Ownership history:
+Not available.
+### Links / Sources:
+- **Primary museum metadata:** Inventory number: 1/1997/0545 0
+- **Literature references:** Not available.
+- **Web resources:** Not available.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+[Appliance] AEG [Model not specified] [Electric appliance], Nr. 1/1997/0546 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric appliance manufactured by AEG, likely produced between 1896 and 1906 (metadata). It features a cylindrical body made of polished metal, which is indicative of the design aesthetics of the late 19th century, emphasizing both functionality and elegance. The appliance is mounted on a wooden base, which adds a touch of warmth and contrasts with the metallic surface. 
+Visible in the photographs, the appliance has a prominent brass valve on one end, which is likely used for controlling the flow of steam or air, suggesting its function as a heating or steaming device. The presence of a glass bulb, which appears to be a part of the electrical mechanism, indicates that this appliance may have been an early example of electric heating technology. The device is equipped with a power cord and plug, which are consistent with the electrical appliances of the era.
+The overall condition of the object appears to be well-preserved, with minimal visible wear. However, the power cord may not be original, as it shows signs of modern construction. The wooden base is intact, providing stability and aesthetic appeal. The design reflects the industrial innovations of the time, where AEG was a significant player in the development of household appliances, contributing to the modernization of domestic life.
+**Material / Technique:**  
+The appliance is primarily constructed from metal, with a polished finish. The base is made of wood, and there are visible brass components. The glass bulb is also a notable feature. Assumptions regarding other materials are not available.
+**Dimensions:**  
+According to the metadata, the dimensions of the object are approximately 450 x 175 x 200 mm, with a weight of 2.5 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0546 0.
+- Literature references: Kelling, Ingeborg. *Alles elektrisch: 100 Jahre AEG Hausgeräte*. Nürnberg: AEG Hausgeräte, 1989.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+[Gerät] AEG [Modell nicht spezifiziert] [Elektrisches Gerät], Nr. 1/1997/0546 0
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein elektrisches Gerät, das von AEG hergestellt wurde, wahrscheinlich zwischen 1896 und 1906 (Metadaten). Es hat einen zylindrischen Körper aus poliertem Metall, was auf die Designästhetik des späten 19. Jahrhunderts hinweist, die sowohl Funktionalität als auch Eleganz betont. Das Gerät ist auf einer Holzbasis montiert, die einen Hauch von Wärme hinzufügt und im Kontrast zur metallischen Oberfläche steht.
+In den Fotografien sichtbar, hat das Gerät ein auffälliges Messingventil an einem Ende, das wahrscheinlich zur Steuerung des Dampf- oder Luftstroms verwendet wird, was auf seine Funktion als Heiz- oder Dampfvorrichtung hindeutet. Die Anwesenheit einer Glühbirne, die Teil des elektrischen Mechanismus zu sein scheint, deutet darauf hin, dass dieses Gerät ein frühes Beispiel für elektrische Heiztechnologie sein könnte. Das Gerät ist mit einem Stromkabel und Stecker ausgestattet, die mit den elektrischen Geräten dieser Ära übereinstimmen.
+Der allgemeine Zustand des Objekts scheint gut erhalten zu sein, mit minimal sichtbarem Verschleiß. Das Stromkabel könnte jedoch nicht original sein, da es Anzeichen moderner Konstruktion zeigt. Die Holzbasis ist intakt und bietet Stabilität sowie ästhetische Anziehungskraft. Das Design spiegelt die industriellen Innovationen der Zeit wider, in der AEG ein bedeutender Akteur in der Entwicklung von Haushaltsgeräten war und zur Modernisierung des häuslichen Lebens beitrug.
+**Material / Technique:**  
+Das Gerät besteht hauptsächlich aus Metall mit einer polierten Oberfläche. Die Basis ist aus Holz gefertigt, und es sind sichtbare Messingkomponenten vorhanden. Die Glühbirne ist ebenfalls ein bemerkenswertes Merkmal. Annahmen zu anderen Materialien sind nicht verfügbar.
+**Dimensions:**  
+Laut den Metadaten betragen die Abmessungen des Objekts ungefähr 450 x 175 x 200 mm, mit einem Gewicht von 2,5 kg.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0546 0.
+- Literaturverweise: Kelling, Ingeborg. *Alles elektrisch: 100 Jahre AEG Hausgeräte*. Nürnberg: AEG Hausgeräte, 1989.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+[Urządzenie] AEG [Model nieokreślony] [Urządzenie elektryczne], Nr. 1/1997/0546 0
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt jest urządzeniem elektrycznym wyprodukowanym przez AEG, prawdopodobnie w latach 1896-1906 (metadane). Posiada cylindryczne ciało wykonane z polerowanego metalu, co wskazuje na estetykę projektowania z końca XIX wieku, podkreślając zarówno funkcjonalność, jak i elegancję. Urządzenie jest zamontowane na drewnianej podstawie, co dodaje ciepła i kontrastuje z metalową powierzchnią.
+Widoczne na fotografiach, urządzenie ma wyraźny zawór mosiężny na jednym końcu, który prawdopodobnie służy do kontrolowania przepływu pary lub powietrza, co sugeruje jego funkcję jako urządzenia grzewczego lub parowego. Obecność żarówki, która wydaje się być częścią mechanizmu elektrycznego, wskazuje, że to urządzenie może być wczesnym przykładem technologii grzewczej na prąd. Urządzenie jest wyposażone w przewód zasilający i wtyczkę, które są zgodne z urządzeniami elektrycznymi tamtej epoki.
+Ogólny stan obiektu wydaje się być dobrze zachowany, z minimalnym widocznym zużyciem. Jednak przewód zasilający może nie być oryginalny, ponieważ wykazuje oznaki nowoczesnej konstrukcji. Drewniana podstawa jest nienaruszona, zapewniając stabilność i atrakcyjność estetyczną. Projekt odzwierciedla innowacje przemysłowe tamtych czasów, w których AEG był znaczącym graczem w rozwoju urządzeń gospodarstwa domowego, przyczyniając się do modernizacji życia domowego.
+**Material / Technique:**  
+Urządzenie jest głównie wykonane z metalu, z polerowanym wykończeniem. Podstawa wykonana jest z drewna, a widoczne są również elementy mosiężne. Żarówka jest również istotnym elementem. Założenia dotyczące innych materiałów są niedostępne.
+**Dimensions:**  
+Zgodnie z metadanymi, wymiary obiektu wynoszą około 450 x 175 x 200 mm, a waga to 2,5 kg.
+**Provenance / Ownership history:**  
+Niedostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarza 1/1997/0546 0.
+- Odniesienia literaturowe: Kelling, Ingeborg. *Alles elektrisch: 100 Jahre AEG Hausgeräte*. Nürnberg: AEG Hausgeräte, 1989.
+- Zasoby internetowe: Niedostępne.
+---
+### French Version
+**Object Title / Type:**  
+[Appareil] AEG [Modèle non spécifié] [Appareil électrique], Nr. 1/1997/0546 0
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un appareil électrique fabriqué par AEG, probablement produit entre 1896 et 1906 (métadonnées). Il présente un corps cylindrique en métal poli, ce qui est indicatif de l'esthétique de conception de la fin du XIXe siècle, mettant en avant à la fois fonctionnalité et élégance. L'appareil est monté sur une base en bois, ajoutant une touche de chaleur et contrastant avec la surface métallique.
+Visible sur les photographies, l'appareil possède une vanne en laiton proéminente à une extrémité, qui est probablement utilisée pour contrôler le flux de vapeur ou d'air, suggérant sa fonction en tant qu'appareil de chauffage ou de vapeur. La présence d'une ampoule en verre, qui semble faire partie du mécanisme électrique, indique que cet appareil pourrait être un exemple précoce de technologie de chauffage électrique. L'appareil est équipé d'un cordon d'alimentation et d'une prise, qui sont conformes aux appareils électriques de l'époque.
+L'état général de l'objet semble être bien conservé, avec un minimum d'usure visible. Cependant, le cordon d'alimentation pourrait ne pas être d'origine, car il montre des signes de construction moderne. La base en bois est intacte, offrant stabilité et attrait esthétique. Le design reflète les innovations industrielles de l'époque, où AEG était un acteur majeur dans le développement des appareils ménagers, contribuant à la modernisation de la vie domestique.
+**Material / Technique:**  
+L'appareil est principalement construit en métal, avec une finition polie. La base est en bois, et il y a des composants en laiton visibles. L'ampoule en verre est également une caractéristique notable. Les hypothèses concernant d'autres matériaux ne sont pas disponibles.
+**Dimensions:**  
+Selon les métadonnées, les dimensions de l'objet sont d'environ 450 x 175 x 200 mm, avec un poids de 2,5 kg.
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0546 0.
+- Références littéraires : Kelling, Ingeborg. *Alles elektrisch: 100 Jahre AEG Hausgeräte*. Nürnberg : AEG Hausgeräte, 1989.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Handheld Vacuum Cleaner AEG Black Line, Nr. 1/1997/0548 04
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a handheld vacuum cleaner from the AEG Black Line series, manufactured in 1985 (metadata). The vacuum cleaner features a sleek, ergonomic design characterized by a predominantly black plastic body with glossy finishes, which is typical of consumer electronics from the mid-1980s. The front of the device is tapered, leading to a wide suction nozzle, which enhances its functionality for cleaning various surfaces. 
+Visible inscriptions on the body include "AEG" and "Black Line," indicating the brand and model. The vacuum cleaner is equipped with a prominent red power button located on the top side, which is easily accessible for user convenience. The design incorporates ventilation slots on the side, likely intended for heat dissipation during operation. 
+The functional layout includes a simple on/off switch, with no additional complex controls, reflecting the straightforward usability expected from household appliances of this era. The absence of advanced features suggests that it was designed for basic cleaning tasks, aligning with the consumer needs of the time. 
+In terms of materials, the primary component is plastic, specifically a type that appears to be durable and lightweight, suitable for handheld devices. The finish is glossy, contributing to its aesthetic appeal. There are no visible signs of wear or alterations, indicating that the object is in good condition. 
+The significance of this vacuum cleaner lies in its representation of the evolution of household cleaning appliances during the 1980s, a period marked by increasing consumer demand for convenience and efficiency in home maintenance. AEG, as a manufacturer, was known for its commitment to quality and innovation, which is reflected in the design and functionality of this model.
+**Material / Technique:**  
+Plastic (certain), assumption: glossy finish.
+**Dimensions:**  
+405 x 103 x 100 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0548 04.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Handstaubsauger AEG Black Line, Nr. 1/1997/0548 04
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein Handstaubsauger aus der AEG Black Line-Serie, hergestellt im Jahr 1985 (Metadaten). Der Staubsauger zeichnet sich durch ein schlankes, ergonomisches Design aus, das durch einen überwiegend schwarzen Kunststoffkörper mit glänzenden Oberflächen gekennzeichnet ist, was typisch für Unterhaltungselektronik der Mitte der 1980er Jahre ist. Die Vorderseite des Geräts ist spitz zulaufend und führt zu einer breiten Saugdüse, die die Funktionalität zum Reinigen verschiedener Oberflächen verbessert.
+Sichtbare Inschriften auf dem Gehäuse umfassen "AEG" und "Black Line", die die Marke und das Modell anzeigen. Der Staubsauger ist mit einem auffälligen roten Netzschalter ausgestattet, der sich auf der Oberseite befindet und für den Benutzer leicht zugänglich ist. Das Design umfasst Belüftungsschlitze an der Seite, die wahrscheinlich zur Wärmeableitung während des Betriebs gedacht sind.
+Das funktionale Layout umfasst einen einfachen Ein/Aus-Schalter, ohne zusätzliche komplexe Steuerungen, was die unkomplizierte Benutzbarkeit widerspiegelt, die von Haushaltsgeräten dieser Ära erwartet wird. Das Fehlen fortschrittlicher Funktionen deutet darauf hin, dass es für grundlegende Reinigungsaufgaben konzipiert wurde, was den Verbraucherbedürfnissen der Zeit entspricht.
+In Bezug auf die Materialien besteht die Hauptkomponente aus Kunststoff, insbesondere aus einem Material, das langlebig und leicht zu sein scheint, geeignet für Handgeräte. Die Oberfläche ist glänzend und trägt zur ästhetischen Anziehungskraft bei. Es sind keine sichtbaren Abnutzungserscheinungen oder Änderungen erkennbar, was darauf hindeutet, dass sich das Objekt in gutem Zustand befindet.
+Die Bedeutung dieses Staubsaugers liegt in seiner Repräsentation der Entwicklung von Haushaltsreinigungsgeräten in den 1980er Jahren, einer Zeit, die durch eine steigende Verbrauchernachfrage nach Bequemlichkeit und Effizienz in der Haushaltsführung gekennzeichnet war. AEG als Hersteller war bekannt für sein Engagement für Qualität und Innovation, was sich im Design und in der Funktionalität dieses Modells widerspiegelt.
+**Material / Technik:**  
+Kunststoff (sicher), Annahme: glänzende Oberfläche.
+**Dimensions:**  
+405 x 103 x 100 mm (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0548 04.
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Odkurzacz ręczny AEG Black Line, Nr. 1/1997/0548 04
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to ręczny odkurzacz z serii AEG Black Line, wyprodukowany w 1985 roku (metadane). Odkurzacz charakteryzuje się smukłym, ergonomicznym designem, który cechuje się głównie czarną plastikową obudową z błyszczącym wykończeniem, co jest typowe dla elektroniki użytkowej z połowy lat 80. Przód urządzenia jest zwężający się, prowadząc do szerokiej dyszy ssącej, co zwiększa jego funkcjonalność do czyszczenia różnych powierzchni.
+Widoczne napisy na obudowie to "AEG" i "Black Line", co wskazuje na markę i model. Odkurzacz wyposażony jest w wyraźny czerwony przycisk zasilania umieszczony na górnej stronie, który jest łatwo dostępny dla użytkownika. Projekt zawiera otwory wentylacyjne po bokach, które prawdopodobnie mają na celu odprowadzanie ciepła podczas pracy.
+Funkcjonalny układ obejmuje prosty włącznik/wyłącznik, bez dodatkowych skomplikowanych elementów sterujących, co odzwierciedla prostotę użytkowania oczekiwaną od urządzeń gospodarstwa domowego z tej epoki. Brak zaawansowanych funkcji sugeruje, że został zaprojektowany do podstawowych zadań czyszczenia, co odpowiada potrzebom konsumentów tamtych czasów.
+Jeśli chodzi o materiały, głównym składnikiem jest plastik, szczególnie rodzaj, który wydaje się być trwały i lekki, odpowiedni dla urządzeń ręcznych. Wykończenie jest błyszczące, co przyczynia się do jego atrakcyjności estetycznej. Nie widać widocznych oznak zużycia ani zmian, co wskazuje, że obiekt jest w dobrym stanie.
+Znaczenie tego odkurzacza polega na jego reprezentacji ewolucji urządzeń do sprzątania w latach 80., okresie charakteryzującym się rosnącym zapotrzebowaniem konsumentów na wygodę i efektywność w utrzymaniu domu. AEG, jako producent, był znany z zaangażowania w jakość i innowacje, co znajduje odzwierciedlenie w designie i funkcjonalności tego modelu.
+**Material / Technique:**  
+Plastik (pewne), przypuszczenie: błyszczące wykończenie.
+**Dimensions:**  
+405 x 103 x 100 mm (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarza 1/1997/0548 04.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Aspirateur à main AEG Black Line, Nr. 1/1997/0548 04
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un aspirateur à main de la série AEG Black Line, fabriqué en 1985 (métadonnées). L'aspirateur présente un design élégant et ergonomique, caractérisé par un corps en plastique noir dominant avec des finitions brillantes, typique des appareils électroniques de consommation des années 1980. L'avant de l'appareil est effilé, menant à une large buse d'aspiration, ce qui améliore sa fonctionnalité pour nettoyer diverses surfaces.
+Les inscriptions visibles sur le corps incluent "AEG" et "Black Line", indiquant la marque et le modèle. L'aspirateur est équipé d'un bouton d'alimentation rouge bien en vue situé sur le dessus, facilement accessible pour l'utilisateur. Le design intègre des fentes de ventilation sur le côté, probablement destinées à la dissipation de la chaleur pendant le fonctionnement.
+La disposition fonctionnelle comprend un simple interrupteur marche/arrêt, sans commandes complexes supplémentaires, reflétant la facilité d'utilisation attendue des appareils ménagers de cette époque. L'absence de fonctionnalités avancées suggère qu'il a été conçu pour des tâches de nettoyage de base, en accord avec les besoins des consommateurs de l'époque.
+En termes de matériaux, la composante principale est en plastique, spécifiquement un type qui semble durable et léger, adapté aux appareils portables. La finition est brillante, contribuant à son attrait esthétique. Il n'y a pas de signes visibles d'usure ou de modifications, indiquant que l'objet est en bon état.
+La signification de cet aspirateur réside dans sa représentation de l'évolution des appareils de nettoyage ménagers durant les années 1980, une période marquée par une demande croissante des consommateurs pour la commodité et l'efficacité dans l'entretien domestique. AEG, en tant que fabricant, était connu pour son engagement envers la qualité et l'innovation, ce qui se reflète dans le design et la fonctionnalité de ce modèle.
+**Material / Technique:**  
+Plastique (certain), hypothèse : finition brillante.
+**Dimensions:**  
+405 x 103 x 100 mm (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées muséales primaires : numéro d'inventaire 1/1997/0548 04.
+- Références littéraires : Non disponible.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Handheld Vacuum Cleaner AEG LILIPUT, Nr. 1/1997/0549 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The AEG LILIPUT handheld vacuum cleaner, produced in the 1980s, exemplifies the design and functionality of portable cleaning devices from this era. The object features a streamlined, ergonomic design, characterized by a predominantly beige plastic casing that reflects the aesthetic preferences of the time. The vacuum cleaner is equipped with a prominent on/off switch located on the top, facilitating ease of use. The design includes a tapered nozzle, which enhances its ability to reach confined spaces, making it practical for everyday cleaning tasks.
+Visible in the photographs, the vacuum cleaner has a ribbed grip on the handle, providing a secure hold during operation. The body of the device is adorned with a subtle branding label, "AEG," indicating its manufacturer. The side of the cleaner features ventilation slots, which likely serve to dissipate heat generated during use, ensuring optimal performance. The overall construction appears robust, suggesting durability, although signs of wear may be present due to previous usage.
+The materials used in the construction, as noted in the metadata, include paper fiber, textile fabric, and rubber. The rubber components are likely utilized in the seals or grips, enhancing the user experience. The dimensions of the vacuum cleaner are approximately 86 mm in height and 90 mm in diameter, with a weight of 0.15 kg, making it lightweight and portable (metadata).
+Historically, the AEG LILIPUT reflects the growing trend of compact and efficient household appliances during the late 20th century, catering to the needs of modern households. The design philosophy of this period emphasized functionality and user-friendliness, which is evident in the LILIPUT's straightforward operation and compact form. This model may be compared to earlier vacuum designs, which were often bulkier and less user-friendly, marking a significant evolution in domestic cleaning technology.
+**Material / Technique:**  
+The vacuum cleaner is primarily constructed from plastic, with rubber components for grips and seals. The specific materials identified include paper fiber, textile fabric, and rubber, as noted in the metadata. Assumptions regarding additional materials are not available.
+**Dimensions:**  
+Height: 86 mm; Diameter: 90 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0549 01.
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Handstaubsauger AEG LILIPUT, Nr. 1/1997/0549 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Der Handstaubsauger AEG LILIPUT, hergestellt in den 1980er Jahren, verkörpert das Design und die Funktionalität tragbarer Reinigungsgeräte dieser Ära. Das Objekt weist ein stromlinienförmiges, ergonomisches Design auf, das durch ein überwiegend beiges Kunststoffgehäuse geprägt ist und die ästhetischen Vorlieben der Zeit widerspiegelt. Der Staubsauger ist mit einem auffälligen Ein/Aus-Schalter ausgestattet, der sich an der Oberseite befindet und eine einfache Handhabung ermöglicht. Das Design umfasst eine verjüngte Düse, die ihre Fähigkeit verbessert, enge Räume zu erreichen, was sie praktisch für alltägliche Reinigungsaufgaben macht.
+In den Fotografien sichtbar, hat der Staubsauger einen geriffelten Griff, der einen sicheren Halt während des Betriebs bietet. Der Körper des Geräts ist mit einem dezenten Markenlabel "AEG" versehen, das den Hersteller anzeigt. An der Seite des Staubsaugers befinden sich Belüftungsschlitze, die wahrscheinlich dazu dienen, die während des Gebrauchs erzeugte Wärme abzuleiten und eine optimale Leistung sicherzustellen. Die gesamte Konstruktion wirkt robust und deutet auf Langlebigkeit hin, obwohl Gebrauchsspuren vorhanden sein können.
+Die in der Konstruktion verwendeten Materialien, wie im Metadaten angegeben, umfassen Papierfaser, Textilgewebe und Gummi. Die Gummikomponenten werden wahrscheinlich in den Dichtungen oder Griffen verwendet, um das Benutzererlebnis zu verbessern. Die Abmessungen des Staubsaugers betragen etwa 86 mm in der Höhe und 90 mm im Durchmesser, mit einem Gewicht von 0,15 kg, was ihn leicht und tragbar macht (Metadaten).
+Historisch gesehen spiegelt der AEG LILIPUT den wachsenden Trend kompakter und effizienter Haushaltsgeräte im späten 20. Jahrhundert wider, die den Bedürfnissen moderner Haushalte gerecht werden. Die Designphilosophie dieser Zeit betonte Funktionalität und Benutzerfreundlichkeit, was sich im einfachen Betrieb und der kompakten Form des LILIPUT zeigt. Dieses Modell kann mit früheren Staubsaugerdesigns verglichen werden, die oft voluminöser und weniger benutzerfreundlich waren, was eine bedeutende Evolution in der Technologie der Haushaltsreinigung markiert.
+**Material / Technik:**  
+Der Staubsauger besteht hauptsächlich aus Kunststoff, mit Gummikomponenten für Griffe und Dichtungen. Die spezifischen Materialien umfassen Papierfaser, Textilgewebe und Gummi, wie in den Metadaten angegeben. Annahmen zu zusätzlichen Materialien sind nicht verfügbar.
+**Dimensions:**  
+Höhe: 86 mm; Durchmesser: 90 mm (Metadaten).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0549 01.
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Odkurzacz ręczny AEG LILIPUT, Nr. 1/1997/0549 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Odkurzacz ręczny AEG LILIPUT, wyprodukowany w latach 80. XX wieku, stanowi przykład designu i funkcjonalności przenośnych urządzeń czyszczących z tego okresu. Obiekt charakteryzuje się opływowym, ergonomicznym kształtem, z dominującą beżową obudową z tworzywa sztucznego, która odzwierciedla estetyczne preferencje tamtych czasów. Odkurzacz wyposażony jest w wyraźny włącznik/wyłącznik umieszczony na górze, co ułatwia jego obsługę. Projekt obejmuje zwężającą się dyszę, co zwiększa jego zdolność do dotarcia do ciasnych przestrzeni, co czyni go praktycznym narzędziem do codziennych zadań czyszczących.
+Widoczny na fotografiach, odkurzacz ma ryflowany uchwyt, który zapewnia pewny chwyt podczas pracy. Obudowa urządzenia ozdobiona jest subtelną etykietą z logo "AEG", wskazującą na producenta. Z boku odkurzacza znajdują się otwory wentylacyjne, które prawdopodobnie służą do odprowadzania ciepła generowanego podczas użytkowania, zapewniając optymalną wydajność. Cała konstrukcja wydaje się solidna, co sugeruje trwałość, chociaż mogą być widoczne ślady zużycia.
+Materiały użyte w konstrukcji, jak podano w metadanych, obejmują włókno papierowe, tkaninę tekstylną i gumę. Komponenty gumowe są prawdopodobnie wykorzystywane w uszczelkach lub uchwytach, co poprawia komfort użytkowania. Wymiary odkurzacza wynoszą około 86 mm wysokości i 90 mm średnicy, a jego waga to 0,15 kg, co czyni go lekkim i przenośnym (metadane).
+Historycznie, AEG LILIPUT odzwierciedla rosnący trend kompaktowych i wydajnych urządzeń gospodarstwa domowego pod koniec XX wieku, odpowiadając na potrzeby nowoczesnych gospodarstw domowych. Filozofia projektowania tego okresu kładła nacisk na funkcjonalność i łatwość obsługi, co widać w prostocie działania i kompaktowej formie LILIPUTA. Model ten można porównać do wcześniejszych projektów odkurzaczy, które były często większe i mniej przyjazne dla użytkownika, co stanowi znaczną ewolucję w technologii czyszczenia domowego.
+**Material / Technique:**  
+Odkurzacz wykonany jest głównie z tworzywa sztucznego, z komponentami gumowymi do uchwytów i uszczelek. Wskazane materiały to włókno papierowe, tkanina tekstylna i guma, jak podano w metadanych. Założenia dotyczące dodatkowych materiałów są niedostępne.
+**Dimensions:**  
+Wysokość: 86 mm; Średnica: 90 mm (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarza 1/1997/0549 01.
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Aspirateur à main AEG LILIPUT, Nr. 1/1997/0549 01
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'aspirateur à main AEG LILIPUT, fabriqué dans les années 1980, illustre le design et la fonctionnalité des appareils de nettoyage portables de cette époque. L'objet présente un design aérodynamique et ergonomique, caractérisé par un boîtier en plastique beige prédominant qui reflète les préférences esthétiques de l'époque. L'aspirateur est équipé d'un interrupteur marche/arrêt bien visible situé sur le dessus, facilitant son utilisation. Le design comprend une buse effilée, qui améliore sa capacité à atteindre des espaces confinés, le rendant pratique pour les tâches de nettoyage quotidiennes.
+Visible sur les photographies, l'aspirateur possède une poignée rainurée, offrant une prise sécurisée pendant l'utilisation. Le corps de l'appareil est orné d'une étiquette de marque discrète, "AEG", indiquant son fabricant. Sur le côté de l'aspirateur, des fentes de ventilation sont présentes, probablement destinées à dissiper la chaleur générée lors de l'utilisation, garantissant ainsi des performances optimales. La construction générale semble robuste, suggérant une durabilité, bien que des signes d'usure puissent être présents en raison d'une utilisation antérieure.
+Les matériaux utilisés dans la construction, comme indiqué dans les métadonnées, comprennent de la fibre de papier, du tissu textile et du caoutchouc. Les composants en caoutchouc sont probablement utilisés dans les joints ou les poignées, améliorant l'expérience utilisateur. Les dimensions de l'aspirateur sont d'environ 86 mm de hauteur et 90 mm de diamètre, avec un poids de 0,15 kg, ce qui le rend léger et portable (métadonnées).
+Historiquement, l'AEG LILIPUT reflète la tendance croissante des appareils ménagers compacts et efficaces à la fin du XXe siècle, répondant aux besoins des ménages modernes. La philosophie de design de cette période mettait l'accent sur la fonctionnalité et la convivialité, ce qui est évident dans le fonctionnement simple et la forme compacte du LILIPUT. Ce modèle peut être comparé à des conceptions d'aspirateurs antérieures, qui étaient souvent plus encombrantes et moins conviviales, marquant une évolution significative de la technologie de nettoyage domestique.
+**Material / Technique:**  
+L'aspirateur est principalement fabriqué en plastique, avec des composants en caoutchouc pour les poignées et les joints. Les matériaux spécifiques identifiés comprennent de la fibre de papier, du tissu textile et du caoutchouc, comme indiqué dans les métadonnées. Les hypothèses concernant des matériaux supplémentaires ne sont pas disponibles.
+**Dimensions:**  
+Hauteur : 86 mm ; Diamètre : 90 mm (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées muséales primaires : Numéro d'inventaire 1/1997/0549 01.
+- Références littéraires : Non disponible.
+- Ressources web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Stamping Tool AEG AG, Nr. 1/1997/0551 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a stamping tool manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG AG), characterized by its distinctive design and functional utility. The tool features a wooden handle that tapers towards the base, providing a comfortable grip for the user. The handle is finished in a natural wood tone, exhibiting a smooth surface with minor wear, indicative of its use over time. A small logo or emblem is visible on the handle, although the details are partially obscured and cannot be fully deciphered.
+At the base of the handle, a brass or bronze cap is affixed, which houses the stamping mechanism. The cap is circular and features the inscription "V E R" on its surface, suggesting its function in marking or stamping materials. The overall design reflects the industrial aesthetic prevalent in the early to mid-20th century, aligning with AEG's reputation for producing functional yet elegantly designed tools.
+The significance of this object lies in its representation of the craftsmanship and industrial design philosophy of the time. AEG AG was known for its innovative contributions to electrical engineering and manufacturing, and this tool exemplifies the company's commitment to quality and functionality. The use of wood and metal in its construction not only highlights the materials available during its production but also reflects the design trends that favored a combination of natural and industrial elements.
+**Material / Technique:**  
+The tool is primarily constructed from wood and brass. The handle is made of wood, while the base is likely brass, as indicated by its color and finish. The exact type of wood is not specified, and the presence of any additional materials is not available.
+**Dimensions:**  
+Diameter: 35 mm; Height: 110 mm (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0551 0.
+- Literature references: not available.
+- Web resources: not available.
+---
+### German Version
+**Object Title / Type:**  
+Stempelwerkzeug AEG AG, Nr. 1/1997/0551 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein Stempelwerkzeug, das von der Allgemeinen Elektricitäts-Gesellschaft (AEG AG) hergestellt wurde und sich durch sein markantes Design und seine funktionale Nützlichkeit auszeichnet. Das Werkzeug verfügt über einen Holzgriff, der sich zur Basis hin verjüngt und dem Benutzer einen komfortablen Halt bietet. Der Griff ist in einem natürlichen Holzton gehalten und zeigt eine glatte Oberfläche mit geringfügigen Abnutzungserscheinungen, die auf seine Nutzung im Laufe der Zeit hinweisen. Ein kleines Logo oder Emblem ist am Griff sichtbar, obwohl die Details teilweise verdeckt sind und nicht vollständig entschlüsselt werden können.
+An der Basis des Griffs ist eine Messing- oder Bronzeabdeckung angebracht, die den Stempelmechanismus beherbergt. Die Abdeckung ist kreisförmig und trägt die Inschrift "V E R" auf ihrer Oberfläche, was auf ihre Funktion beim Markieren oder Stempeln von Materialien hinweist. Das Gesamtdesign spiegelt die industrielle Ästhetik wider, die in der ersten Hälfte des 20. Jahrhunderts vorherrschte, und steht im Einklang mit dem Ruf von AEG, funktionale und elegant gestaltete Werkzeuge herzustellen.
+Die Bedeutung dieses Objekts liegt in seiner Darstellung des Handwerks und der Industriedesign-Philosophie der Zeit. AEG AG war bekannt für ihre innovativen Beiträge zur Elektrotechnik und Fertigung, und dieses Werkzeug exemplifiziert das Engagement des Unternehmens für Qualität und Funktionalität. Die Verwendung von Holz und Metall in seiner Konstruktion hebt nicht nur die während seiner Produktion verfügbaren Materialien hervor, sondern spiegelt auch die Designtrends wider, die eine Kombination aus natürlichen und industriellen Elementen bevorzugten.
+**Material / Technik:**  
+Das Werkzeug besteht hauptsächlich aus Holz und Messing. Der Griff ist aus Holz gefertigt, während die Basis wahrscheinlich aus Messing besteht, wie durch seine Farbe und Oberfläche angezeigt. Der genaue Holztyp ist nicht angegeben, und die Anwesenheit zusätzlicher Materialien ist nicht verfügbar.
+**Dimensions:**  
+Durchmesser: 35 mm; Höhe: 110 mm (Metadaten).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0551 0.
+- Literaturverweise: nicht verfügbar.
+- Webressourcen: nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Narzędzie stemplarskie AEG AG, Nr. 1/1997/0551 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt jest narzędziem stemplarskim wyprodukowanym przez Allgemeine Elektricitäts-Gesellschaft (AEG AG), charakteryzującym się wyrazistym designem i funkcjonalnością. Narzędzie ma drewniany uchwyt, który zwęża się ku podstawie, co zapewnia wygodny chwyt dla użytkownika. Uchwyt jest wykończony w naturalnym odcieniu drewna, z gładką powierzchnią i drobnymi śladami zużycia, co wskazuje na jego użytkowanie w czasie. Na uchwycie widoczna jest mała logo lub emblemat, chociaż szczegóły są częściowo zasłonięte i nie mogą być w pełni odczytane.
+Na podstawie uchwytu znajduje się mosiężna lub brązowa osłona, która mieści mechanizm stemplarski. Osłona jest okrągła i ma na swojej powierzchni napis "V E R", co sugeruje jej funkcję w oznaczaniu lub stemplowaniu materiałów. Całość designu odzwierciedla estetykę przemysłową, która była powszechna w pierwszej połowie XX wieku, co jest zgodne z reputacją AEG za produkcję funkcjonalnych, a jednocześnie elegancko zaprojektowanych narzędzi.
+Znaczenie tego obiektu polega na jego reprezentacji rzemiosła i filozofii projektowania przemysłowego tamtego okresu. AEG AG była znana z innowacyjnych wkładów w inżynierię elektryczną i produkcję, a to narzędzie ilustruje zaangażowanie firmy w jakość i funkcjonalność. Użycie drewna i metalu w jego konstrukcji podkreśla nie tylko materiały dostępne w czasie produkcji, ale także odzwierciedla trendy projektowe, które preferowały połączenie elementów naturalnych i przemysłowych.
+**Material / Technique:**  
+Narzędzie jest głównie wykonane z drewna i mosiądzu. Uchwyt jest wykonany z drewna, podczas gdy podstawa jest prawdopodobnie z mosiądzu, co sugeruje jego kolor i wykończenie. Dokładny typ drewna nie jest określony, a obecność dodatkowych materiałów nie jest dostępna.
+**Dimensions:**  
+Średnica: 35 mm; Wysokość: 110 mm (metadane).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarza 1/1997/0551 0.
+- Odniesienia literaturowe: nie dostępne.
+- Zasoby internetowe: nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Outil de marquage AEG AG, Nr. 1/1997/0551 0
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un outil de marquage fabriqué par l'Allgemeine Elektricitäts-Gesellschaft (AEG AG), caractérisé par son design distinctif et son utilité fonctionnelle. L'outil possède une poignée en bois qui se rétrécit vers la base, offrant une prise confortable pour l'utilisateur. La poignée est finie dans une teinte naturelle de bois, présentant une surface lisse avec de légères marques d'usure, indicatives de son utilisation au fil du temps. Un petit logo ou emblème est visible sur la poignée, bien que les détails soient partiellement obscurcis et ne puissent être entièrement déchiffrés.
+À la base de la poignée, un capuchon en laiton ou en bronze est fixé, abritant le mécanisme de marquage. Le capuchon est circulaire et présente l'inscription "V E R" sur sa surface, suggérant sa fonction de marquage ou d'estampillage de matériaux. Le design global reflète l'esthétique industrielle prédominante au début et au milieu du XXe siècle, en accord avec la réputation d'AEG pour la production d'outils fonctionnels mais élégamment conçus.
+La signification de cet objet réside dans sa représentation de l'artisanat et de la philosophie du design industriel de l'époque. AEG AG était connue pour ses contributions innovantes à l'ingénierie électrique et à la fabrication, et cet outil illustre l'engagement de l'entreprise envers la qualité et la fonctionnalité. L'utilisation du bois et du métal dans sa construction met en évidence non seulement les matériaux disponibles lors de sa production, mais reflète également les tendances de design qui favorisaient une combinaison d'éléments naturels et industriels.
+**Material / Technique:**  
+L'outil est principalement construit en bois et en laiton. La poignée est en bois, tandis que la base est probablement en laiton, comme l'indiquent sa couleur et sa finition. Le type exact de bois n'est pas spécifié, et la présence de matériaux supplémentaires n'est pas disponible.
+**Dimensions:**  
+Diamètre : 35 mm ; Hauteur : 110 mm (métadonnées).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Métadonnées muséales primaires : numéro d'inventaire 1/1997/0551 0.
+- Références littéraires : non disponibles.
+- Ressources Web : non disponibles.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Massage Apparatus AEG, Nr. 1/1997/0552
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a massage apparatus manufactured by Allgemeine Elektricitäts-Gesellschaft (AEG) around 1930, as indicated by the metadata. The apparatus features a cylindrical body predominantly made of painted metal, with a notable wear pattern that suggests extensive use. The upper section of the device is characterized by a series of ventilation holes, which are likely designed to dissipate heat generated during operation. The front of the apparatus displays a metal plaque inscribed with "AEG Massage Apparart Nr. 1, Aufnahme 120 W, DRP ang." This inscription indicates the model number and power consumption, reflecting the technological standards of the time.
+The apparatus is equipped with a handle that appears to be made of rubber or a similar material, providing ergonomic support for the user. The base features two metal knobs, which may serve as adjustment controls for the intensity of the massage. The overall design reflects the industrial aesthetic of the early 20th century, characterized by functional simplicity and utilitarian form. 
+In terms of social context, this device represents the growing interest in personal health and wellness during the early 20th century, a period marked by advancements in electrical appliances aimed at improving everyday life. The use of such devices was likely popular among middle-class households, reflecting a shift towards self-care practices. The design philosophy of AEG during this era emphasized both functionality and durability, which can be seen in the robust construction of the apparatus.
+**Material / Technique:**  
+The primary materials identified include painted metal and rubber. The exact composition of the internal components is not visible, thus remains uncertain. 
+**Dimensions:**  
+The dimensions of the object are recorded as 225 x 170 x 230 mm, with a weight of 6.38 kg (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0552
+- Literature references: Not available.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Massageapparat AEG, Nr. 1/1997/0552
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein Massageapparat, der um 1930 von der Allgemeinen Elektricitäts-Gesellschaft (AEG) hergestellt wurde, wie die Metadaten angeben. Der Apparat hat einen zylindrischen Körper, der überwiegend aus lackiertem Metall besteht, mit einem auffälligen Abnutzungsschema, das auf eine extensive Nutzung hindeutet. Der obere Teil des Geräts ist durch eine Reihe von Belüftungsöffnungen gekennzeichnet, die wahrscheinlich dazu dienen, die während des Betriebs erzeugte Wärme abzuleiten. An der Vorderseite des Apparats befindet sich eine Metallplakette mit der Aufschrift "AEG Massage Apparart Nr. 1, Aufnahme 120 W, DRP ang." Diese Inschrift gibt die Modellnummer und den Stromverbrauch an und spiegelt die technologischen Standards der damaligen Zeit wider.
+Der Apparat ist mit einem Griff ausgestattet, der aus Gummi oder einem ähnlichen Material zu bestehen scheint und ergonomische Unterstützung für den Benutzer bietet. Die Basis verfügt über zwei Metallknöpfe, die als Einstellkontrollen für die Intensität der Massage dienen könnten. Das Gesamtdesign spiegelt die industrielle Ästhetik des frühen 20. Jahrhunderts wider, die durch funktionale Einfachheit und utilitaristische Form gekennzeichnet ist.
+In sozialer Hinsicht repräsentiert dieses Gerät das wachsende Interesse an persönlicher Gesundheit und Wellness im frühen 20. Jahrhundert, einer Zeit, die durch Fortschritte bei elektrischen Geräten gekennzeichnet ist, die darauf abzielen, das tägliche Leben zu verbessern. Die Verwendung solcher Geräte war wahrscheinlich in Haushalten der Mittelklasse beliebt und spiegelt einen Wandel hin zu Selbstpflegepraktiken wider. Die Designphilosophie von AEG in dieser Ära betonte sowohl Funktionalität als auch Langlebigkeit, was sich in der robusten Konstruktion des Apparats zeigt.
+**Material / Technik:**  
+Die identifizierten Hauptmaterialien umfassen lackiertes Metall und Gummi. Die genaue Zusammensetzung der internen Komponenten ist nicht sichtbar und bleibt daher ungewiss.
+**Dimensions:**  
+Die Abmessungen des Objekts sind mit 225 x 170 x 230 mm und einem Gewicht von 6,38 kg (Metadaten) verzeichnet.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0552
+- Literaturverweise: Nicht verfügbar.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Aparat do masażu AEG, Nr. 1/1997/0552
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to aparat do masażu wyprodukowany przez Allgemeine Elektricitäts-Gesellschaft (AEG) około 1930 roku, co wskazują metadane. Aparat ma cylindryczne ciało, które w przeważającej części wykonane jest z malowanego metalu, z zauważalnym wzorem zużycia, co sugeruje intensywne użytkowanie. Górna część urządzenia charakteryzuje się serią otworów wentylacyjnych, które prawdopodobnie mają na celu odprowadzanie ciepła generowanego podczas pracy. Z przodu aparatu znajduje się metalowa tabliczka z napisem "AEG Massage Apparart Nr. 1, Aufnahme 120 W, DRP ang." Ta inskrypcja wskazuje numer modelu i zużycie energii, odzwierciedlając standardy technologiczne tamtego okresu.
+Aparat wyposażony jest w uchwyt, który wydaje się być wykonany z gumy lub podobnego materiału, zapewniając ergonomiczne wsparcie dla użytkownika. Podstawa ma dwa metalowe pokrętła, które mogą służyć jako kontrolki do regulacji intensywności masażu. Ogólny design odzwierciedla estetykę przemysłową wczesnego XX wieku, charakteryzującą się funkcjonalną prostotą i użyteczną formą.
+W kontekście społecznym, to urządzenie reprezentuje rosnące zainteresowanie zdrowiem osobistym i wellness w wczesnym XX wieku, okresie charakteryzującym się postępem w dziedzinie urządzeń elektrycznych mających na celu poprawę codziennego życia. Użycie takich urządzeń było prawdopodobnie popularne wśród gospodarstw domowych klasy średniej, co odzwierciedla zmianę w kierunku praktyk dbania o siebie. Filozofia projektowania AEG w tym okresie kładła nacisk zarówno na funkcjonalność, jak i trwałość, co można dostrzec w solidnej konstrukcji aparatu.
+**Material / Technique:**  
+Główne materiały to malowane metal i guma. Dokładny skład komponentów wewnętrznych nie jest widoczny, więc pozostaje niepewny.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako 225 x 170 x 230 mm, a waga wynosi 6,38 kg (metadane).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarza 1/1997/0552
+- Odniesienia literaturowe: Nie dostępne.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Appareil de massage AEG, Nr. 1/1997/0552
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un appareil de massage fabriqué par Allgemeine Elektricitäts-Gesellschaft (AEG) vers 1930, comme l'indiquent les métadonnées. L'appareil présente un corps cylindrique principalement en métal peint, avec un motif d'usure notable qui suggère une utilisation extensive. La partie supérieure de l'appareil est caractérisée par une série d'ouvertures de ventilation, probablement conçues pour dissiper la chaleur générée pendant le fonctionnement. À l'avant de l'appareil se trouve une plaque métallique portant l'inscription "AEG Massage Apparart Nr. 1, Aufnahme 120 W, DRP ang." Cette inscription indique le numéro de modèle et la consommation d'énergie, reflétant les normes technologiques de l'époque.
+L'appareil est équipé d'une poignée qui semble être en caoutchouc ou dans un matériau similaire, offrant un soutien ergonomique à l'utilisateur. La base présente deux boutons métalliques, qui peuvent servir de commandes de réglage pour l'intensité du massage. Le design global reflète l'esthétique industrielle du début du XXe siècle, caractérisée par une simplicité fonctionnelle et une forme utilitaire.
+En termes de contexte social, cet appareil représente l'intérêt croissant pour la santé personnelle et le bien-être au début du XXe siècle, une période marquée par des avancées dans les appareils électriques visant à améliorer la vie quotidienne. L'utilisation de tels appareils était probablement populaire parmi les ménages de la classe moyenne, reflétant un changement vers des pratiques de soins personnels. La philosophie de design d'AEG à cette époque mettait l'accent sur la fonctionnalité et la durabilité, ce qui se voit dans la construction robuste de l'appareil.
+**Material / Technique:**  
+Les matériaux principaux identifiés comprennent le métal peint et le caoutchouc. La composition exacte des composants internes n'est pas visible, donc reste incertaine.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme 225 x 170 x 230 mm, avec un poids de 6,38 kg (métadonnées).
+**Provenance / Ownership history:**  
+Non disponible.
+**Links / Sources:**  
+- Métadonnées primaires du musée : Numéro d'inventaire 1/1997/0552
+- Références littéraires : Non disponible.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Metal Block AEG, Nr. 1/1997/0553
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a rectangular metal block, likely a branding or marking tool associated with the Allgemeine Elektricitäts-Gesellschaft (AEG). The visible inscription on one of the longer sides reads "AEG," indicating its connection to the well-known German electrical equipment manufacturer. The block exhibits a polished metallic surface with some signs of wear, including scratches and slight discoloration, which may suggest its use in a manufacturing or branding context. The dimensions of the block are compact, measuring approximately 55 mm in length, 15 mm in width, and 24 mm in height (metadata). This suggests it was designed for practical handling, possibly to be used in conjunction with a press or stamping mechanism.
+The historical significance of AEG cannot be understated, as it played a pivotal role in the development of electrical engineering and household appliances in the late 19th and early 20th centuries. The design philosophy of AEG often emphasized functionality and industrial efficiency, which is reflected in the straightforward form of this object. The use of metal as a material indicates durability, a necessary quality for tools intended for repeated use in industrial settings.
+The object’s condition shows it has been well-preserved despite its evident use, which may indicate its importance in the production processes of AEG. The absence of a specific production year in the metadata leaves its exact historical context somewhat ambiguous, but it is reasonable to assume that it dates back to the early to mid-20th century, aligning with AEG's peak operational years [assumption based on design style].
+**Material / Technique:**  
+The block is constructed from metal, as indicated in the metadata. The surface finish appears polished, though the exact type of metal is not specified. The presence of scratches and wear suggests it has been used extensively, but no repairs or alterations are visible.
+**Dimensions:**  
+Object dimensions are recorded as 55 mm (length) x 15 mm (width) x 24 mm (height) according to the metadata.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0553.
+- No external sources found, description based on visual analysis of the photos.
+---
+### German Version
+**Object Title / Type:**  
+Metallblock AEG, Nr. 1/1997/0553
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein rechteckiger Metallblock, wahrscheinlich ein Branding- oder Markierungswerkzeug, das mit der Allgemeine Elektricitäts-Gesellschaft (AEG) verbunden ist. Die sichtbare Inschrift auf einer der längeren Seiten lautet "AEG" und weist auf die Verbindung zu dem bekannten deutschen Hersteller elektrischer Geräte hin. Der Block weist eine polierte Metalloberfläche auf, die einige Gebrauchsspuren wie Kratzer und leichte Verfärbungen zeigt, was auf seine Verwendung in einem Herstellungs- oder Branding-Kontext hindeutet. Die Abmessungen des Blocks sind kompakt und betragen laut Metadaten etwa 55 mm in der Länge, 15 mm in der Breite und 24 mm in der Höhe. Dies deutet darauf hin, dass er für eine praktische Handhabung konzipiert wurde, möglicherweise zur Verwendung in Verbindung mit einer Presse oder einem Stanzmechanismus.
+Die historische Bedeutung von AEG kann nicht unterschätzt werden, da das Unternehmen eine entscheidende Rolle in der Entwicklung der Elektrotechnik und Haushaltsgeräte im späten 19. und frühen 20. Jahrhundert spielte. Die Designphilosophie von AEG betonte oft Funktionalität und industrielle Effizienz, was sich in der schlichten Form dieses Objekts widerspiegelt. Die Verwendung von Metall als Material deutet auf Langlebigkeit hin, eine notwendige Eigenschaft für Werkzeuge, die für den wiederholten Einsatz in industriellen Umgebungen gedacht sind.
+Der Zustand des Objekts zeigt, dass es trotz der sichtbaren Nutzung gut erhalten ist, was auf seine Bedeutung in den Produktionsprozessen von AEG hindeuten könnte. Das Fehlen eines spezifischen Produktionsjahres in den Metadaten lässt den genauen historischen Kontext etwas unklar, aber es ist vernünftig anzunehmen, dass es aus der frühen bis mittleren Hälfte des 20. Jahrhunderts stammt, was mit den Hochbetriebsjahren von AEG übereinstimmt [Annahme basierend auf dem Designstil].
+**Material / Technik:**  
+Der Block besteht aus Metall, wie in den Metadaten angegeben. Die Oberflächenbehandlung scheint poliert zu sein, obwohl der genaue Metalltyp nicht spezifiziert ist. Die Anwesenheit von Kratzern und Abnutzung deutet darauf hin, dass er umfangreich verwendet wurde, aber keine Reparaturen oder Änderungen sind sichtbar.
+**Dimensions:**  
+Die Objektabmessungen sind laut Metadaten mit 55 mm (Länge) x 15 mm (Breite) x 24 mm (Höhe) aufgezeichnet.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0553.
+- Keine externen Quellen gefunden, Beschreibung basiert auf visueller Analyse der Fotos.
+---
+### Polish Version
+**Object Title / Type:**  
+Metalowy blok AEG, Nr. 1/1997/0553
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to prostokątny metalowy blok, prawdopodobnie narzędzie do znakowania lub brandingu związane z Allgemeine Elektricitäts-Gesellschaft (AEG). Widoczny napis na jednej z dłuższych stron brzmi "AEG", co wskazuje na jego związek z dobrze znanym niemieckim producentem sprzętu elektrycznego. Blok ma polerowaną metalową powierzchnię z widocznymi śladami zużycia, w tym rysami i lekkimi przebarwieniami, co może sugerować jego użycie w kontekście produkcji lub brandingu. Wymiary bloku są kompaktowe, wynoszą około 55 mm długości, 15 mm szerokości i 24 mm wysokości (metadane). Sugeruje to, że został zaprojektowany do praktycznego użytkowania, prawdopodobnie do użycia w połączeniu z mechanizmem prasującym lub stemplującym.
+Historyczne znaczenie AEG jest nie do przecenienia, ponieważ odegrało kluczową rolę w rozwoju inżynierii elektrycznej i urządzeń gospodarstwa domowego pod koniec XIX i na początku XX wieku. Filozofia projektowania AEG często podkreślała funkcjonalność i efektywność przemysłową, co odzwierciedla się w prostej formie tego obiektu. Użycie metalu jako materiału wskazuje na trwałość, co jest niezbędną cechą narzędzi przeznaczonych do wielokrotnego użytku w środowiskach przemysłowych.
+Stan obiektu pokazuje, że został dobrze zachowany pomimo widocznego użycia, co może wskazywać na jego znaczenie w procesach produkcyjnych AEG. Brak konkretnego roku produkcji w metadanych pozostawia jego dokładny kontekst historyczny nieco niejasny, ale można przypuszczać, że pochodzi z wczesnej do połowy XX wieku, co odpowiada szczytowym latom działalności AEG [założenie oparte na stylu projektu].
+**Material / Technique:**  
+Blok wykonany jest z metalu, co wskazuje na to, że jest to materiał podany w metadanych. Wykończenie powierzchni wydaje się być polerowane, chociaż dokładny typ metalu nie jest określony. Obecność rys i zużycia sugeruje, że był intensywnie używany, ale nie widać żadnych napraw ani zmian.
+**Dimensions:**  
+Wymiary obiektu są zapisane jako 55 mm (długość) x 15 mm (szerokość) x 24 mm (wysokość) według metadanych.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarzowy 1/1997/0553.
 - Nie znaleziono źródeł zewnętrznych, opis oparty na analizie wizualnej zdjęć.
 ---
 ### French Version
 **Object Title / Type:**  
-Bouilloire électrique, Nr. 1-1997-0466-000-000
+Bloc Métallique AEG, Nr. 1/1997/0553
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un bloc métallique rectangulaire, probablement un outil de marquage ou de branding associé à l'Allgemeine Elektricitäts-Gesellschaft (AEG). L'inscription visible sur l'un des côtés longs indique "AEG", ce qui souligne son lien avec le célèbre fabricant allemand d'équipements électriques. Le bloc présente une surface métallique polie avec des signes d'usure, y compris des rayures et une légère décoloration, ce qui peut suggérer son utilisation dans un contexte de fabrication ou de branding. Les dimensions du bloc sont compactes, mesurant environ 55 mm de long, 15 mm de large et 24 mm de haut (selon les métadonnées). Cela suggère qu'il a été conçu pour une manipulation pratique, probablement à utiliser en conjonction avec un mécanisme de presse ou de tamponnage.
+L'importance historique d'AEG ne peut être sous-estimée, car elle a joué un rôle clé dans le développement de l'ingénierie électrique et des appareils ménagers à la fin du XIXe et au début du XXe siècle. La philosophie de design d'AEG mettait souvent l'accent sur la fonctionnalité et l'efficacité industrielle, ce qui se reflète dans la forme simple de cet objet. L'utilisation du métal comme matériau indique une durabilité, une qualité nécessaire pour les outils destinés à un usage répété dans des environnements industriels.
+L'état de l'objet montre qu'il a été bien conservé malgré son utilisation évidente, ce qui peut indiquer son importance dans les processus de production d'AEG. L'absence d'une année de production spécifique dans les métadonnées laisse son contexte historique exact quelque peu ambigu, mais il est raisonnable de supposer qu'il date du début à la moitié du XXe siècle, ce qui correspond aux années de pointe d'AEG [hypothèse basée sur le style de conception].
+**Material / Technique:**  
+Le bloc est construit en métal, comme indiqué dans les métadonnées. La finition de la surface semble polie, bien que le type exact de métal ne soit pas spécifié. La présence de rayures et d'usure suggère qu'il a été utilisé de manière extensive, mais aucune réparation ou modification n'est visible.
+**Dimensions:**  
+Les dimensions de l'objet sont enregistrées comme 55 mm (longueur) x 15 mm (largeur) x 24 mm (hauteur) selon les métadonnées.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0553.
+- Aucune source externe trouvée, description basée sur l'analyse visuelle des photos.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Hair Dryer [Omega electric GmbH, Model not specified], Nr. 1/1997/0554
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric hair dryer manufactured by Omega electric GmbH, likely produced in the first half of the 20th century, as indicated by its design elements and materials. The hair dryer features a polished chrome body, which is characteristic of mid-century modern aesthetics, reflecting the era's emphasis on sleek, functional design. The handle is made of red plastic, providing a stark contrast to the metallic finish, and is ergonomically shaped for ease of use. 
+Visible in the photos, the dryer has a cylindrical nozzle that directs airflow, with a series of perforations on its surface, allowing for even distribution of heat. The device is equipped with a power cord that appears to be original, featuring a two-prong plug, which is typical for appliances of this era. The presence of a switch on the body suggests that it may have multiple settings, although the specific functions are not detailed in the metadata.
+The materials used include metal for the main body, plastic for the handle, and possibly textile for the cord, as indicated by the metadata. The overall condition of the hair dryer appears to be good, with no visible signs of significant wear or damage, although the presence of minor scratches on the chrome surface is noted. 
+This hair dryer represents a significant advancement in personal grooming technology during its time, transitioning from manual methods to electric appliances, which became increasingly popular in households. The design reflects the industrial trends of the period, where functionality was paired with aesthetic appeal, marking a shift in consumer expectations.
+**Material / Technique:**  
+Materials identified include metal (chrome finish), plastic (red handle), and textile (cord). Assumptions include the possibility of rubber components in the switch mechanism.
+**Dimensions:**  
+Object dimensions are approximately 90 x 160 x 190 mm (not available for precise measurement).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0554  
+- Literature references: Schmitz, Silvia, and Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Haartrockner [Omega electric GmbH, Modell nicht spezifiziert], Nr. 1/1997/0554
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein elektrischer Haartrockner, hergestellt von Omega electric GmbH, wahrscheinlich in der ersten Hälfte des 20. Jahrhunderts produziert, wie durch die Designelemente und Materialien angezeigt. Der Haartrockner hat einen polierten Chromkörper, der charakteristisch für die Ästhetik der Mitte des Jahrhunderts ist und den Fokus dieser Ära auf schlankes, funktionales Design widerspiegelt. Der Griff besteht aus rotem Kunststoff, der einen starken Kontrast zur metallischen Oberfläche bietet und ergonomisch geformt ist, um die Handhabung zu erleichtern.
+In den Fotos sichtbar, hat der Trockner eine zylindrische Düse, die den Luftstrom lenkt, mit einer Reihe von Perforationen auf der Oberfläche, die eine gleichmäßige Wärmeverteilung ermöglichen. Das Gerät ist mit einem Stromkabel ausgestattet, das original zu sein scheint und einen zweipoligen Stecker aufweist, was typisch für Geräte dieser Ära ist. Die Anwesenheit eines Schalters am Gehäuse deutet darauf hin, dass es möglicherweise mehrere Einstellungen gibt, obwohl die spezifischen Funktionen in den Metadaten nicht detailliert sind.
+Die verwendeten Materialien umfassen Metall für den Hauptkörper, Kunststoff für den Griff und möglicherweise Textil für das Kabel, wie in den Metadaten angegeben. Der allgemeine Zustand des Haartrockners scheint gut zu sein, ohne sichtbare Anzeichen von erheblichem Verschleiß oder Beschädigung, obwohl kleinere Kratzer auf der Chromoberfläche festgestellt werden.
+Dieser Haartrockner stellt einen bedeutenden Fortschritt in der Technologie der Körperpflege seiner Zeit dar, indem er den Übergang von manuellen Methoden zu elektrischen Geräten vollzieht, die in Haushalten zunehmend populär wurden. Das Design spiegelt die industriellen Trends der Zeit wider, bei denen Funktionalität mit ästhetischem Reiz kombiniert wurde, was einen Wandel in den Erwartungen der Verbraucher markiert.
+**Material / Technik:**  
+Identifizierte Materialien sind Metall (Chromoberfläche), Kunststoff (roter Griff) und Textil (Kabel). Annahmen beinhalten die Möglichkeit von Gummi-Komponenten im Schaltermechanismus.
+**Dimensions:**  
+Objektmaße sind ungefähr 90 x 160 x 190 mm (keine genauen Maße verfügbar).
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0554  
+- Literaturverweise: Schmitz, Silvia, und Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.  
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Suszarka elektryczna [Omega electric GmbH, model nieokreślony], Nr. 1/1997/0554
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to elektryczna suszarka do włosów wyprodukowana przez Omega electric GmbH, prawdopodobnie w pierwszej połowie XX wieku, co sugerują elementy designu i materiały. Suszarka ma polerowane chromowane wykończenie, które jest charakterystyczne dla estetyki połowy wieku, odzwierciedlając nacisk tej epoki na elegancki, funkcjonalny design. Uchwyt wykonany jest z czerwonego plastiku, co stanowi wyraźny kontrast do metalicznego wykończenia i jest ergonomicznie ukształtowany dla łatwości użytkowania.
+Widoczna na zdjęciach, suszarka ma cylindryczną dyszę, która kieruje przepływem powietrza, z serią perforacji na powierzchni, co pozwala na równomierne rozprowadzanie ciepła. Urządzenie wyposażone jest w przewód zasilający, który wydaje się być oryginalny, z wtyczką dwuprzewodową, co jest typowe dla urządzeń z tego okresu. Obecność przełącznika na obudowie sugeruje, że może mieć kilka ustawień, chociaż konkretne funkcje nie są szczegółowo opisane w metadanych.
+Użyte materiały obejmują metal dla głównej obudowy, plastik dla uchwytu i prawdopodobnie tekstylia dla przewodu, jak wskazano w metadanych. Ogólny stan suszarki wydaje się być dobry, bez widocznych oznak znacznego zużycia lub uszkodzeń, chociaż zauważono drobne zarysowania na powierzchni chromu.
+Ta suszarka do włosów reprezentuje znaczący postęp w technologii pielęgnacji osobistej w swoim czasie, przechodząc od metod manualnych do urządzeń elektrycznych, które stawały się coraz bardziej popularne w gospodarstwach domowych. Projekt odzwierciedla trendy przemysłowe tego okresu, w którym funkcjonalność łączono z estetycznym urokiem, co oznacza zmianę w oczekiwaniach konsumentów.
+**Material / Technique:**  
+Zidentyfikowane materiały to metal (wykończenie chromowane), plastik (czerwony uchwyt) i tekstylia (przewód). Założenia obejmują możliwość użycia komponentów gumowych w mechanizmie przełącznika.
+**Dimensions:**  
+Wymiary obiektu wynoszą około 90 x 160 x 190 mm (brak dostępnych dokładnych pomiarów).
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarza 1/1997/0554  
+- Odniesienia literaturowe: Schmitz, Silvia, i Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.  
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Sèche-cheveux électrique [Omega electric GmbH, modèle non spécifié], Nr. 1/1997/0554
 **Source Availability Statement:**  
 Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
 **Description:**  
-L'objet est une bouilloire électrique caractérisée par son corps en métal poli, qui reflète la lumière et présente une forme lisse et arrondie. La bouilloire dispose d'un bec proéminent et d'une poignée courbée en matériau noir, probablement en Bakélite, couramment utilisée dans les appareils de cuisine du milieu du XXe siècle. Le couvercle est en forme de dôme et surmonté d'un petit bouton noir, ce qui renforce son attrait esthétique. La base de la bouilloire est légèrement plus large, offrant une stabilité, et est équipée de petits pieds qui l'élèvent au-dessus de la surface.
-Les inscriptions visibles comprennent une plaque circulaire sur la base, qui est probablement une marque du fabricant, mais les détails spécifiques ne sont pas discernables sur les photographies. Le design de la bouilloire suggère qu'elle était destinée à un usage domestique, reflétant l'esthétique moderne du milieu du siècle qui mettait l'accent sur la fonctionnalité et le style. La présence d'un filtre amovible, visible sur l'une des images, indique que cette bouilloire a été conçue pour infuser du thé, permettant de contenir les feuilles en vrac lors du versement.
-L'état de la bouilloire semble bon, avec de légères rayures de surface conformes à l'âge et à l'utilisation. Il n'y a pas de signes visibles d'usure significative ou de réparations, ce qui suggère qu'elle a été bien entretenue. Le design et les matériaux indiquent que cette bouilloire provient probablement du milieu du XXe siècle, en accord avec l'essor des appareils de cuisine électriques durant cette période [hypothèse basée sur le style de design].
-**Material / Technique:**  
-La bouilloire est principalement en métal poli, probablement en acier inoxydable, avec une poignée noire qui semble être en Bakélite. Les matériaux spécifiques des composants internes ne sont pas disponibles.
-**Dimensions:**  
+L'objet est un sèche-cheveux électrique fabriqué par Omega electric GmbH, probablement produit dans la première moitié du XXe siècle, comme l'indiquent ses éléments de design et ses matériaux. Le sèche-cheveux présente un corps en chrome poli, caractéristique de l'esthétique du milieu du siècle, reflétant l'accent mis par cette époque sur un design élégant et fonctionnel. La poignée est en plastique rouge, offrant un contraste frappant avec la finition métallique, et est ergonomiquement conçue pour faciliter son utilisation.
+Visible sur les photos, le sèche-cheveux possède une buse cylindrique qui dirige le flux d'air, avec une série de perforations sur sa surface, permettant une distribution uniforme de la chaleur. L'appareil est équipé d'un cordon d'alimentation qui semble être d'origine, avec une prise à deux broches, typique des appareils de cette époque. La présence d'un interrupteur sur le boîtier suggère qu'il pourrait avoir plusieurs réglages, bien que les fonctions spécifiques ne soient pas détaillées dans les métadonnées.
+Les matériaux utilisés comprennent le métal pour le corps principal, le plastique pour la poignée et éventuellement du textile pour le cordon, comme indiqué dans les métadonnées. L'état général du sèche-cheveux semble bon, sans signes visibles d'usure ou de dommages significatifs, bien que des rayures mineures sur la surface chromée soient notées.
+Ce sèche-cheveux représente une avancée significative dans la technologie de soins personnels de son époque, passant des méthodes manuelles aux appareils électriques, qui sont devenus de plus en plus populaires dans les foyers. Le design reflète les tendances industrielles de la période, où la fonctionnalité était associée à l'attrait esthétique, marquant un changement dans les attentes des consommateurs.
+**Material / Technique:**  
+Les matériaux identifiés incluent le métal (finition chromée), le plastique (poignée rouge) et le textile (cordon). Les hypothèses incluent la possibilité de composants en caoutchouc dans le mécanisme de l'interrupteur.
+**Dimensions:**  
+Les dimensions de l'objet sont d'environ 90 x 160 x 190 mm (pas de mesure précise disponible).
+**Provenance / Ownership history:**  
 Non disponible.
+**Links / Sources:**  
+- Métadonnées de musée primaires : numéro d'inventaire 1/1997/0554  
+- Références littéraires : Schmitz, Silvia, et Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe : Quensen, 2007.  
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Electric Hand Dryer [Brand + Model] [Function/identifier], Nr. 1/1997/0555
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is an electric hand dryer, likely manufactured between 1910 and 1950, as indicated by the metadata. The design features a distinctive curved body with a prominent nozzle, which is characteristic of early electric hand dryers. The main body is painted in a light cream color, while the handle is finished in a contrasting black, suggesting a design choice aimed at both functionality and aesthetic appeal. 
+Visible inscriptions on the front of the device include "FON," which may refer to the model or brand designation, accompanied by a triangular logo that appears to be a manufacturer's mark. The presence of a perforated grille on the front suggests that this device was designed to facilitate airflow, enhancing its efficiency in drying hands. The handle is ergonomically shaped, allowing for comfortable use, and is positioned at an angle that promotes ease of operation.
+The materials used in the construction of the hand dryer include metal, wood, and plastic, as noted in the metadata. The metal components likely serve as the structural framework, while the plastic elements may include the nozzle and control features. The overall finish appears to be well-preserved, although some wear is visible, particularly on the edges of the handle, indicating previous usage.
+In terms of historical context, electric hand dryers emerged as a hygienic alternative to traditional cloth towels in public restrooms during the early to mid-20th century. This innovation reflects a growing awareness of hygiene and convenience in public spaces, aligning with broader societal shifts towards modern sanitation practices. The design of this hand dryer may have influenced subsequent models, contributing to the evolution of hand-drying technology.
+**Material / Technique:**  
+The hand dryer is constructed from metal, wood, and plastic. The metal is likely painted steel, while the plastic components are assumed to be Bakelite or a similar material. 
+**Dimensions:**  
+Object dimensions are approximately 140 x 240 x 220 mm, with a weight of 0.86 kg (metadata).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0555.  
+- Literature references: Schmitz, Silvia, and Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.  
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Elektrischer Händetrockner [Brand + Model] [Function/identifier], Nr. 1/1997/0555
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Das Objekt ist ein elektrischer Händetrockner, der wahrscheinlich zwischen 1910 und 1950 hergestellt wurde, wie im Metadaten angegeben. Das Design zeigt einen markanten, gebogenen Körper mit einer auffälligen Düse, die charakteristisch für frühe elektrische Händetrockner ist. Der Hauptkörper ist in einer hellen Cremefarbe lackiert, während der Griff in einem kontrastierenden Schwarz gehalten ist, was auf eine Designwahl abzielt, die sowohl Funktionalität als auch ästhetische Anziehungskraft betont.
+Sichtbare Inschriften auf der Vorderseite des Geräts umfassen "FON", was sich auf die Modell- oder Markenbezeichnung beziehen könnte, begleitet von einem dreieckigen Logo, das anscheinend ein Herstellerzeichen ist. Die Anwesenheit eines perforierten Gitters auf der Vorderseite deutet darauf hin, dass dieses Gerät entwickelt wurde, um den Luftstrom zu erleichtern und die Effizienz beim Trocknen der Hände zu erhöhen. Der Griff ist ergonomisch geformt, was eine bequeme Benutzung ermöglicht, und ist in einem Winkel positioniert, der die Bedienung erleichtert.
+Die Materialien, die beim Bau des Händetrockners verwendet wurden, umfassen Metall, Holz und Kunststoff, wie in den Metadaten angegeben. Die Metallkomponenten dienen wahrscheinlich als strukturelles Gerüst, während die Kunststoffteile die Düse und Steuerungselemente umfassen könnten. Die Gesamtoberfläche scheint gut erhalten zu sein, obwohl einige Abnutzungserscheinungen sichtbar sind, insbesondere an den Kanten des Griffs, was auf eine frühere Nutzung hinweist.
+In Bezug auf den historischen Kontext entstanden elektrische Händetrockner als hygienische Alternative zu traditionellen Stofftüchern in öffentlichen Toiletten während des frühen bis mittleren 20. Jahrhunderts. Diese Innovation spiegelt ein wachsendes Bewusstsein für Hygiene und Bequemlichkeit in öffentlichen Räumen wider und steht im Einklang mit breiteren gesellschaftlichen Veränderungen hin zu modernen Sanitärpraktiken. Das Design dieses Händetrockners könnte nachfolgende Modelle beeinflusst haben und zur Entwicklung der Händetrocknungstechnologie beigetragen haben.
+**Material / Technik:**  
+Der Händetrockner besteht aus Metall, Holz und Kunststoff. Das Metall ist wahrscheinlich lackierter Stahl, während die Kunststoffteile als Bakelit oder ein ähnliches Material angenommen werden.
+**Dimensions:**  
+Die Objektmaße betragen ungefähr 140 x 240 x 220 mm, mit einem Gewicht von 0,86 kg (Metadaten).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0555.  
+- Literaturverweise: Schmitz, Silvia, und Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.  
+- Webressourcen: Not available.
+---
+### Polish Version
+**Object Title / Type:**  
+Suszarka elektryczna do rąk [Brand + Model] [Function/identifier], Nr. 1/1997/0555
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+Obiekt to elektryczna suszarka do rąk, prawdopodobnie wyprodukowana w latach 1910-1950, co wskazuje metadane. Projekt charakteryzuje się wyraźnie zakrzywioną obudową z wyraźną dyszą, co jest typowe dla wczesnych elektrycznych suszarek do rąk. Główna część jest pomalowana na jasny kremowy kolor, podczas gdy uchwyt ma kontrastowy czarny kolor, co sugeruje wybór projektowy mający na celu zarówno funkcjonalność, jak i atrakcyjność estetyczną.
+Widoczne napisy na przedniej części urządzenia obejmują "FON", co może odnosić się do oznaczenia modelu lub marki, towarzyszy mu trójkątne logo, które wydaje się być znakiem producenta. Obecność perforowanej siatki na przedniej stronie sugeruje, że to urządzenie zostało zaprojektowane w celu ułatwienia przepływu powietrza, co zwiększa jego efektywność w suszeniu rąk. Uchwyt ma ergonomiczną formę, co umożliwia wygodne użytkowanie, i jest umieszczony pod kątem, co ułatwia obsługę.
+Materiały użyte do budowy suszarki do rąk obejmują metal, drewno i plastik, jak wskazano w metadanych. Komponenty metalowe prawdopodobnie służą jako strukturalna rama, podczas gdy elementy plastikowe mogą obejmować dyszę i funkcje sterujące. Całkowite wykończenie wydaje się być dobrze zachowane, chociaż widoczne są pewne oznaki zużycia, szczególnie na krawędziach uchwytu, co wskazuje na wcześniejsze użytkowanie.
+W kontekście historycznym elektryczne suszarki do rąk pojawiły się jako higieniczna alternatywa dla tradycyjnych ręczników materiałowych w publicznych toaletach w pierwszej połowie XX wieku. Ta innowacja odzwierciedla rosnącą świadomość higieny i wygody w przestrzeniach publicznych, co jest zgodne z szerszymi zmianami społecznymi w kierunku nowoczesnych praktyk sanitarnych. Projekt tej suszarki do rąk mógł wpłynąć na kolejne modele, przyczyniając się do rozwoju technologii suszenia rąk.
+**Material / Technique:**  
+Suszarka do rąk została wykonana z metalu, drewna i plastiku. Metal to prawdopodobnie stal malowana, podczas gdy komponenty plastikowe są przypuszczalnie z Bakelitu lub podobnego materiału.
+**Dimensions:**  
+Wymiary obiektu wynoszą około 140 x 240 x 220 mm, a waga to 0,86 kg (metadane).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: numer inwentarza 1/1997/0555.  
+- Odesłania literaturowe: Schmitz, Silvia, i Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.  
+- Zasoby internetowe: Not available.
+---
+### French Version
+**Object Title / Type:**  
+Sèche-mains électrique [Brand + Model] [Function/identifier], Nr. 1/1997/0555
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+L'objet est un sèche-mains électrique, probablement fabriqué entre 1910 et 1950, comme l'indiquent les métadonnées. Le design présente un corps incurvé distinctif avec une buse proéminente, caractéristique des premiers sèche-mains électriques. Le corps principal est peint en couleur crème claire, tandis que la poignée est finie en noir, suggérant un choix de design visant à la fois la fonctionnalité et l'attrait esthétique.
+Les inscriptions visibles sur le devant de l'appareil incluent "FON", qui peut se référer à la désignation du modèle ou de la marque, accompagnée d'un logo triangulaire qui semble être une marque du fabricant. La présence d'une grille perforée à l'avant suggère que cet appareil a été conçu pour faciliter le flux d'air, améliorant ainsi son efficacité dans le séchage des mains. La poignée est ergonomiquement conçue, permettant une utilisation confortable, et est positionnée à un angle qui favorise la facilité d'utilisation.
+Les matériaux utilisés dans la construction du sèche-mains comprennent le métal, le bois et le plastique, comme noté dans les métadonnées. Les composants métalliques servent probablement de cadre structurel, tandis que les éléments en plastique peuvent inclure la buse et les fonctionnalités de contrôle. La finition globale semble être bien préservée, bien que certaines usures soient visibles, en particulier sur les bords de la poignée, indiquant une utilisation antérieure.
+En termes de contexte historique, les sèche-mains électriques ont émergé comme une alternative hygiénique aux serviettes en tissu traditionnelles dans les toilettes publiques au début et au milieu du XXe siècle. Cette innovation reflète une prise de conscience croissante de l'hygiène et de la commodité dans les espaces publics, s'alignant sur des changements sociétaux plus larges vers des pratiques sanitaires modernes. Le design de ce sèche-mains pourrait avoir influencé des modèles ultérieurs, contribuant à l'évolution de la technologie de séchage des mains.
+**Material / Technique:**  
+Le sèche-mains est construit en métal, bois et plastique. Le métal est probablement de l'acier peint, tandis que les composants en plastique sont supposés être du Bakélite ou un matériau similaire.
+**Dimensions:**  
+Les dimensions de l'objet sont d'environ 140 x 240 x 220 mm, avec un poids de 0,86 kg (métadonnées).
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Métadonnées primaires du musée : numéro d'inventaire 1/1997/0555.  
+- Références littéraires : Schmitz, Silvia, et Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe : Quensen, 2007.  
+- Ressources web : Not available.</t>
+  </si>
+  <si>
+    <t>### English Version
+**Object Title / Type:**  
+Hair Dryer AEG [Model not specified], Nr. 1/1997/0556
+**Source Availability Statement:**  
+No online description found. Entry generated from metadata and photo analysis.
+**Description:**  
+The object is a hair dryer manufactured by AEG, a prominent German company known for its electrical appliances. The design features a streamlined, ergonomic shape typical of the 1980s, with a predominantly beige plastic body and a contrasting black nozzle. The nozzle is designed with ventilation slits, enhancing airflow efficiency during operation. The handle is integrated into the body, providing a comfortable grip for users. 
+Visible on the side of the hair dryer is a toggle switch labeled "0" and "I," indicating at least two operational settings, likely for different heat or speed levels. The power cord is flexible and appears to be in good condition, although it is not original to the device, as indicated by the lack of wear consistent with the age of the appliance. 
+The overall condition of the hair dryer suggests it has been well-maintained, with no visible signs of significant wear or damage. The absence of any inventory tags or collection stickers indicates that provenance information is not available. The hair dryer represents a significant development in personal grooming technology during the 1980s, reflecting the era's emphasis on convenience and efficiency in household appliances.
+**Material / Technique:**  
+The hair dryer is primarily constructed from plastic (Kunststoff) and metal (Metall), as noted in the metadata. The specific types of plastic and metal are not identifiable from the photos. Assumptions regarding additional materials are not applicable in this case.
+**Dimensions:**  
+The dimensions provided in the metadata indicate a length of approximately 140 mm and a diameter of 50 mm. The weight is recorded at 0.34 kg.
+**Provenance / Ownership history:**  
+Not available.
+**Links / Sources:**  
+- Primary museum metadata: Inventory number 1/1997/0556.
+- Literature references: Schmitz, Silvia, and Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.
+- Web resources: Not available.
+---
+### German Version
+**Object Title / Type:**  
+Haartrockner AEG [Modell nicht angegeben], Nr. 1/1997/0556
+**Source Availability Statement:**  
+Keine Online-Beschreibung gefunden. Eintrag basierend auf Metadaten und Fotoanalyse erstellt.
+**Description:**  
+Das Objekt ist ein Haartrockner, der von AEG, einem renommierten deutschen Unternehmen, das für seine Elektrogeräte bekannt ist, hergestellt wurde. Das Design weist eine stromlinienförmige, ergonomische Form auf, die typisch für die 1980er Jahre ist, mit einem überwiegend beigen Kunststoffgehäuse und einer kontrastierenden schwarzen Düse. Die Düse ist mit Belüftungsschlitzen gestaltet, die die Luftstromeffizienz während des Betriebs verbessern. Der Griff ist in den Körper integriert und bietet den Benutzern einen komfortablen Halt.
+An der Seite des Haartrockners ist ein Kippschalter mit der Beschriftung "0" und "I" sichtbar, was auf mindestens zwei Betriebsarten hinweist, wahrscheinlich für unterschiedliche Wärme- oder Geschwindigkeitsstufen. Das Netzkabel ist flexibel und scheint sich in gutem Zustand zu befinden, obwohl es nicht original zum Gerät gehört, was durch den Mangel an Abnutzung, die mit dem Alter des Geräts übereinstimmt, angezeigt wird.
+Der allgemeine Zustand des Haartrockners deutet darauf hin, dass er gut gepflegt wurde, ohne sichtbare Anzeichen von erheblicher Abnutzung oder Beschädigung. Das Fehlen von Inventaretiketten oder Sammlungsklebern deutet darauf hin, dass Informationen zur Provenienz nicht verfügbar sind. Der Haartrockner stellt eine bedeutende Entwicklung in der Technologie der Körperpflege in den 1980er Jahren dar und spiegelt den Fokus der Ära auf Bequemlichkeit und Effizienz in Haushaltsgeräten wider.
+**Material / Technique:**  
+Der Haartrockner besteht hauptsächlich aus Kunststoff (Kunststoff) und Metall (Metall), wie in den Metadaten angegeben. Die spezifischen Arten von Kunststoff und Metall sind aus den Fotos nicht identifizierbar. Annahmen zu zusätzlichen Materialien sind in diesem Fall nicht anwendbar.
+**Dimensions:**  
+Die in den Metadaten angegebenen Abmessungen zeigen eine Länge von etwa 140 mm und einen Durchmesser von 50 mm. Das Gewicht wird mit 0,34 kg angegeben.
+**Provenance / Ownership history:**  
+Nicht verfügbar.
+**Links / Sources:**  
+- Primäre Museumsmetadaten: Inventarnummer 1/1997/0556.
+- Literaturverweise: Schmitz, Silvia, und Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.
+- Webressourcen: Nicht verfügbar.
+---
+### Polish Version
+**Object Title / Type:**  
+Suszarka do włosów AEG [Model nieokreślony], Nr. 1/1997/0556
+**Source Availability Statement:**  
+Nie znaleziono opisu online. Wpis wygenerowany na podstawie metadanych i analizy zdjęć.
+**Description:**  
+Obiekt to suszarka do włosów wyprodukowana przez AEG, znaną niemiecką firmę specjalizującą się w urządzeniach elektrycznych. Projekt charakteryzuje się opływowym, ergonomicznym kształtem typowym dla lat 80., z dominującym beżowym korpusem z tworzywa sztucznego i kontrastującą czarną końcówką. Końcówka została zaprojektowana z otworami wentylacyjnymi, co zwiększa efektywność przepływu powietrza podczas pracy. Uchwyt jest zintegrowany z korpusem, co zapewnia wygodny chwyt dla użytkowników.
+Widoczny z boku suszarki jest przełącznik suwakowy oznaczony "0" i "I", co wskazuje na co najmniej dwa ustawienia robocze, prawdopodobnie dla różnych poziomów ciepła lub prędkości. Kabel zasilający jest elastyczny i wydaje się być w dobrym stanie, chociaż nie jest oryginalny do urządzenia, co sugeruje brak zużycia zgodnego z wiekiem urządzenia.
+Ogólny stan suszarki sugeruje, że była dobrze utrzymywana, bez widocznych oznak znacznego zużycia lub uszkodzeń. Brak jakichkolwiek etykiet inwentarzowych lub naklejek kolekcjonerskich wskazuje, że informacje o pochodzeniu nie są dostępne. Suszarka do włosów reprezentuje istotny rozwój technologii pielęgnacji osobistej w latach 80., odzwierciedlając nacisk epoki na wygodę i efektywność w urządzeniach gospodarstwa domowego.
+**Material / Technique:**  
+Suszarka do włosów jest głównie wykonana z tworzywa sztucznego (Kunststoff) i metalu (Metall), jak podano w metadanych. Konkretne rodzaje tworzywa sztucznego i metalu nie są identyfikowalne na podstawie zdjęć. Założenia dotyczące dodatkowych materiałów nie mają zastosowania w tym przypadku.
+**Dimensions:**  
+Wymiary podane w metadanych wskazują na długość około 140 mm i średnicę 50 mm. Waga wynosi 0,34 kg.
+**Provenance / Ownership history:**  
+Nie dostępne.
+**Links / Sources:**  
+- Podstawowe metadane muzealne: Numer inwentarzowy 1/1997/0556.
+- Odniesienia literaturowe: Schmitz, Silvia, i Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe: Quensen, 2007.
+- Zasoby internetowe: Nie dostępne.
+---
+### French Version
+**Object Title / Type:**  
+Sèche-cheveux AEG [Modèle non spécifié], Nr. 1/1997/0556
+**Source Availability Statement:**  
+Aucune description en ligne trouvée. Entrée générée à partir des métadonnées et de l'analyse des photos.
+**Description:**  
+L'objet est un sèche-cheveux fabriqué par AEG, une entreprise allemande réputée pour ses appareils électroménagers. Le design présente une forme ergonomique et aérodynamique typique des années 1980, avec un corps en plastique beige et une buse noire contrastante. La buse est dotée de fentes de ventilation, améliorant l'efficacité du flux d'air pendant l'utilisation. La poignée est intégrée au corps, offrant une prise confortable pour les utilisateurs.
+Visible sur le côté du sèche-cheveux se trouve un interrupteur à bascule étiqueté "0" et "I", indiquant au moins deux réglages opérationnels, probablement pour différents niveaux de chaleur ou de vitesse. Le cordon d'alimentation est flexible et semble être en bon état, bien qu'il ne soit pas d'origine, comme l'indique l'absence d'usure conforme à l'âge de l'appareil.
+L'état général du sèche-cheveux suggère qu'il a été bien entretenu, sans signes visibles d'usure ou de dommages significatifs. L'absence d'étiquettes d'inventaire ou d'autocollants de collection indique que les informations sur la provenance ne sont pas disponibles. Le sèche-cheveux représente un développement significatif dans la technologie des soins personnels des années 1980, reflétant l'accent mis par l'époque sur la commodité et l'efficacité des appareils ménagers.
+**Material / Technique:**  
+Le sèche-cheveux est principalement fabriqué en plastique (Kunststoff) et en métal (Metall), comme indiqué dans les métadonnées. Les types spécifiques de plastique et de métal ne sont pas identifiables à partir des photos. Les hypothèses concernant des matériaux supplémentaires ne sont pas applicables dans ce cas.
+**Dimensions:**  
+Les dimensions fournies dans les métadonnées indiquent une longueur d'environ 140 mm et un diamètre de 50 mm. Le poids est enregistré à 0,34 kg.
 **Provenance / Ownership history:**  
 Non disponible.
 **Links / Sources:**  
-- Métadonnées de musée primaires : 1-1997-0466-000-000  
-- Aucune source externe trouvée, description basée sur l'analyse visuelle des photos.</t>
+- Métadonnées de musée primaires : Numéro d'inventaire 1/1997/0556.
+- Références littéraires : Schmitz, Silvia, et Dietrich Zur Nedden. *Energiegeschichten*. Lamspringe : Quensen, 2007.
+- Ressources Web : Non disponible.</t>
+  </si>
+  <si>
+    <t>1/1997/0457 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Metall (u.a. Alt-Messing), Rohrgeflecht, Holz, Objektmaß TxBxH: 240 x 121 x 197 mm
+Masse: 0,8 kg, RZ 2.S 01.B 05, Depot des DTM, Buddensieg, Tilmann (Hrsg.). Peter Behrens und die AEG 1907-1914. Berlin 1979. P 133, S. D 191, S. 48-49., 20.Jh. 1.H.</t>
+  </si>
+  <si>
+    <t>1/1997/0458 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+Bingwerke / Gebr. Bing A.-G.
+AEG-Produktsammlung
+Peter Behrens, Metall (u.a. Messing vernickelt), Holz, Rohrgeflecht, Objektmaß TxBxH: 210 x 155 x 226 mm
+Masse: 0,9 kg, RZ 2.S 01.B 04, Depot des DTM, Buddensieg, Tilmann (Hrsg.). Peter Behrens und die AEG 1907-1914. Berlin 1979. P 138-140, S D 191-D 194, S 48-49., Herstellungsjahr, nach 1909</t>
+  </si>
+  <si>
+    <t>1/1997/0459 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung
+Peter Behrens, Metall (u.a. Messing vernickelt), Holz, Rohrgeflecht, Keramik, Ø Höhe: 150 x 225 mm
+Masse: 0,66 kg, RZ 2.S 01.B 04, Depot des DTM, Buddensieg, Tilmann (Hrsg.). Peter Behrens und die AEG 1907-1914. Berlin 1979. P 134-137, S. D 191/192, S. 48-49., No Data</t>
+  </si>
+  <si>
+    <t>1/1997/0460 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung
+Peter Behrens, Metall (u.a. Messing verkupfert), Holz, Rohrgeflecht, Ø Höhe: 140 x 200 mm
+Masse: 0,6 kg, RZ 2.S 01.B 03, Depot des DTM, Buddensieg, Tilmann (Hrsg.). Peter Behrens und die AEG 1907-1914. Berlin 1979. P 134-137, S. D 191/192, S. 48-49., Herstellungsjahr, 1909 ca.</t>
+  </si>
+  <si>
+    <t>1/1997/0461 01, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung
+Peter Behrens, Keramik, Textilgewebe, Metall, Ø Länge: ca. x 1500 mm
+Masse: 0,1 kg, RZ 2.S 01.B 05, Depot des DTM, No Data, Herstellungsjahr, 1909 ca.</t>
+  </si>
+  <si>
+    <t>1/1997/0462 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung
+Peter Behrens, Metall (u.a. Kupfer), Holz, Keramik, Objektmaß LxBxH: 230 x 143 x 160 mm
+Masse: 0,88 kg, RZ 2.S 01.B 03, Depot des DTM, Buddensieg, Tilmann (Hrsg.). Peter Behrens und die AEG 1907-1914. Berlin 1979. P 138-140, S D 191-D 194, S. 48-49., Herstellungsjahr, 1909 ca.</t>
+  </si>
+  <si>
+    <t>1/1997/0463 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Messing, Holz, Ø Höhe: 210 x 220 mm
+Masse: 1,34 kg, RZ 2.S 01.B 03, Depot des DTM, No Data, 20.Jh. 1.H.</t>
+  </si>
+  <si>
+    <t>1/1997/0464 0, AEG-Union Wien III
+AEG-Produktsammlung, Metall (u.a. Messing vernickelt?), Kunststoff, Holz, Objektmaß TxBxH: 161 x 230 x 220 mm
+Masse: 1,22 kg, RZ 2.S 01.B 02, Depot des DTM, No Data, Herstellungsjahr, 1925 um</t>
+  </si>
+  <si>
+    <t>1/1997/0465 0, B.E.P.W.F. - Berliner Electro-Plated-Waren-Fabrik
+AEG-Produktsammlung, Metall (u.a Messing, silberplattiert), Objektmaß TxBxH: 135 x 210 x 330 mm
+Masse: 1,78 kg, RZ 2.S 01.B 02, Depot des DTM, Buddensieg, Tilmann (Hrsg.). Peter Behrens und die AEG 1907-1914. Berlin 1979. S.49, Herstellungsjahr, 1916 - 1940</t>
+  </si>
+  <si>
+    <t>1/1997/0466 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Metall (u.a. Messing vernickelt, Aluminium), Holz, Objektmaß TxBxH: 170 x 270 x 250 mm
+Masse: 1,09 kg, RZ 2.S 01.B 02, Depot des DTM, No Data, 1930er Jahre</t>
+  </si>
+  <si>
+    <t>1/1997/0467 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+Bingwerke / Gebr. Bing A.-G.
+AEG-Produktsammlung, Metall (u.a. Messing vernickelt), Ø Höhe: 120 x 215 mm
+Masse: 0,79 kg, RZ 2.S 01.B 02, Depot des DTM, Kadatz, Hans-Joachim, and Peter Behrens. Peter Behrens Architekt-Maler-Grafiker und Formgestalter: 1868-1940. Leipzig: VEBEA Seemann Verlag, 1977, S. 34., Herstellungsjahr, 1910 ca.</t>
+  </si>
+  <si>
+    <t>1/1997/0468 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Keramik, Textilgewebe, Metall, Ø Höhe: 80 x 230 mm
+Masse: 1,4 kg, RZ 2.S 01.B 01, Depot des DTM, No Data, Herstellungsjahr, ca. 1930
+Herst.-Zeitraum, ab 1920</t>
+  </si>
+  <si>
+    <t>1/1997/0469 02, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Karton, Textilgewebe, Metall, Objektmaß LxBxH: 315 x 195 x 72 mm
+Masse: 0,14 kg, RZ 2.S 01.B 01, Depot des DTM, No Data, Herstellungsjahr, ca. 1936</t>
+  </si>
+  <si>
+    <t>1/1997/0470 0, unbekannt
+AEG-Produktsammlung, Metall, Rohrgeflecht, Objektmaß TxBxH: 115 x 165 x 85 mm
+Masse: 0,32 kg, RZ 2.S 01.B 01, Depot des DTM, No Data, 20.Jh. 1.H.</t>
+  </si>
+  <si>
+    <t>1/1997/0471 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Kunststoff, Holz, Textilgewebe, Metall, Objektmaß TxBxH: 120 x 100 x 160 mm
+Masse: 0,3 kg, RZ 2.S 01.B 01, Depot des DTM, Kelling, Ingeborg. Alles elektrisch: 100 Jahre AEG Hausgeräte : [Ausstellung im Centrum Industriekultur Nürnberg, 1989]. Nürnberg: AEG Hausgeräte, 1989, S. 21., Herstellungsjahr, ca. 1940</t>
+  </si>
+  <si>
+    <t>1/1997/0472 0, unbekannt
+AEG-Produktsammlung, Holz, Metall, Kunststoff, Objektmaß LxBxH: 275 x 160 x 210 mm
+Masse: 0,94 kg, RZ 2.S 01.B 01, Depot des DTM, No Data, No Data</t>
+  </si>
+  <si>
+    <t>1/1997/0473 0, unbekannt
+AEG-Produktsammlung, Holz, Kunststoff, Metall, Textilgewebe, Ø Höhe: 175 x 300 mm
+Masse: 1,2 kg, RZ 2.S 01.B 01, Depot des DTM, No Data, Herstellungsjahr, 1990</t>
+  </si>
+  <si>
+    <t>1/1997/0474 01, Allgemeine Elektricitäts-Gesellschaft AEG AG
+Bingwerke / Gebr. Bing A.-G.
+AEG-Produktsammlung, Metall, Textilgewebe, Keramik, Objektmaß HxBxT: 70 x 60 x 120 mm mit hochgeklappten Griffen
+Masse: 0,7 kg, RZ 2.S 02.B 03, Depot des DTM, No Data, Herstellungsjahr, 1923</t>
+  </si>
+  <si>
+    <t>1/1997/0475 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+Bingwerke / Gebr. Bing A.-G.
+AEG-Produktsammlung, Messing vernickelt, Holz, Ø Höhe: 120 x 150 mm
+Masse: 0,72 kg, RZ 2.S 02.B 03, Depot des DTM, No Data, Herstellungsjahr, 1930</t>
+  </si>
+  <si>
+    <t>1/1997/0476 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Metall,  Kunststoff, Textilgewebe, Objektmaß TxBxH: 80 x 190 x 200 mm
+Masse: 0,74 kg, RZ 2.S 01. B 07, Depot des DTM, AEG Aktiengesellschaft Hausgeräte (Nürnberg). 100 [Hundert] Jahre heiße Luft: [der Foen hat Geburtstag]. Nürnberg: AEG, 1998.                                        Schmitz, Silvia, and Dietrich Zur Nedden. Energiegeschichten. Lamspringe: Quensen, 2007, Herstellungsjahr, 1939</t>
+  </si>
+  <si>
+    <t>1/1997/0477 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Porzellan, Metall, Holz, Objektmaß LxBxH: 260 x 70 x 100 mm
+Masse: 0,64 kg, RZ 2.S 02.B 03, Depot des DTM, No Data, Herstellungsjahr, ca. 1926</t>
+  </si>
+  <si>
+    <t>1/1997/0483 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Metall, Holz, Textilgewebe, Objektmaß LxBxH: 75 x 40 x 50 mm
+Masse: 0,13 kg, RZ 2.S 02.B 03, Depot des DTM, No Data, Herstellungsjahr, 1930 um</t>
+  </si>
+  <si>
+    <t>1/1997/0484 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung
+Peter Behrens, Metall (u.a. Gußeisen, Messingblech), Textilgewebe, Kunststoff, Ø Höhe: 250 x 250 mm
+Masse: 1,98 kg, RZ 2.S 01. B 07, Depot des DTM, Buddensieg, Tilmann, and Henning Rogge. Industriekultur: Peter Behrens und die AEG 1907-1914. Berlin: Bebr. Mann Verlag, 1978, S. D156/D157., Herstellungsjahr, ca. 1908</t>
+  </si>
+  <si>
+    <t>1/1997/0488 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Metall (u.a. Messing, vernickelt), Holz, Keramik, Objektmaß LxBxH: 330 x 170 x 72 mm
+Masse: 0,6 kg, RZ 2.S 01.B 06, Depot des DTM, No Data, Herstellungsjahr, ca. 1926</t>
+  </si>
+  <si>
+    <t>1/1997/0489 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Metall (u.a. Gußeisen, vernickelt), Holz, Porzellan, Ø Höhe: 192 x 160 mm
+Masse: 5,34 kg, RZ 2.S 01.B 06, Depot des DTM, No Data, Herstellungsjahr, ca. 1933</t>
+  </si>
+  <si>
+    <t>1/1997/0526 01, AEG-Telefunken AG
+AEG-Produktsammlung, Karton, Objektmaß HxBxT: 60 x 475 x 85 mm
+Masse: 0,01 kg, RZ 2.R 15.F 13.B 04, Depot des DTM, No Data, Herstellungsjahr, ca. 1977</t>
+  </si>
+  <si>
+    <t>1/1997/0540 0, AEG-Telefunken AG
+AEG-Produktsammlung
+Reckitt &amp; Colmann, Kunststoff, Metall, Objektmaß TxBxH: 500 x 360 x 195 mm
+Masse: 4,46 kg, RZ 2.R 15.F 14.B 02, Depot des DTM, No Data, Herstellungsjahr, 1973</t>
+  </si>
+  <si>
+    <t>1/1997/0541 08, AEG AG
+AEG-Produktsammlung, No Data, Objektmaß LxBxH: 140 x 102 x 0,01 mm
+Masse: 0,01 kg, RZ 2.R 15.F 14.B 01, Depot des DTM, No Data, Herstellungsjahr, ca. 1994 (10/94 - Prägung in Deckel Fach für Papierfilter)</t>
+  </si>
+  <si>
+    <t>1/1997/0543 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Kunststoff (u.a. Tenacit), Ø Höhe: 130 x 120 mm
+Masse: 0,18 kg, RZ 2.R 15.F 12.B 03, Depot des DTM, No Data, ca. 1930</t>
+  </si>
+  <si>
+    <t>1/1997/0544 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Metall, Holz, Objektmaß LxBxH: 190 x 110 x 130 mm
+Masse: 2,84 kg, RZ 2.R 15.F 12.B 04, Depot des DTM, No Data, 1930er Jahre</t>
+  </si>
+  <si>
+    <t>1/1997/0545 0, AEG-Produktsammlung, Metall, Kunststoff, Objektmaß LxBxH: 230 x 130 x 150 mm
+Masse: 0,58 kg, RZ 2.R 15.F 11.B 01, Depot des DTM, Im Haushalt alles elektrisch: kleine Warenkunde über Elektrogeräte im Haushalt. Coburg: IHI, 1959., Herst.-Zeitraum, 1959 - 1975
+Herstellungsjahr, 1973 (Bedeutung Herstellungsjahr?)</t>
+  </si>
+  <si>
+    <t>1/1997/0546 0, unbekannt
+AEG-Produktsammlung, Metall, Glas, Textilgewebe, Holz, Objektmaß LxBxH: 450 x 175 x 200 mm
+Masse: 2,5 kg, RZ 2.R 15.F 11.B 02, Depot des DTM, Kelling, Ingeborg. Alles elektrisch: 100 Jahre AEG Hausgeräte : [Ausstellung im Centrum Industriekultur Nürnberg, 1989]. Nürnberg: AEG Hausgeräte, 1989., Herstellungsjahr (Original), 1896 - 1906</t>
+  </si>
+  <si>
+    <t>1/1997/0548 04, AEG-Telefunken AG
+AEG-Produktsammlung, Karton, Objektmaß LxBxH: 405 x 103 x 100 mm
+Masse: 0,11 kg, RZ 2.R 15.F 12.B 03, Depot des DTM, No Data, Herstellungsjahr, 1985</t>
+  </si>
+  <si>
+    <t>1/1997/0549 01, AEG-Telefunken AG
+AEG-Produktsammlung, Papierfaser, Textilgewebe, Gummi, Ø Höhe: 86 x 90 mm
+Masse: 0,15 kg, RZ 2.R 15.F 12.B 03, Depot des DTM, No Data, Herst.-Zeitraum, 1980er Jahre (aufgeführt in AEG Hausgeräte-Lieferprogramm 1982)</t>
+  </si>
+  <si>
+    <t>1/1997/0551 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Holz, Messing, Ø Höhe: 35 x 110 mm
+Masse: 0,08 kg, RZ 2.R 15.F 12.B 02, Depot des DTM, No Data, No Data</t>
+  </si>
+  <si>
+    <t>1/1997/0552 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Gusseisen, Kunststoff, Metall, Objektmaß LxBxH: 225 x 170 x 230 mm
+Masse: 6,38 kg, RZ 2.R 15.F 12.B 03, Depot des DTM, Forschen und Schaffen 3. 3. Berlin: AEG, 1965., S. 205-206., ca. 1930</t>
+  </si>
+  <si>
+    <t>1/1997/0553 0, Allgemeine Elektricitäts-Gesellschaft AEG AG
+AEG-Produktsammlung, Metall, Objektmaß LxBxH: 55 x 15 x 24 mm
+Masse: 0,12 kg, RZ 2.R 15.F 12.B 02, Depot des DTM, No Data, No Data</t>
+  </si>
+  <si>
+    <t>1/1997/0554 0, Omega electric GmbH
+AEG-Produktsammlung, Metall, Holz, Textilgewebe, Kunststoff, Objektmaß TxBxH: 90 x 160 x 190 mm
+Masse: 0,56 kg, RZ 2.R 15.F 11.B 04, Depot des DTM, Schmitz, Silvia, and Dietrich Zur Nedden. Energiegeschichten. Lamspringe: Quensen, 2007., 20.Jh. 1.H.</t>
+  </si>
+  <si>
+    <t>1/1997/0555 0, Electricitäts-Gesellschaft Sanitas Berlin
+AEG-Produktsammlung, Metall, Holz, Kunststoff, Objektmaß TxBxH: 140 x 240 x 220 mm
+Masse: 0,86 kg, RZ 2.R 15.F 11.B 06, Depot des DTM, Schmitz, Silvia, and Dietrich Zur Nedden. Energiegeschichten. Lamspringe: Quensen, 2007., 1910 - 1950</t>
+  </si>
+  <si>
+    <t>1/1997/0556 0, AEG-Telefunken AG
+AEG-Produktsammlung, Kunststoff, Metall, Ø Länge: 50 x 140 mm
+Masse: 0,34 kg, RZ 2.R 15.F 11.B 08, Depot des DTM, AEG Aktiengesellschaft Hausgeräte (Nürnberg). 100 [Hundert] Jahre heiße Luft: [der Foen hat Geburtstag]. Nürnberg: AEG, 1998.                                   Schmitz, Silvia, and Dietrich Zur Nedden. Energiegeschichten. Lamspringe: Quensen, 2007., Herstellungsjahr, 1984</t>
   </si>
 </sst>
 </file>
@@ -526,98 +3876,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
